--- a/Projects/BATAU/Data/Template.xlsx
+++ b/Projects/BATAU/Data/Template.xlsx
@@ -440,23 +440,23 @@
   <dimension ref="1:27"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I30" activeCellId="0" sqref="I30"/>
+      <selection pane="topLeft" activeCell="E27" activeCellId="0" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="38.2914979757085"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="43.6882591093117"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="11.2753036437247"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="10.5060728744939"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="14.3684210526316"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="12.8178137651822"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="32.8866396761134"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="69.9352226720648"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="16.6801619433198"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="47.5546558704454"/>
-    <col collapsed="false" hidden="false" max="1020" min="11" style="2" width="9.1417004048583"/>
-    <col collapsed="false" hidden="false" max="1025" min="1021" style="1" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="39.3117408906883"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="44.668016194332"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="11.246963562753"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="10.6032388663968"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="14.6761133603239"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="13.0688259109312"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="33.7408906882591"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="71.663967611336"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="17.0323886639676"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="48.8461538461539"/>
+    <col collapsed="false" hidden="false" max="1020" min="11" style="2" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1025" min="1021" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1303,7 +1303,7 @@
         <v>53</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="F27" s="6" t="s">
         <v>54</v>
@@ -1340,18 +1340,18 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E24" activeCellId="0" sqref="E24"/>
+      <selection pane="topLeft" activeCell="E24" activeCellId="1" sqref="E27 E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.8502024291498"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.4939271255061"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="3.53441295546559"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.1417004048583"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.5668016194332"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="71.0202429149798"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.8906882591093"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="72.9473684210526"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.1417004048583"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="48.417004048583"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="49.5951417004049"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="3.53441295546559"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="9.10526315789474"/>
   </cols>
@@ -1432,7 +1432,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="E27 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1458,7 +1458,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="E27 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>

--- a/Projects/BATAU/Data/Template.xlsx
+++ b/Projects/BATAU/Data/Template.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="117">
   <si>
     <t xml:space="preserve">kpi_parent_name</t>
   </si>
@@ -200,6 +200,162 @@
   </si>
   <si>
     <t xml:space="preserve">manufacturer_name,category,brand_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BAT_SOR_BAT_Manf_TMC_Cat_Premium_Scat_Store</t>
+  </si>
+  <si>
+    <t xml:space="preserve">manufacturer_name=='BAT' and   category=='Tailor Made Cigarettes' and sub_category=='Premium' and product_type=='SKU'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">category=='Tailor Made Cigarettes' and sub_category=='Premium' and product_type=='SKU'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BAT_SOR_BAT_Manf_TMC_Cat_Aspirational_Premium_Scat_Store</t>
+  </si>
+  <si>
+    <t xml:space="preserve">manufacturer_name=='BAT' and   category=='Tailor Made Cigarettes' and sub_category=='AspirationalPremium' and product_type=='SKU'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">category=='Tailor Made Cigarettes' and sub_category=='AspirationalPremium' and product_type=='SKU'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BAT_SOR_BAT_Manf_TMC_Cat_Low_Scat_Store</t>
+  </si>
+  <si>
+    <t xml:space="preserve">manufacturer_name=='BAT' and   category=='Tailor Made Cigarettes' and sub_category=='Low' and product_type=='SKU'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">category=='Tailor Made Cigarettes' and sub_category=='Low' and product_type=='SKU'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BAT_SOR_BAT_Manf_TMC_Cat_VFM_Scat_Store</t>
+  </si>
+  <si>
+    <t xml:space="preserve">manufacturer_name=='BAT' and   category=='Tailor Made Cigarettes' and sub_category=='VFM' and product_type=='SKU'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">category=='Tailor Made Cigarettes' and sub_category=='VFM' and product_type=='SKU'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BAT_SOR_BAT_Manf_TMC_Cat_MS_Scat_Store</t>
+  </si>
+  <si>
+    <t xml:space="preserve">manufacturer_name=='BAT' and   category=='Tailor Made Cigarettes' and sub_category=='MAINSTREAM' and product_type=='SKU'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">category=='Tailor Made Cigarettes' and sub_category=='MAINSTREAM' and product_type=='SKU'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BAT_SOR_BAT_Manf_RYO_Cat_Premium_Scat_Store</t>
+  </si>
+  <si>
+    <t xml:space="preserve">manufacturer_name=='BAT' and   category=='Roll Your Own Cigarettes' and sub_category=='Premium' and product_type=='SKU'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">category=='Roll Your Own Cigarettes' and sub_category=='Premium' and product_type=='SKU'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BAT_SOR_BAT_Manf_RYO_Cat_Aspirational_Premium_Scat_Store</t>
+  </si>
+  <si>
+    <t xml:space="preserve">manufacturer_name=='BAT' and   category=='Roll Your Own Cigarettes' and sub_category=='AspirationalPremium' and product_type=='SKU'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">category=='Roll Your Own Cigarettes' and sub_category=='AspirationalPremium' and product_type=='SKU'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BAT_SOR_BAT_Manf_RYO_Cat_Low_Scat_Store</t>
+  </si>
+  <si>
+    <t xml:space="preserve">manufacturer_name=='BAT' and   category=='Roll Your Own Cigarettes' and sub_category=='Low' and product_type=='SKU'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">category=='Roll Your Own Cigarettes' and sub_category=='Low' and product_type=='SKU'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BAT_SOR_BAT_Manf_RYO_Cat_VFM_Scat_Store</t>
+  </si>
+  <si>
+    <t xml:space="preserve">manufacturer_name=='BAT' and   category=='Roll Your Own Cigarettes' and sub_category=='VFM' and product_type=='SKU'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">category=='Roll Your Own Cigarettes' and sub_category=='VFM' and product_type=='SKU'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BAT_SOR_BAT_Manf_RYO_Cat_MS_Scat_Store</t>
+  </si>
+  <si>
+    <t xml:space="preserve">manufacturer_name=='BAT' and   category=='Roll Your Own Cigarettes' and sub_category=='MAINSTREAM' and product_type=='SKU'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">category=='Roll Your Own Cigarettes' and sub_category=='MAINSTREAM' and product_type=='SKU'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BAT_SOR_All_Manf_TMC_Cat_Premium_Scat_Store</t>
+  </si>
+  <si>
+    <t xml:space="preserve">manufacturer_name,category,sub_category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BAT_SOR_All_Manf_TMC_Cat_Aspirational_Premium_Scat_Store</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BAT_SOR_All_Manf_TMC_Cat_Low_Scat_Store</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BAT_SOR_All_Manf_TMC_Cat_VFM_Scat_Store</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BAT_SOR_All_Manf_TMC_Cat_MS_Scat_Store</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BAT_SOR_All_Manf_RYO_Cat_Premium_Scat_Store</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BAT_SOR_All_Manf_RYO_Cat_Aspirational_Premium_Scat_Store</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BAT_SOR_All_Manf_RYO_Cat_Low_Scat_Store</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BAT_SOR_All_Manf_RYO_Cat_VFM_Scat_Store</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BAT_SOR_All_Manf_RYO_Cat_MS_Scat_Store</t>
+  </si>
+  <si>
+    <t xml:space="preserve">manufacturer_name,category,sub_category,brand_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BAT_SOR_All_Manf_TMC_Cat_Premium_Scat_All_Brands_Store</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BAT_SOR_All_Manf_TMC_Cat_Aspirational_Premium_Scat_All_Brands_Store</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BAT_SOR_All_Manf_TMC_Cat_Low_Scat_All_Brands_Store</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BAT_SOR_All_Manf_TMC_Cat_VFM_Scat_All_Brands_Store</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BAT_SOR_All_Manf_TMC_Cat_MS_Scat_All_Brands_Store</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BAT_SOR_All_Manf_RYO_Cat_Premium_Scat_All_Brands_Store</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BAT_SOR_All_Manf_RYO_Cat_Aspirational_Premium_Scat_All_Brands_Store</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BAT_SOR_All_Manf_RYO_Cat_Low_Scat_All_Brands_Store</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BAT_SOR_All_Manf_RYO_Cat_VFM_Scat_All_Brands_Store</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BAT_SOR_All_Manf_RYO_Cat_MS_Scat_All_Brands_Store</t>
   </si>
   <si>
     <t xml:space="preserve">Store</t>
@@ -437,26 +593,26 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:27"/>
+  <dimension ref="1:57"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E27" activeCellId="0" sqref="E27"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J29" activeCellId="0" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="39.3117408906883"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="44.668016194332"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="11.246963562753"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="14.6761133603239"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="13.0688259109312"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="33.7408906882591"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="71.663967611336"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="17.0323886639676"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="48.8461538461539"/>
-    <col collapsed="false" hidden="false" max="1020" min="11" style="2" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="1025" min="1021" style="1" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="44.4696356275304"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="52.9514170040486"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="11.2753036437247"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="10.5060728744939"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="14.3684210526316"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="12.8178137651822"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="39.834008097166"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="102.348178137652"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="16.6801619433198"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="78.4251012145749"/>
+    <col collapsed="false" hidden="false" max="1020" min="11" style="2" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1025" min="1021" style="1" width="9.1417004048583"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1321,6 +1477,936 @@
         <v>16</v>
       </c>
     </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="J28" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="J29" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="J30" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="I31" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="J31" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="J32" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="I33" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="J33" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="I34" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="J34" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="I35" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="J35" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="I36" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="J36" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="I37" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="J37" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="I38" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="J38" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="I39" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="J39" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="H40" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="I40" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="J40" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="H41" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="I41" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="J41" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="H42" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="I42" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="J42" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="H43" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="I43" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="J43" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="H44" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="I44" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="J44" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="H45" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="I45" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="J45" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="H46" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="I46" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="J46" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G47" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="H47" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="I47" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="J47" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G48" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="H48" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="I48" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="J48" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G49" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="H49" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="I49" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="J49" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G50" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="H50" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="I50" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="J50" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G51" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="H51" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="I51" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="J51" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F52" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G52" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="H52" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="I52" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="J52" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F53" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G53" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="H53" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="I53" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="J53" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F54" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G54" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="H54" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="I54" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="J54" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F55" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G55" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="H55" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="I55" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="J55" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F56" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G56" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="H56" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="I56" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="J56" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F57" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G57" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="H57" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="I57" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="J57" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1340,18 +2426,18 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E24" activeCellId="1" sqref="E27 E24"/>
+      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.2793522267206"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="3.53441295546559"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.1417004048583"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.8906882591093"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="72.9473684210526"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.7813765182186"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="72.3036437246964"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.1417004048583"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="49.5951417004049"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="49.2753036437247"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="3.53441295546559"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="9.10526315789474"/>
   </cols>
@@ -1369,22 +2455,22 @@
         <v>12</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>59</v>
+        <v>111</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>13</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>60</v>
+        <v>112</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>61</v>
+        <v>113</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>62</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1395,22 +2481,22 @@
         <v>12</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>59</v>
+        <v>111</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>63</v>
+        <v>115</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>64</v>
+        <v>116</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>62</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -1432,7 +2518,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="E27 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1458,7 +2544,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="E27 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>

--- a/Projects/BATAU/Data/Template.xlsx
+++ b/Projects/BATAU/Data/Template.xlsx
@@ -595,24 +595,24 @@
   </sheetPr>
   <dimension ref="1:57"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J29" activeCellId="0" sqref="J29"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C27" activeCellId="0" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="44.4696356275304"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="52.9514170040486"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="11.2753036437247"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="10.5060728744939"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="14.3684210526316"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="12.8178137651822"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="39.834008097166"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="102.348178137652"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="16.6801619433198"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="78.4251012145749"/>
-    <col collapsed="false" hidden="false" max="1020" min="11" style="2" width="9.1417004048583"/>
-    <col collapsed="false" hidden="false" max="1025" min="1021" style="1" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="44.7773279352227"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="53.4534412955466"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="11.246963562753"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="10.6032388663968"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="14.4615384615385"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="15.7611336032389"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="40.0607287449393"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="103.263157894737"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="16.8178137651822"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="79.1619433198381"/>
+    <col collapsed="false" hidden="false" max="1020" min="11" style="2" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1025" min="1021" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1368,7 +1368,7 @@
         <v>33</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G24" s="6" t="s">
         <v>51</v>
@@ -1478,6 +1478,7 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0"/>
       <c r="B28" s="6" t="s">
         <v>59</v>
       </c>
@@ -1507,6 +1508,7 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0"/>
       <c r="B29" s="6" t="s">
         <v>62</v>
       </c>
@@ -1536,6 +1538,7 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0"/>
       <c r="B30" s="6" t="s">
         <v>65</v>
       </c>
@@ -1565,6 +1568,7 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0"/>
       <c r="B31" s="6" t="s">
         <v>68</v>
       </c>
@@ -1594,6 +1598,7 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0"/>
       <c r="B32" s="6" t="s">
         <v>71</v>
       </c>
@@ -1623,6 +1628,7 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0"/>
       <c r="B33" s="6" t="s">
         <v>74</v>
       </c>
@@ -1652,6 +1658,7 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0"/>
       <c r="B34" s="6" t="s">
         <v>77</v>
       </c>
@@ -1681,6 +1688,7 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0"/>
       <c r="B35" s="6" t="s">
         <v>80</v>
       </c>
@@ -1710,6 +1718,7 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0"/>
       <c r="B36" s="6" t="s">
         <v>83</v>
       </c>
@@ -1739,6 +1748,7 @@
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0"/>
       <c r="B37" s="6" t="s">
         <v>86</v>
       </c>
@@ -2431,13 +2441,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.2793522267206"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.4939271255061"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="3.53441295546559"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.1417004048583"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.7813765182186"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="72.3036437246964"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.8906882591093"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="72.9473684210526"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.1417004048583"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="49.2753036437247"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="49.5951417004049"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="3.53441295546559"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="9.10526315789474"/>
   </cols>

--- a/Projects/BATAU/Data/Template.xlsx
+++ b/Projects/BATAU/Data/Template.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="118">
   <si>
     <t xml:space="preserve">kpi_parent_name</t>
   </si>
@@ -176,6 +176,9 @@
   </si>
   <si>
     <t xml:space="preserve">BAT_SOR_All_Manf_All_Brands_Store</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOR-Brand</t>
   </si>
   <si>
     <t xml:space="preserve">manufacturer_name,brand_name</t>
@@ -613,22 +616,22 @@
   </sheetPr>
   <dimension ref="1:57"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I24" activeCellId="0" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="45.5263157894737"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="54.3076923076923"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="45.9554655870445"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="54.7368421052632"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="2" width="11.246963562753"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="2" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="14.6761133603239"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="15.9595141700405"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="40.7044534412955"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="105.085020242915"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="17.0323886639676"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="80.4453441295547"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="14.7813765182186"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="16.0688259109312"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="41.0283400809717"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="106.048582995951"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="17.1376518218624"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="81.1943319838057"/>
     <col collapsed="false" hidden="false" max="1020" min="11" style="2" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1021" style="1" width="9.10526315789474"/>
   </cols>
@@ -23688,7 +23691,7 @@
         <v>11</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>33</v>
@@ -23697,12 +23700,12 @@
         <v>13</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H24" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I24" s="7" t="s">
+      <c r="I24" s="6" t="s">
         <v>13</v>
       </c>
       <c r="J24" s="7" t="s">
@@ -23716,28 +23719,28 @@
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="6"/>
       <c r="B25" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>13</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H25" s="6" t="s">
         <v>15</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J25" s="6" t="s">
         <v>16</v>
@@ -23745,31 +23748,31 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>13</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H26" s="6" t="s">
         <v>16</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J26" s="6" t="s">
         <v>16</v>
@@ -23777,31 +23780,31 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>33</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H27" s="6" t="s">
         <v>16</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J27" s="6" t="s">
         <v>16</v>
@@ -23810,941 +23813,941 @@
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0"/>
       <c r="B28" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>13</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G28" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="I28" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="H28" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="I28" s="6" t="s">
-        <v>54</v>
-      </c>
       <c r="J28" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0"/>
       <c r="B29" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E29" s="6" t="s">
         <v>13</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G29" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="I29" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="H29" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="I29" s="6" t="s">
-        <v>54</v>
-      </c>
       <c r="J29" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0"/>
       <c r="B30" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E30" s="6" t="s">
         <v>13</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G30" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="I30" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="H30" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="I30" s="6" t="s">
-        <v>54</v>
-      </c>
       <c r="J30" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0"/>
       <c r="B31" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E31" s="6" t="s">
         <v>13</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G31" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="I31" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="H31" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="I31" s="6" t="s">
-        <v>54</v>
-      </c>
       <c r="J31" s="6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0"/>
       <c r="B32" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E32" s="6" t="s">
         <v>13</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G32" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="I32" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="H32" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="I32" s="6" t="s">
-        <v>54</v>
-      </c>
       <c r="J32" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0"/>
       <c r="B33" s="6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E33" s="6" t="s">
         <v>13</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G33" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="I33" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="H33" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="I33" s="6" t="s">
-        <v>54</v>
-      </c>
       <c r="J33" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0"/>
       <c r="B34" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E34" s="6" t="s">
         <v>13</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G34" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="I34" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="H34" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="I34" s="6" t="s">
-        <v>54</v>
-      </c>
       <c r="J34" s="6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0"/>
       <c r="B35" s="6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C35" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E35" s="6" t="s">
         <v>13</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G35" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="I35" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="H35" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="I35" s="6" t="s">
-        <v>54</v>
-      </c>
       <c r="J35" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0"/>
       <c r="B36" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E36" s="6" t="s">
         <v>13</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G36" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="I36" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="H36" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="I36" s="6" t="s">
-        <v>54</v>
-      </c>
       <c r="J36" s="6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0"/>
       <c r="B37" s="6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C37" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E37" s="6" t="s">
         <v>13</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G37" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="I37" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="H37" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="I37" s="6" t="s">
-        <v>54</v>
-      </c>
       <c r="J37" s="6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E38" s="6" t="s">
         <v>13</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H38" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I38" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J38" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C39" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E39" s="6" t="s">
         <v>13</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I39" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J39" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C40" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E40" s="6" t="s">
         <v>13</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H40" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I40" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J40" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C41" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E41" s="6" t="s">
         <v>13</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H41" s="6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I41" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J41" s="6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C42" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E42" s="6" t="s">
         <v>13</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H42" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I42" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J42" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C43" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E43" s="6" t="s">
         <v>13</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H43" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I43" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J43" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C44" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E44" s="6" t="s">
         <v>13</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H44" s="6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I44" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J44" s="6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C45" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E45" s="6" t="s">
         <v>13</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H45" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I45" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J45" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C46" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E46" s="6" t="s">
         <v>13</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H46" s="6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I46" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J46" s="6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C47" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E47" s="6" t="s">
         <v>13</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H47" s="6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I47" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J47" s="6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C48" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E48" s="6" t="s">
         <v>33</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H48" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I48" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J48" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C49" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E49" s="6" t="s">
         <v>33</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H49" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I49" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J49" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C50" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E50" s="6" t="s">
         <v>33</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H50" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I50" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J50" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C51" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E51" s="6" t="s">
         <v>33</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H51" s="6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I51" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J51" s="6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C52" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E52" s="6" t="s">
         <v>33</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H52" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I52" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J52" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C53" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E53" s="6" t="s">
         <v>33</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H53" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I53" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J53" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C54" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E54" s="6" t="s">
         <v>33</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H54" s="6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I54" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J54" s="6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C55" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E55" s="6" t="s">
         <v>33</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H55" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I55" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J55" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C56" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E56" s="6" t="s">
         <v>33</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G56" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H56" s="6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I56" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J56" s="6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C57" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E57" s="6" t="s">
         <v>33</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H57" s="6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I57" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J57" s="6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -24771,13 +24774,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.7085020242915"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.8137651821862"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="3.53441295546559"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.1417004048583"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.1052631578947"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="74.2348178137652"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.2105263157895"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="74.8744939271255"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.1417004048583"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="50.3441295546559"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="50.7732793522267"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="3.53441295546559"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="9.10526315789474"/>
   </cols>
@@ -24789,54 +24792,54 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>12</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>13</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F2" s="10" t="s">
         <v>14</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F3" s="10" t="s">
         <v>14</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/Projects/BATAU/Data/Template.xlsx
+++ b/Projects/BATAU/Data/Template.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="119">
   <si>
     <t xml:space="preserve">kpi_parent_name</t>
   </si>
@@ -176,9 +176,6 @@
   </si>
   <si>
     <t xml:space="preserve">BAT_SOR_All_Manf_All_Brands_Store</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOR-Brand</t>
   </si>
   <si>
     <t xml:space="preserve">manufacturer_name,brand_name</t>
@@ -359,6 +356,12 @@
   </si>
   <si>
     <t xml:space="preserve">BAT_SOR_All_Manf_RYO_Cat_MS_Scat_All_Brands_Store</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BAT_SOR_All_Manf_All_Brands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOR-Brand</t>
   </si>
   <si>
     <t xml:space="preserve">Store</t>
@@ -614,24 +617,24 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:57"/>
+  <dimension ref="1:58"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I24" activeCellId="0" sqref="I24"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B50" activeCellId="0" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="45.9554655870445"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="54.7368421052632"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="46.7044534412956"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="55.7004048582996"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="2" width="11.246963562753"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="2" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="14.7813765182186"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="16.0688259109312"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="41.0283400809717"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="106.048582995951"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="17.1376518218624"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="81.1943319838057"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="14.9959514170041"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="41.668016194332"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="107.87044534413"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="17.3522267206478"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="82.6963562753036"/>
     <col collapsed="false" hidden="false" max="1020" min="11" style="2" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1021" style="1" width="9.10526315789474"/>
   </cols>
@@ -22634,7 +22637,7 @@
       <c r="AMI22" s="0"/>
       <c r="AMJ22" s="0"/>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="s">
         <v>44</v>
       </c>
@@ -23690,23 +23693,23 @@
       <c r="C24" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D24" s="7" t="s">
-        <v>51</v>
+      <c r="D24" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>33</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H24" s="7" t="s">
         <v>16</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>16</v>
@@ -23719,28 +23722,28 @@
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="6"/>
       <c r="B25" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>13</v>
       </c>
       <c r="F25" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G25" s="6" t="s">
         <v>55</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>56</v>
       </c>
       <c r="H25" s="6" t="s">
         <v>15</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J25" s="6" t="s">
         <v>16</v>
@@ -23748,31 +23751,31 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>13</v>
       </c>
       <c r="F26" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G26" s="6" t="s">
         <v>55</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>56</v>
       </c>
       <c r="H26" s="6" t="s">
         <v>16</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J26" s="6" t="s">
         <v>16</v>
@@ -23780,31 +23783,31 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27" s="6" t="s">
         <v>57</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>58</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>33</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H27" s="6" t="s">
         <v>16</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J27" s="6" t="s">
         <v>16</v>
@@ -23813,941 +23816,970 @@
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0"/>
       <c r="B28" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>13</v>
       </c>
       <c r="F28" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G28" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="G28" s="6" t="s">
-        <v>56</v>
-      </c>
       <c r="H28" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="J28" s="6" t="s">
         <v>61</v>
-      </c>
-      <c r="I28" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="J28" s="6" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0"/>
       <c r="B29" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E29" s="6" t="s">
         <v>13</v>
       </c>
       <c r="F29" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G29" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="G29" s="6" t="s">
-        <v>56</v>
-      </c>
       <c r="H29" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="J29" s="6" t="s">
         <v>64</v>
-      </c>
-      <c r="I29" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="J29" s="6" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0"/>
       <c r="B30" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E30" s="6" t="s">
         <v>13</v>
       </c>
       <c r="F30" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G30" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="G30" s="6" t="s">
-        <v>56</v>
-      </c>
       <c r="H30" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="J30" s="6" t="s">
         <v>67</v>
-      </c>
-      <c r="I30" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="J30" s="6" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0"/>
       <c r="B31" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E31" s="6" t="s">
         <v>13</v>
       </c>
       <c r="F31" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G31" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="G31" s="6" t="s">
-        <v>56</v>
-      </c>
       <c r="H31" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="I31" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="J31" s="6" t="s">
         <v>70</v>
-      </c>
-      <c r="I31" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="J31" s="6" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0"/>
       <c r="B32" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E32" s="6" t="s">
         <v>13</v>
       </c>
       <c r="F32" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G32" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="G32" s="6" t="s">
-        <v>56</v>
-      </c>
       <c r="H32" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="J32" s="6" t="s">
         <v>73</v>
-      </c>
-      <c r="I32" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="J32" s="6" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0"/>
       <c r="B33" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E33" s="6" t="s">
         <v>13</v>
       </c>
       <c r="F33" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G33" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="G33" s="6" t="s">
-        <v>56</v>
-      </c>
       <c r="H33" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="I33" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="J33" s="6" t="s">
         <v>76</v>
-      </c>
-      <c r="I33" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="J33" s="6" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0"/>
       <c r="B34" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E34" s="6" t="s">
         <v>13</v>
       </c>
       <c r="F34" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G34" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="G34" s="6" t="s">
-        <v>56</v>
-      </c>
       <c r="H34" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="I34" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="J34" s="6" t="s">
         <v>79</v>
-      </c>
-      <c r="I34" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="J34" s="6" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0"/>
       <c r="B35" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C35" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E35" s="6" t="s">
         <v>13</v>
       </c>
       <c r="F35" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G35" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="G35" s="6" t="s">
-        <v>56</v>
-      </c>
       <c r="H35" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="I35" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="J35" s="6" t="s">
         <v>82</v>
-      </c>
-      <c r="I35" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="J35" s="6" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0"/>
       <c r="B36" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E36" s="6" t="s">
         <v>13</v>
       </c>
       <c r="F36" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G36" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="G36" s="6" t="s">
-        <v>56</v>
-      </c>
       <c r="H36" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="I36" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="J36" s="6" t="s">
         <v>85</v>
-      </c>
-      <c r="I36" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="J36" s="6" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0"/>
       <c r="B37" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C37" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E37" s="6" t="s">
         <v>13</v>
       </c>
       <c r="F37" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G37" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="G37" s="6" t="s">
-        <v>56</v>
-      </c>
       <c r="H37" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="I37" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="J37" s="6" t="s">
         <v>88</v>
-      </c>
-      <c r="I37" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="J37" s="6" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E38" s="6" t="s">
         <v>13</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H38" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I38" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J38" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C39" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E39" s="6" t="s">
         <v>13</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I39" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J39" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C40" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E40" s="6" t="s">
         <v>13</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H40" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I40" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J40" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C41" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E41" s="6" t="s">
         <v>13</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H41" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I41" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J41" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C42" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E42" s="6" t="s">
         <v>13</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H42" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I42" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J42" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C43" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E43" s="6" t="s">
         <v>13</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H43" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I43" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J43" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C44" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E44" s="6" t="s">
         <v>13</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H44" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I44" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J44" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C45" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E45" s="6" t="s">
         <v>13</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H45" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I45" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J45" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C46" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E46" s="6" t="s">
         <v>13</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H46" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I46" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J46" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C47" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E47" s="6" t="s">
         <v>13</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H47" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I47" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J47" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C48" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E48" s="6" t="s">
         <v>33</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H48" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I48" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J48" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C49" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E49" s="6" t="s">
         <v>33</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H49" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I49" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J49" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C50" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E50" s="6" t="s">
         <v>33</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H50" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I50" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J50" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C51" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E51" s="6" t="s">
         <v>33</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H51" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I51" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J51" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C52" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E52" s="6" t="s">
         <v>33</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H52" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I52" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J52" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C53" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E53" s="6" t="s">
         <v>33</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H53" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I53" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J53" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C54" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E54" s="6" t="s">
         <v>33</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H54" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I54" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J54" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C55" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E55" s="6" t="s">
         <v>33</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H55" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I55" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J55" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C56" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E56" s="6" t="s">
         <v>33</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G56" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H56" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I56" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J56" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C57" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E57" s="6" t="s">
         <v>33</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H57" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I57" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J57" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B58" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G58" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H58" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I58" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J58" s="7" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -24774,13 +24806,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="26.0283400809717"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="3.53441295546559"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.1417004048583"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.2105263157895"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="74.8744939271255"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="76.1619433198381"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.1417004048583"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="50.7732793522267"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="51.6315789473684"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="3.53441295546559"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="9.10526315789474"/>
   </cols>
@@ -24792,54 +24824,54 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>12</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>13</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F2" s="10" t="s">
         <v>14</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F3" s="10" t="s">
         <v>14</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/Projects/BATAU/Data/Template.xlsx
+++ b/Projects/BATAU/Data/Template.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="127">
   <si>
     <t xml:space="preserve">kpi_parent_name</t>
   </si>
@@ -376,19 +376,16 @@
     <t xml:space="preserve">BAT_SOR_All_Manf_Premium_Scat_Brands</t>
   </si>
   <si>
+    <t xml:space="preserve">BAT_SOR_All_Manf_Aspirational_Premium_Scat_Brands</t>
+  </si>
+  <si>
     <t xml:space="preserve">BAT_SOR_All_Manf_Low_Scat_Brands</t>
   </si>
   <si>
     <t xml:space="preserve">BAT_SOR_All_Manf_VFM_Scat_Brands</t>
   </si>
   <si>
-    <t xml:space="preserve">BAT_SOR_All_Manf_Value_Scat_Brands</t>
-  </si>
-  <si>
     <t xml:space="preserve">BAT_SOR_All_Manf_MS_Scat_Brands</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BAT_SOR_All_Manf_Aspirational_Premium_Scat_Brands</t>
   </si>
   <si>
     <t xml:space="preserve">Store</t>
@@ -522,7 +519,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -560,6 +557,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -644,26 +645,25 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:66"/>
+  <dimension ref="1:65"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A60" activeCellId="0" sqref="A60"/>
+      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="47.7732793522267"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="56.9878542510121"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="11.246963562753"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="15.3198380566802"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="42.6315789473684"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="110.761133603239"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="17.6761133603239"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="84.8380566801619"/>
-    <col collapsed="false" hidden="false" max="1020" min="11" style="2" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="1025" min="1021" style="1" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="44.4696356275304"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="52.9514170040486"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="11.2753036437247"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="10.5060728744939"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="2" width="14.3684210526316"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="39.834008097166"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="102.348178137652"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="16.6801619433198"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="78.4251012145749"/>
+    <col collapsed="false" hidden="false" max="1020" min="11" style="2" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1025" min="1021" style="1" width="9.1417004048583"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -57196,7 +57196,7 @@
       <c r="AMI56" s="0"/>
       <c r="AMJ56" s="0"/>
     </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="6" t="s">
         <v>99</v>
       </c>
@@ -58242,8 +58242,8 @@
       <c r="AMI57" s="0"/>
       <c r="AMJ57" s="0"/>
     </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0"/>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="10"/>
       <c r="B58" s="7" t="s">
         <v>111</v>
       </c>
@@ -60331,6 +60331,7 @@
       <c r="AMJ59" s="0"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="5"/>
       <c r="B60" s="7" t="s">
         <v>115</v>
       </c>
@@ -60360,7 +60361,8 @@
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B61" s="2" t="s">
+      <c r="A61" s="5"/>
+      <c r="B61" s="6" t="s">
         <v>116</v>
       </c>
       <c r="C61" s="6" t="s">
@@ -60389,7 +60391,8 @@
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B62" s="2" t="s">
+      <c r="A62" s="5"/>
+      <c r="B62" s="6" t="s">
         <v>117</v>
       </c>
       <c r="C62" s="6" t="s">
@@ -60418,7 +60421,8 @@
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B63" s="2" t="s">
+      <c r="A63" s="5"/>
+      <c r="B63" s="6" t="s">
         <v>118</v>
       </c>
       <c r="C63" s="6" t="s">
@@ -60447,7 +60451,8 @@
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B64" s="2" t="s">
+      <c r="A64" s="5"/>
+      <c r="B64" s="6" t="s">
         <v>119</v>
       </c>
       <c r="C64" s="6" t="s">
@@ -60476,7 +60481,8 @@
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B65" s="2" t="s">
+      <c r="A65" s="5"/>
+      <c r="B65" s="6" t="s">
         <v>120</v>
       </c>
       <c r="C65" s="6" t="s">
@@ -60502,11 +60508,6 @@
       </c>
       <c r="J65" s="6" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B66" s="2" t="s">
-        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -60533,13 +60534,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="26.5668016194332"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="26.7813765182186"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="3.53441295546559"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.1417004048583"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.7449392712551"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="78.0890688259109"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="78.8380566801619"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.1417004048583"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="53.0242914979757"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="53.4534412955466"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="3.53441295546559"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="9.10526315789474"/>
   </cols>
@@ -60550,55 +60551,55 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="D2" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="10" t="s">
+      <c r="F2" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="F2" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="10" t="s">
+      <c r="H2" s="6" t="s">
         <v>124</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="D3" s="10" t="s">
+      <c r="C3" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="D3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="F3" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>127</v>
-      </c>
       <c r="H3" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>

--- a/Projects/BATAU/Data/Template.xlsx
+++ b/Projects/BATAU/Data/Template.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="128">
   <si>
     <t xml:space="preserve">kpi_parent_name</t>
   </si>
@@ -376,6 +376,9 @@
     <t xml:space="preserve">BAT_SOR_All_Manf_Premium_Scat_Brands</t>
   </si>
   <si>
+    <t xml:space="preserve">sub_category</t>
+  </si>
+  <si>
     <t xml:space="preserve">BAT_SOR_All_Manf_Aspirational_Premium_Scat_Brands</t>
   </si>
   <si>
@@ -647,23 +650,27 @@
   </sheetPr>
   <dimension ref="1:65"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C30" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A30" activeCellId="0" sqref="A30"/>
+      <selection pane="bottomRight" activeCell="F67" activeCellId="0" sqref="F67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="44.4696356275304"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="52.9514170040486"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="11.2753036437247"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="10.5060728744939"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="2" width="14.3684210526316"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="39.834008097166"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="102.348178137652"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="16.6801619433198"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="78.4251012145749"/>
-    <col collapsed="false" hidden="false" max="1020" min="11" style="2" width="9.1417004048583"/>
-    <col collapsed="false" hidden="false" max="1025" min="1021" style="1" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="45.0971659919028"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="53.8825910931174"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="11.246963562753"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="10.6032388663968"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="2" width="14.5668016194332"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="40.3846153846154"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="104.121457489879"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="16.9230769230769"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="79.8016194331984"/>
+    <col collapsed="false" hidden="false" max="1020" min="11" style="2" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1025" min="1021" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -60375,7 +60382,7 @@
         <v>33</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>13</v>
+        <v>117</v>
       </c>
       <c r="G61" s="6" t="s">
         <v>34</v>
@@ -60384,7 +60391,7 @@
         <v>19</v>
       </c>
       <c r="I61" s="6" t="s">
-        <v>13</v>
+        <v>117</v>
       </c>
       <c r="J61" s="6" t="s">
         <v>19</v>
@@ -60393,7 +60400,7 @@
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="5"/>
       <c r="B62" s="6" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C62" s="6" t="s">
         <v>11</v>
@@ -60405,7 +60412,7 @@
         <v>33</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>13</v>
+        <v>117</v>
       </c>
       <c r="G62" s="6" t="s">
         <v>34</v>
@@ -60414,7 +60421,7 @@
         <v>22</v>
       </c>
       <c r="I62" s="6" t="s">
-        <v>13</v>
+        <v>117</v>
       </c>
       <c r="J62" s="6" t="s">
         <v>22</v>
@@ -60423,7 +60430,7 @@
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="5"/>
       <c r="B63" s="6" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C63" s="6" t="s">
         <v>11</v>
@@ -60435,7 +60442,7 @@
         <v>33</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>13</v>
+        <v>117</v>
       </c>
       <c r="G63" s="6" t="s">
         <v>34</v>
@@ -60444,7 +60451,7 @@
         <v>25</v>
       </c>
       <c r="I63" s="6" t="s">
-        <v>13</v>
+        <v>117</v>
       </c>
       <c r="J63" s="6" t="s">
         <v>25</v>
@@ -60453,7 +60460,7 @@
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="5"/>
       <c r="B64" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C64" s="6" t="s">
         <v>11</v>
@@ -60465,7 +60472,7 @@
         <v>33</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>13</v>
+        <v>117</v>
       </c>
       <c r="G64" s="6" t="s">
         <v>34</v>
@@ -60474,7 +60481,7 @@
         <v>28</v>
       </c>
       <c r="I64" s="6" t="s">
-        <v>13</v>
+        <v>117</v>
       </c>
       <c r="J64" s="6" t="s">
         <v>28</v>
@@ -60483,7 +60490,7 @@
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="5"/>
       <c r="B65" s="6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C65" s="6" t="s">
         <v>11</v>
@@ -60495,7 +60502,7 @@
         <v>33</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>13</v>
+        <v>117</v>
       </c>
       <c r="G65" s="6" t="s">
         <v>34</v>
@@ -60504,7 +60511,7 @@
         <v>31</v>
       </c>
       <c r="I65" s="6" t="s">
-        <v>13</v>
+        <v>117</v>
       </c>
       <c r="J65" s="6" t="s">
         <v>31</v>
@@ -60534,13 +60541,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="26.7813765182186"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.2064777327935"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="3.53441295546559"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.1417004048583"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.8542510121457"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="78.8380566801619"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.0688259109312"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="80.2307692307692"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.1417004048583"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="53.4534412955466"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="54.3076923076923"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="3.53441295546559"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="9.10526315789474"/>
   </cols>
@@ -60558,22 +60565,22 @@
         <v>12</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>13</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>14</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -60584,22 +60591,22 @@
         <v>12</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F3" s="11" t="s">
         <v>14</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/Projects/BATAU/Data/Template.xlsx
+++ b/Projects/BATAU/Data/Template.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="129">
   <si>
     <t xml:space="preserve">kpi_parent_name</t>
   </si>
@@ -61,7 +61,7 @@
     <t xml:space="preserve">PrimaryShelf</t>
   </si>
   <si>
-    <t xml:space="preserve">SOR</t>
+    <t xml:space="preserve">SOR_Type_1</t>
   </si>
   <si>
     <t xml:space="preserve">manufacturer_name</t>
@@ -184,7 +184,7 @@
     <t xml:space="preserve">BAT_SOR_BAT_Manf_All_Cat_Store</t>
   </si>
   <si>
-    <t xml:space="preserve">SOR-Category</t>
+    <t xml:space="preserve">SOR_Type_2</t>
   </si>
   <si>
     <t xml:space="preserve">category</t>
@@ -361,7 +361,7 @@
     <t xml:space="preserve">BAT_SOR_All_Manf_All_Brands</t>
   </si>
   <si>
-    <t xml:space="preserve">SOR-Brand</t>
+    <t xml:space="preserve">SOR_Type_3</t>
   </si>
   <si>
     <t xml:space="preserve">BAT_POS_SOR_All_Manf_Store</t>
@@ -391,6 +391,9 @@
     <t xml:space="preserve">BAT_SOR_All_Manf_MS_Scat_Brands</t>
   </si>
   <si>
+    <t xml:space="preserve">SOR</t>
+  </si>
+  <si>
     <t xml:space="preserve">Store</t>
   </si>
   <si>
@@ -416,7 +419,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -453,8 +456,14 @@
       <family val="3"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -470,6 +479,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC00"/>
         <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
@@ -522,7 +537,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -565,6 +580,18 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -651,26 +678,26 @@
   <dimension ref="1:65"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C30" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C38" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A30" activeCellId="0" sqref="A30"/>
-      <selection pane="bottomRight" activeCell="F67" activeCellId="0" sqref="F67"/>
+      <selection pane="bottomLeft" activeCell="A38" activeCellId="0" sqref="A38"/>
+      <selection pane="bottomRight" activeCell="D64" activeCellId="0" sqref="D64:D65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="45.0971659919028"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="53.8825910931174"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="11.246963562753"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="2" width="14.5668016194332"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="40.3846153846154"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="104.121457489879"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="16.9230769230769"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="79.8016194331984"/>
-    <col collapsed="false" hidden="false" max="1020" min="11" style="2" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="1025" min="1021" style="1" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="44.4696356275304"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="52.9514170040486"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="11.2753036437247"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="10.5060728744939"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="2" width="14.3684210526316"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="39.834008097166"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="102.348178137652"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="16.6801619433198"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="78.4251012145749"/>
+    <col collapsed="false" hidden="false" max="1020" min="11" style="2" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1025" min="1021" style="1" width="9.1417004048583"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1771,7 +1798,7 @@
       <c r="AMI2" s="0"/>
       <c r="AMJ2" s="0"/>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="6"/>
       <c r="B3" s="6" t="s">
         <v>17</v>
@@ -2815,7 +2842,7 @@
       <c r="AMI3" s="0"/>
       <c r="AMJ3" s="0"/>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6"/>
       <c r="B4" s="6" t="s">
         <v>20</v>
@@ -3859,7 +3886,7 @@
       <c r="AMI4" s="0"/>
       <c r="AMJ4" s="0"/>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="6"/>
       <c r="B5" s="6" t="s">
         <v>23</v>
@@ -4903,7 +4930,7 @@
       <c r="AMI5" s="0"/>
       <c r="AMJ5" s="0"/>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="6"/>
       <c r="B6" s="6" t="s">
         <v>26</v>
@@ -5947,7 +5974,7 @@
       <c r="AMI6" s="0"/>
       <c r="AMJ6" s="0"/>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6"/>
       <c r="B7" s="6" t="s">
         <v>29</v>
@@ -6991,7 +7018,7 @@
       <c r="AMI7" s="0"/>
       <c r="AMJ7" s="0"/>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6"/>
       <c r="B8" s="6" t="s">
         <v>32</v>
@@ -8035,7 +8062,7 @@
       <c r="AMI8" s="0"/>
       <c r="AMJ8" s="0"/>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6"/>
       <c r="B9" s="6" t="s">
         <v>35</v>
@@ -9079,7 +9106,7 @@
       <c r="AMI9" s="0"/>
       <c r="AMJ9" s="0"/>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6"/>
       <c r="B10" s="6" t="s">
         <v>36</v>
@@ -10123,7 +10150,7 @@
       <c r="AMI10" s="0"/>
       <c r="AMJ10" s="0"/>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6"/>
       <c r="B11" s="6" t="s">
         <v>37</v>
@@ -11167,7 +11194,7 @@
       <c r="AMI11" s="0"/>
       <c r="AMJ11" s="0"/>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6"/>
       <c r="B12" s="6" t="s">
         <v>38</v>
@@ -12211,7 +12238,7 @@
       <c r="AMI12" s="0"/>
       <c r="AMJ12" s="0"/>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="s">
         <v>10</v>
       </c>
@@ -13257,7 +13284,7 @@
       <c r="AMI13" s="0"/>
       <c r="AMJ13" s="0"/>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="s">
         <v>17</v>
       </c>
@@ -14303,7 +14330,7 @@
       <c r="AMI14" s="0"/>
       <c r="AMJ14" s="0"/>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="s">
         <v>20</v>
       </c>
@@ -15349,7 +15376,7 @@
       <c r="AMI15" s="0"/>
       <c r="AMJ15" s="0"/>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="s">
         <v>23</v>
       </c>
@@ -16395,7 +16422,7 @@
       <c r="AMI16" s="0"/>
       <c r="AMJ16" s="0"/>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="s">
         <v>26</v>
       </c>
@@ -17441,7 +17468,7 @@
       <c r="AMI17" s="0"/>
       <c r="AMJ17" s="0"/>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="s">
         <v>29</v>
       </c>
@@ -18487,7 +18514,7 @@
       <c r="AMI18" s="0"/>
       <c r="AMJ18" s="0"/>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="s">
         <v>40</v>
       </c>
@@ -19533,7 +19560,7 @@
       <c r="AMI19" s="0"/>
       <c r="AMJ19" s="0"/>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="s">
         <v>41</v>
       </c>
@@ -20579,7 +20606,7 @@
       <c r="AMI20" s="0"/>
       <c r="AMJ20" s="0"/>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="s">
         <v>42</v>
       </c>
@@ -21625,7 +21652,7 @@
       <c r="AMI21" s="0"/>
       <c r="AMJ21" s="0"/>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="s">
         <v>43</v>
       </c>
@@ -23753,7 +23780,7 @@
       <c r="AMI24" s="9"/>
       <c r="AMJ24" s="9"/>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="6"/>
       <c r="B25" s="6" t="s">
         <v>52</v>
@@ -24797,7 +24824,7 @@
       <c r="AMI25" s="0"/>
       <c r="AMJ25" s="0"/>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="s">
         <v>52</v>
       </c>
@@ -25843,7 +25870,7 @@
       <c r="AMI26" s="0"/>
       <c r="AMJ26" s="0"/>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="s">
         <v>56</v>
       </c>
@@ -26889,7 +26916,7 @@
       <c r="AMI27" s="0"/>
       <c r="AMJ27" s="0"/>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0"/>
       <c r="B28" s="6" t="s">
         <v>59</v>
@@ -27933,7 +27960,7 @@
       <c r="AMI28" s="0"/>
       <c r="AMJ28" s="0"/>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0"/>
       <c r="B29" s="6" t="s">
         <v>62</v>
@@ -28977,7 +29004,7 @@
       <c r="AMI29" s="0"/>
       <c r="AMJ29" s="0"/>
     </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0"/>
       <c r="B30" s="6" t="s">
         <v>65</v>
@@ -30021,7 +30048,7 @@
       <c r="AMI30" s="0"/>
       <c r="AMJ30" s="0"/>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0"/>
       <c r="B31" s="6" t="s">
         <v>68</v>
@@ -31065,7 +31092,7 @@
       <c r="AMI31" s="0"/>
       <c r="AMJ31" s="0"/>
     </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0"/>
       <c r="B32" s="6" t="s">
         <v>71</v>
@@ -32109,7 +32136,7 @@
       <c r="AMI32" s="0"/>
       <c r="AMJ32" s="0"/>
     </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0"/>
       <c r="B33" s="6" t="s">
         <v>74</v>
@@ -33153,7 +33180,7 @@
       <c r="AMI33" s="0"/>
       <c r="AMJ33" s="0"/>
     </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0"/>
       <c r="B34" s="6" t="s">
         <v>77</v>
@@ -34197,7 +34224,7 @@
       <c r="AMI34" s="0"/>
       <c r="AMJ34" s="0"/>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0"/>
       <c r="B35" s="6" t="s">
         <v>80</v>
@@ -35241,7 +35268,7 @@
       <c r="AMI35" s="0"/>
       <c r="AMJ35" s="0"/>
     </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0"/>
       <c r="B36" s="6" t="s">
         <v>83</v>
@@ -36285,7 +36312,7 @@
       <c r="AMI36" s="0"/>
       <c r="AMJ36" s="0"/>
     </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0"/>
       <c r="B37" s="6" t="s">
         <v>86</v>
@@ -37329,7 +37356,7 @@
       <c r="AMI37" s="0"/>
       <c r="AMJ37" s="0"/>
     </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="6" t="s">
         <v>59</v>
       </c>
@@ -38375,7 +38402,7 @@
       <c r="AMI38" s="0"/>
       <c r="AMJ38" s="0"/>
     </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="6" t="s">
         <v>62</v>
       </c>
@@ -39421,7 +39448,7 @@
       <c r="AMI39" s="0"/>
       <c r="AMJ39" s="0"/>
     </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="6" t="s">
         <v>65</v>
       </c>
@@ -40467,7 +40494,7 @@
       <c r="AMI40" s="0"/>
       <c r="AMJ40" s="0"/>
     </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="6" t="s">
         <v>68</v>
       </c>
@@ -41513,7 +41540,7 @@
       <c r="AMI41" s="0"/>
       <c r="AMJ41" s="0"/>
     </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="6" t="s">
         <v>71</v>
       </c>
@@ -42559,7 +42586,7 @@
       <c r="AMI42" s="0"/>
       <c r="AMJ42" s="0"/>
     </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="6" t="s">
         <v>74</v>
       </c>
@@ -43605,7 +43632,7 @@
       <c r="AMI43" s="0"/>
       <c r="AMJ43" s="0"/>
     </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="6" t="s">
         <v>77</v>
       </c>
@@ -44651,7 +44678,7 @@
       <c r="AMI44" s="0"/>
       <c r="AMJ44" s="0"/>
     </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="6" t="s">
         <v>80</v>
       </c>
@@ -45697,7 +45724,7 @@
       <c r="AMI45" s="0"/>
       <c r="AMJ45" s="0"/>
     </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="6" t="s">
         <v>83</v>
       </c>
@@ -46743,7 +46770,7 @@
       <c r="AMI46" s="0"/>
       <c r="AMJ46" s="0"/>
     </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="6" t="s">
         <v>86</v>
       </c>
@@ -47789,7 +47816,7 @@
       <c r="AMI47" s="0"/>
       <c r="AMJ47" s="0"/>
     </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="6" t="s">
         <v>89</v>
       </c>
@@ -48835,7 +48862,7 @@
       <c r="AMI48" s="0"/>
       <c r="AMJ48" s="0"/>
     </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="6" t="s">
         <v>91</v>
       </c>
@@ -49881,7 +49908,7 @@
       <c r="AMI49" s="0"/>
       <c r="AMJ49" s="0"/>
     </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="6" t="s">
         <v>92</v>
       </c>
@@ -50927,7 +50954,7 @@
       <c r="AMI50" s="0"/>
       <c r="AMJ50" s="0"/>
     </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="6" t="s">
         <v>93</v>
       </c>
@@ -51973,7 +52000,7 @@
       <c r="AMI51" s="0"/>
       <c r="AMJ51" s="0"/>
     </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="6" t="s">
         <v>94</v>
       </c>
@@ -53019,7 +53046,7 @@
       <c r="AMI52" s="0"/>
       <c r="AMJ52" s="0"/>
     </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="6" t="s">
         <v>95</v>
       </c>
@@ -54065,7 +54092,7 @@
       <c r="AMI53" s="0"/>
       <c r="AMJ53" s="0"/>
     </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="6" t="s">
         <v>96</v>
       </c>
@@ -55111,7 +55138,7 @@
       <c r="AMI54" s="0"/>
       <c r="AMJ54" s="0"/>
     </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="6" t="s">
         <v>97</v>
       </c>
@@ -56157,7 +56184,7 @@
       <c r="AMI55" s="0"/>
       <c r="AMJ55" s="0"/>
     </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="6" t="s">
         <v>98</v>
       </c>
@@ -58251,31 +58278,31 @@
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="10"/>
-      <c r="B58" s="7" t="s">
+      <c r="B58" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="C58" s="7" t="s">
+      <c r="C58" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D58" s="6" t="s">
+      <c r="D58" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="E58" s="7" t="s">
+      <c r="E58" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="F58" s="7" t="s">
+      <c r="F58" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G58" s="7" t="s">
+      <c r="G58" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="H58" s="7" t="s">
+      <c r="H58" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="I58" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="J58" s="7" t="s">
+      <c r="I58" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="J58" s="11" t="s">
         <v>16</v>
       </c>
       <c r="K58" s="0"/>
@@ -59295,31 +59322,31 @@
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="6"/>
-      <c r="B59" s="6" t="s">
+      <c r="B59" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="C59" s="6" t="s">
+      <c r="C59" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D59" s="6" t="s">
+      <c r="D59" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E59" s="6" t="s">
+      <c r="E59" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F59" s="6" t="s">
+      <c r="F59" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="G59" s="6" t="s">
+      <c r="G59" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="H59" s="6" t="s">
+      <c r="H59" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="I59" s="6" t="s">
+      <c r="I59" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="J59" s="6" t="s">
+      <c r="J59" s="13" t="s">
         <v>114</v>
       </c>
       <c r="K59" s="0"/>
@@ -60339,181 +60366,181 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="5"/>
-      <c r="B60" s="7" t="s">
+      <c r="B60" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="C60" s="7" t="s">
+      <c r="C60" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D60" s="6" t="s">
+      <c r="D60" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="E60" s="7" t="s">
+      <c r="E60" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="F60" s="7" t="s">
+      <c r="F60" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G60" s="7" t="s">
+      <c r="G60" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="H60" s="7" t="s">
+      <c r="H60" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="I60" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="J60" s="7" t="s">
+      <c r="I60" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="J60" s="13" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="5"/>
-      <c r="B61" s="6" t="s">
+      <c r="B61" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="C61" s="6" t="s">
+      <c r="C61" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D61" s="6" t="s">
+      <c r="D61" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="E61" s="6" t="s">
+      <c r="E61" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="F61" s="7" t="s">
+      <c r="F61" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="G61" s="6" t="s">
+      <c r="G61" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="H61" s="6" t="s">
+      <c r="H61" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="I61" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="J61" s="6" t="s">
+      <c r="I61" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="J61" s="11" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="5"/>
-      <c r="B62" s="6" t="s">
+      <c r="B62" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="C62" s="6" t="s">
+      <c r="C62" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D62" s="6" t="s">
+      <c r="D62" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="E62" s="6" t="s">
+      <c r="E62" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="F62" s="7" t="s">
+      <c r="F62" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="G62" s="6" t="s">
+      <c r="G62" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="H62" s="6" t="s">
+      <c r="H62" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="I62" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="J62" s="6" t="s">
+      <c r="I62" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="J62" s="11" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="5"/>
-      <c r="B63" s="6" t="s">
+      <c r="B63" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="C63" s="6" t="s">
+      <c r="C63" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D63" s="6" t="s">
+      <c r="D63" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="E63" s="6" t="s">
+      <c r="E63" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="F63" s="7" t="s">
+      <c r="F63" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="G63" s="6" t="s">
+      <c r="G63" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="H63" s="6" t="s">
+      <c r="H63" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="I63" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="J63" s="6" t="s">
+      <c r="I63" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="J63" s="11" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="5"/>
-      <c r="B64" s="6" t="s">
+      <c r="B64" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="C64" s="6" t="s">
+      <c r="C64" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D64" s="6" t="s">
+      <c r="D64" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="E64" s="6" t="s">
+      <c r="E64" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="F64" s="7" t="s">
+      <c r="F64" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="G64" s="6" t="s">
+      <c r="G64" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="H64" s="6" t="s">
+      <c r="H64" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="I64" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="J64" s="6" t="s">
+      <c r="I64" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="J64" s="11" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="5"/>
-      <c r="B65" s="6" t="s">
+      <c r="B65" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="C65" s="6" t="s">
+      <c r="C65" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D65" s="6" t="s">
+      <c r="D65" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="E65" s="6" t="s">
+      <c r="E65" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="F65" s="7" t="s">
+      <c r="F65" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="G65" s="6" t="s">
+      <c r="G65" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="H65" s="6" t="s">
+      <c r="H65" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="I65" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="J65" s="6" t="s">
+      <c r="I65" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="J65" s="11" t="s">
         <v>31</v>
       </c>
     </row>
@@ -60536,18 +60563,18 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
+      <selection pane="topLeft" activeCell="E3" activeCellId="1" sqref="D64:D65 E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.2064777327935"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.4210526315789"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="3.53441295546559"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.1417004048583"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.0688259109312"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="80.2307692307692"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.1740890688259"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="80.8744939271255"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.1417004048583"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="54.3076923076923"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="54.7368421052632"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="3.53441295546559"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="9.10526315789474"/>
   </cols>
@@ -60558,55 +60585,55 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="11" t="s">
+      <c r="B2" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="C2" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="F2" s="11" t="s">
+      <c r="E2" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="F2" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="11" t="s">
-        <v>124</v>
+      <c r="G2" s="14" t="s">
+        <v>125</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="11" t="s">
+      <c r="B3" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="C3" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="D3" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="H3" s="6" t="s">
         <v>126</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -60628,7 +60655,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D64:D65 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -60654,7 +60681,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D64:D65 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>

--- a/Projects/BATAU/Data/Template.xlsx
+++ b/Projects/BATAU/Data/Template.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="128">
   <si>
     <t xml:space="preserve">kpi_parent_name</t>
   </si>
@@ -376,9 +376,6 @@
     <t xml:space="preserve">BAT_SOR_All_Manf_Premium_Scat_Brands</t>
   </si>
   <si>
-    <t xml:space="preserve">sub_category</t>
-  </si>
-  <si>
     <t xml:space="preserve">BAT_SOR_All_Manf_Aspirational_Premium_Scat_Brands</t>
   </si>
   <si>
@@ -419,7 +416,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -455,12 +452,6 @@
       <name val="Courier New"/>
       <family val="3"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="Courier New"/>
-      <family val="3"/>
     </font>
   </fonts>
   <fills count="5">
@@ -537,7 +528,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -580,14 +571,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -682,22 +665,22 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A38" activeCellId="0" sqref="A38"/>
-      <selection pane="bottomRight" activeCell="D64" activeCellId="0" sqref="D64:D65"/>
+      <selection pane="bottomRight" activeCell="F64" activeCellId="0" sqref="F64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="44.4696356275304"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="52.9514170040486"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="11.2753036437247"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="10.5060728744939"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="2" width="14.3684210526316"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="39.834008097166"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="102.348178137652"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="16.6801619433198"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="78.4251012145749"/>
-    <col collapsed="false" hidden="false" max="1020" min="11" style="2" width="9.1417004048583"/>
-    <col collapsed="false" hidden="false" max="1025" min="1021" style="1" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="44.7773279352227"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="53.4534412955466"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="11.246963562753"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="10.6032388663968"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="2" width="14.4615384615385"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="40.0607287449393"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="103.263157894737"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="16.8178137651822"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="79.1619433198381"/>
+    <col collapsed="false" hidden="false" max="1020" min="11" style="2" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1025" min="1021" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -58278,31 +58261,31 @@
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="10"/>
-      <c r="B58" s="11" t="s">
+      <c r="B58" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="C58" s="11" t="s">
+      <c r="C58" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D58" s="12" t="s">
+      <c r="D58" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="E58" s="11" t="s">
+      <c r="E58" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F58" s="11" t="s">
+      <c r="F58" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G58" s="11" t="s">
+      <c r="G58" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="H58" s="11" t="s">
+      <c r="H58" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I58" s="11" t="s">
+      <c r="I58" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="J58" s="11" t="s">
+      <c r="J58" s="6" t="s">
         <v>16</v>
       </c>
       <c r="K58" s="0"/>
@@ -59322,31 +59305,31 @@
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="6"/>
-      <c r="B59" s="13" t="s">
+      <c r="B59" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="C59" s="13" t="s">
+      <c r="C59" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D59" s="13" t="s">
+      <c r="D59" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E59" s="13" t="s">
+      <c r="E59" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F59" s="13" t="s">
+      <c r="F59" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G59" s="13" t="s">
+      <c r="G59" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H59" s="13" t="s">
+      <c r="H59" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="I59" s="13" t="s">
+      <c r="I59" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="J59" s="13" t="s">
+      <c r="J59" s="11" t="s">
         <v>114</v>
       </c>
       <c r="K59" s="0"/>
@@ -60366,181 +60349,181 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="5"/>
-      <c r="B60" s="13" t="s">
+      <c r="B60" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="C60" s="13" t="s">
+      <c r="C60" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D60" s="12" t="s">
+      <c r="D60" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="E60" s="13" t="s">
+      <c r="E60" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="F60" s="13" t="s">
+      <c r="F60" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G60" s="13" t="s">
+      <c r="G60" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="H60" s="13" t="s">
+      <c r="H60" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="I60" s="13" t="s">
+      <c r="I60" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="J60" s="13" t="s">
+      <c r="J60" s="11" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="5"/>
-      <c r="B61" s="11" t="s">
+      <c r="B61" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="C61" s="11" t="s">
+      <c r="C61" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D61" s="12" t="s">
+      <c r="D61" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="E61" s="11" t="s">
+      <c r="E61" s="6" t="s">
         <v>33</v>
       </c>
       <c r="F61" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="G61" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="H61" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G61" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="H61" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="I61" s="13" t="s">
+      <c r="I61" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="J61" s="11" t="s">
+      <c r="J61" s="6" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="5"/>
-      <c r="B62" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="C62" s="11" t="s">
+      <c r="B62" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C62" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D62" s="12" t="s">
+      <c r="D62" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="E62" s="11" t="s">
+      <c r="E62" s="6" t="s">
         <v>33</v>
       </c>
       <c r="F62" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="G62" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="H62" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G62" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="H62" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I62" s="13" t="s">
+      <c r="I62" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="J62" s="11" t="s">
+      <c r="J62" s="6" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="5"/>
-      <c r="B63" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="C63" s="11" t="s">
+      <c r="B63" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C63" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D63" s="12" t="s">
+      <c r="D63" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="E63" s="11" t="s">
+      <c r="E63" s="6" t="s">
         <v>33</v>
       </c>
       <c r="F63" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="G63" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="H63" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G63" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="H63" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="I63" s="13" t="s">
+      <c r="I63" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="J63" s="11" t="s">
+      <c r="J63" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="5"/>
-      <c r="B64" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="C64" s="11" t="s">
+      <c r="B64" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C64" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D64" s="12" t="s">
+      <c r="D64" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="E64" s="11" t="s">
+      <c r="E64" s="6" t="s">
         <v>33</v>
       </c>
       <c r="F64" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="G64" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="H64" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G64" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="H64" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="I64" s="13" t="s">
+      <c r="I64" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="J64" s="11" t="s">
+      <c r="J64" s="6" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="5"/>
-      <c r="B65" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="C65" s="11" t="s">
+      <c r="B65" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C65" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D65" s="12" t="s">
+      <c r="D65" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="E65" s="11" t="s">
+      <c r="E65" s="6" t="s">
         <v>33</v>
       </c>
       <c r="F65" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="G65" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="H65" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G65" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="H65" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="I65" s="13" t="s">
+      <c r="I65" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="J65" s="11" t="s">
+      <c r="J65" s="6" t="s">
         <v>31</v>
       </c>
     </row>
@@ -60563,18 +60546,18 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E3" activeCellId="1" sqref="D64:D65 E3"/>
+      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.4210526315789"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.6356275303644"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="3.53441295546559"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.1417004048583"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.1740890688259"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="80.8744939271255"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="81.6234817813765"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.1417004048583"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="54.7368421052632"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="55.2753036437247"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="3.53441295546559"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="9.10526315789474"/>
   </cols>
@@ -60585,55 +60568,55 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="D2" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="D2" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="14" t="s">
+      <c r="F2" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="F2" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="14" t="s">
+      <c r="H2" s="6" t="s">
         <v>125</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="C3" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="C3" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="F3" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>128</v>
-      </c>
       <c r="H3" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -60655,7 +60638,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D64:D65 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -60681,7 +60664,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D64:D65 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>

--- a/Projects/BATAU/Data/Template.xlsx
+++ b/Projects/BATAU/Data/Template.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="131">
   <si>
     <t xml:space="preserve">kpi_parent_name</t>
   </si>
@@ -200,6 +200,9 @@
   </si>
   <si>
     <t xml:space="preserve">BAT_SOR_BAT_Manf_TMC_Cat_Premium_Scat_Store</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOR_Sub_Category</t>
   </si>
   <si>
     <t xml:space="preserve">manufacturer_name=='BAT' and   category=='Tailor Made Cigarettes' and sub_category=='Premium' and product_type=='SKU'</t>
@@ -527,7 +530,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -564,27 +567,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -688,23 +671,23 @@
   <dimension ref="1:69"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A71" activeCellId="0" sqref="A71"/>
+      <selection pane="bottomLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
+      <selection pane="bottomRight" activeCell="A29" activeCellId="0" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="45.9554655870445"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="54.7368421052632"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="2" width="14.7813765182186"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="41.0283400809717"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="106.048582995951"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="17.1376518218624"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="81.1943319838057"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="46.3805668016194"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="55.2753036437247"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="13.5910931174089"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="2" width="14.8906882591093"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="41.3481781376518"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="106.902834008097"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="17.246963562753"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="81.9473684210526"/>
     <col collapsed="false" hidden="false" max="1019" min="10" style="2" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1023" min="1020" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="9.10526315789474"/>
@@ -19630,66 +19613,1075 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" s="10" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="9" t="s">
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="D24" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E24" s="9" t="s">
+      <c r="E24" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F24" s="9" t="s">
+      <c r="F24" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="G24" s="9" t="s">
+      <c r="G24" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H24" s="9" t="s">
+      <c r="H24" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I24" s="9" t="s">
+      <c r="I24" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="AMF24" s="11"/>
-      <c r="AMG24" s="11"/>
-      <c r="AMH24" s="11"/>
-      <c r="AMI24" s="11"/>
-      <c r="AMJ24" s="12"/>
     </row>
-    <row r="25" s="12" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="9"/>
-      <c r="B25" s="9" t="s">
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="6"/>
+      <c r="B25" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="D25" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E25" s="9" t="s">
+      <c r="E25" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F25" s="9" t="s">
+      <c r="F25" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="G25" s="9" t="s">
+      <c r="G25" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H25" s="9" t="s">
+      <c r="H25" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="I25" s="9" t="s">
+      <c r="I25" s="6" t="s">
         <v>14</v>
       </c>
+      <c r="J25" s="0"/>
+      <c r="K25" s="0"/>
+      <c r="L25" s="0"/>
+      <c r="M25" s="0"/>
+      <c r="N25" s="0"/>
+      <c r="O25" s="0"/>
+      <c r="P25" s="0"/>
+      <c r="Q25" s="0"/>
+      <c r="R25" s="0"/>
+      <c r="S25" s="0"/>
+      <c r="T25" s="0"/>
+      <c r="U25" s="0"/>
+      <c r="V25" s="0"/>
+      <c r="W25" s="0"/>
+      <c r="X25" s="0"/>
+      <c r="Y25" s="0"/>
+      <c r="Z25" s="0"/>
+      <c r="AA25" s="0"/>
+      <c r="AB25" s="0"/>
+      <c r="AC25" s="0"/>
+      <c r="AD25" s="0"/>
+      <c r="AE25" s="0"/>
+      <c r="AF25" s="0"/>
+      <c r="AG25" s="0"/>
+      <c r="AH25" s="0"/>
+      <c r="AI25" s="0"/>
+      <c r="AJ25" s="0"/>
+      <c r="AK25" s="0"/>
+      <c r="AL25" s="0"/>
+      <c r="AM25" s="0"/>
+      <c r="AN25" s="0"/>
+      <c r="AO25" s="0"/>
+      <c r="AP25" s="0"/>
+      <c r="AQ25" s="0"/>
+      <c r="AR25" s="0"/>
+      <c r="AS25" s="0"/>
+      <c r="AT25" s="0"/>
+      <c r="AU25" s="0"/>
+      <c r="AV25" s="0"/>
+      <c r="AW25" s="0"/>
+      <c r="AX25" s="0"/>
+      <c r="AY25" s="0"/>
+      <c r="AZ25" s="0"/>
+      <c r="BA25" s="0"/>
+      <c r="BB25" s="0"/>
+      <c r="BC25" s="0"/>
+      <c r="BD25" s="0"/>
+      <c r="BE25" s="0"/>
+      <c r="BF25" s="0"/>
+      <c r="BG25" s="0"/>
+      <c r="BH25" s="0"/>
+      <c r="BI25" s="0"/>
+      <c r="BJ25" s="0"/>
+      <c r="BK25" s="0"/>
+      <c r="BL25" s="0"/>
+      <c r="BM25" s="0"/>
+      <c r="BN25" s="0"/>
+      <c r="BO25" s="0"/>
+      <c r="BP25" s="0"/>
+      <c r="BQ25" s="0"/>
+      <c r="BR25" s="0"/>
+      <c r="BS25" s="0"/>
+      <c r="BT25" s="0"/>
+      <c r="BU25" s="0"/>
+      <c r="BV25" s="0"/>
+      <c r="BW25" s="0"/>
+      <c r="BX25" s="0"/>
+      <c r="BY25" s="0"/>
+      <c r="BZ25" s="0"/>
+      <c r="CA25" s="0"/>
+      <c r="CB25" s="0"/>
+      <c r="CC25" s="0"/>
+      <c r="CD25" s="0"/>
+      <c r="CE25" s="0"/>
+      <c r="CF25" s="0"/>
+      <c r="CG25" s="0"/>
+      <c r="CH25" s="0"/>
+      <c r="CI25" s="0"/>
+      <c r="CJ25" s="0"/>
+      <c r="CK25" s="0"/>
+      <c r="CL25" s="0"/>
+      <c r="CM25" s="0"/>
+      <c r="CN25" s="0"/>
+      <c r="CO25" s="0"/>
+      <c r="CP25" s="0"/>
+      <c r="CQ25" s="0"/>
+      <c r="CR25" s="0"/>
+      <c r="CS25" s="0"/>
+      <c r="CT25" s="0"/>
+      <c r="CU25" s="0"/>
+      <c r="CV25" s="0"/>
+      <c r="CW25" s="0"/>
+      <c r="CX25" s="0"/>
+      <c r="CY25" s="0"/>
+      <c r="CZ25" s="0"/>
+      <c r="DA25" s="0"/>
+      <c r="DB25" s="0"/>
+      <c r="DC25" s="0"/>
+      <c r="DD25" s="0"/>
+      <c r="DE25" s="0"/>
+      <c r="DF25" s="0"/>
+      <c r="DG25" s="0"/>
+      <c r="DH25" s="0"/>
+      <c r="DI25" s="0"/>
+      <c r="DJ25" s="0"/>
+      <c r="DK25" s="0"/>
+      <c r="DL25" s="0"/>
+      <c r="DM25" s="0"/>
+      <c r="DN25" s="0"/>
+      <c r="DO25" s="0"/>
+      <c r="DP25" s="0"/>
+      <c r="DQ25" s="0"/>
+      <c r="DR25" s="0"/>
+      <c r="DS25" s="0"/>
+      <c r="DT25" s="0"/>
+      <c r="DU25" s="0"/>
+      <c r="DV25" s="0"/>
+      <c r="DW25" s="0"/>
+      <c r="DX25" s="0"/>
+      <c r="DY25" s="0"/>
+      <c r="DZ25" s="0"/>
+      <c r="EA25" s="0"/>
+      <c r="EB25" s="0"/>
+      <c r="EC25" s="0"/>
+      <c r="ED25" s="0"/>
+      <c r="EE25" s="0"/>
+      <c r="EF25" s="0"/>
+      <c r="EG25" s="0"/>
+      <c r="EH25" s="0"/>
+      <c r="EI25" s="0"/>
+      <c r="EJ25" s="0"/>
+      <c r="EK25" s="0"/>
+      <c r="EL25" s="0"/>
+      <c r="EM25" s="0"/>
+      <c r="EN25" s="0"/>
+      <c r="EO25" s="0"/>
+      <c r="EP25" s="0"/>
+      <c r="EQ25" s="0"/>
+      <c r="ER25" s="0"/>
+      <c r="ES25" s="0"/>
+      <c r="ET25" s="0"/>
+      <c r="EU25" s="0"/>
+      <c r="EV25" s="0"/>
+      <c r="EW25" s="0"/>
+      <c r="EX25" s="0"/>
+      <c r="EY25" s="0"/>
+      <c r="EZ25" s="0"/>
+      <c r="FA25" s="0"/>
+      <c r="FB25" s="0"/>
+      <c r="FC25" s="0"/>
+      <c r="FD25" s="0"/>
+      <c r="FE25" s="0"/>
+      <c r="FF25" s="0"/>
+      <c r="FG25" s="0"/>
+      <c r="FH25" s="0"/>
+      <c r="FI25" s="0"/>
+      <c r="FJ25" s="0"/>
+      <c r="FK25" s="0"/>
+      <c r="FL25" s="0"/>
+      <c r="FM25" s="0"/>
+      <c r="FN25" s="0"/>
+      <c r="FO25" s="0"/>
+      <c r="FP25" s="0"/>
+      <c r="FQ25" s="0"/>
+      <c r="FR25" s="0"/>
+      <c r="FS25" s="0"/>
+      <c r="FT25" s="0"/>
+      <c r="FU25" s="0"/>
+      <c r="FV25" s="0"/>
+      <c r="FW25" s="0"/>
+      <c r="FX25" s="0"/>
+      <c r="FY25" s="0"/>
+      <c r="FZ25" s="0"/>
+      <c r="GA25" s="0"/>
+      <c r="GB25" s="0"/>
+      <c r="GC25" s="0"/>
+      <c r="GD25" s="0"/>
+      <c r="GE25" s="0"/>
+      <c r="GF25" s="0"/>
+      <c r="GG25" s="0"/>
+      <c r="GH25" s="0"/>
+      <c r="GI25" s="0"/>
+      <c r="GJ25" s="0"/>
+      <c r="GK25" s="0"/>
+      <c r="GL25" s="0"/>
+      <c r="GM25" s="0"/>
+      <c r="GN25" s="0"/>
+      <c r="GO25" s="0"/>
+      <c r="GP25" s="0"/>
+      <c r="GQ25" s="0"/>
+      <c r="GR25" s="0"/>
+      <c r="GS25" s="0"/>
+      <c r="GT25" s="0"/>
+      <c r="GU25" s="0"/>
+      <c r="GV25" s="0"/>
+      <c r="GW25" s="0"/>
+      <c r="GX25" s="0"/>
+      <c r="GY25" s="0"/>
+      <c r="GZ25" s="0"/>
+      <c r="HA25" s="0"/>
+      <c r="HB25" s="0"/>
+      <c r="HC25" s="0"/>
+      <c r="HD25" s="0"/>
+      <c r="HE25" s="0"/>
+      <c r="HF25" s="0"/>
+      <c r="HG25" s="0"/>
+      <c r="HH25" s="0"/>
+      <c r="HI25" s="0"/>
+      <c r="HJ25" s="0"/>
+      <c r="HK25" s="0"/>
+      <c r="HL25" s="0"/>
+      <c r="HM25" s="0"/>
+      <c r="HN25" s="0"/>
+      <c r="HO25" s="0"/>
+      <c r="HP25" s="0"/>
+      <c r="HQ25" s="0"/>
+      <c r="HR25" s="0"/>
+      <c r="HS25" s="0"/>
+      <c r="HT25" s="0"/>
+      <c r="HU25" s="0"/>
+      <c r="HV25" s="0"/>
+      <c r="HW25" s="0"/>
+      <c r="HX25" s="0"/>
+      <c r="HY25" s="0"/>
+      <c r="HZ25" s="0"/>
+      <c r="IA25" s="0"/>
+      <c r="IB25" s="0"/>
+      <c r="IC25" s="0"/>
+      <c r="ID25" s="0"/>
+      <c r="IE25" s="0"/>
+      <c r="IF25" s="0"/>
+      <c r="IG25" s="0"/>
+      <c r="IH25" s="0"/>
+      <c r="II25" s="0"/>
+      <c r="IJ25" s="0"/>
+      <c r="IK25" s="0"/>
+      <c r="IL25" s="0"/>
+      <c r="IM25" s="0"/>
+      <c r="IN25" s="0"/>
+      <c r="IO25" s="0"/>
+      <c r="IP25" s="0"/>
+      <c r="IQ25" s="0"/>
+      <c r="IR25" s="0"/>
+      <c r="IS25" s="0"/>
+      <c r="IT25" s="0"/>
+      <c r="IU25" s="0"/>
+      <c r="IV25" s="0"/>
+      <c r="IW25" s="0"/>
+      <c r="IX25" s="0"/>
+      <c r="IY25" s="0"/>
+      <c r="IZ25" s="0"/>
+      <c r="JA25" s="0"/>
+      <c r="JB25" s="0"/>
+      <c r="JC25" s="0"/>
+      <c r="JD25" s="0"/>
+      <c r="JE25" s="0"/>
+      <c r="JF25" s="0"/>
+      <c r="JG25" s="0"/>
+      <c r="JH25" s="0"/>
+      <c r="JI25" s="0"/>
+      <c r="JJ25" s="0"/>
+      <c r="JK25" s="0"/>
+      <c r="JL25" s="0"/>
+      <c r="JM25" s="0"/>
+      <c r="JN25" s="0"/>
+      <c r="JO25" s="0"/>
+      <c r="JP25" s="0"/>
+      <c r="JQ25" s="0"/>
+      <c r="JR25" s="0"/>
+      <c r="JS25" s="0"/>
+      <c r="JT25" s="0"/>
+      <c r="JU25" s="0"/>
+      <c r="JV25" s="0"/>
+      <c r="JW25" s="0"/>
+      <c r="JX25" s="0"/>
+      <c r="JY25" s="0"/>
+      <c r="JZ25" s="0"/>
+      <c r="KA25" s="0"/>
+      <c r="KB25" s="0"/>
+      <c r="KC25" s="0"/>
+      <c r="KD25" s="0"/>
+      <c r="KE25" s="0"/>
+      <c r="KF25" s="0"/>
+      <c r="KG25" s="0"/>
+      <c r="KH25" s="0"/>
+      <c r="KI25" s="0"/>
+      <c r="KJ25" s="0"/>
+      <c r="KK25" s="0"/>
+      <c r="KL25" s="0"/>
+      <c r="KM25" s="0"/>
+      <c r="KN25" s="0"/>
+      <c r="KO25" s="0"/>
+      <c r="KP25" s="0"/>
+      <c r="KQ25" s="0"/>
+      <c r="KR25" s="0"/>
+      <c r="KS25" s="0"/>
+      <c r="KT25" s="0"/>
+      <c r="KU25" s="0"/>
+      <c r="KV25" s="0"/>
+      <c r="KW25" s="0"/>
+      <c r="KX25" s="0"/>
+      <c r="KY25" s="0"/>
+      <c r="KZ25" s="0"/>
+      <c r="LA25" s="0"/>
+      <c r="LB25" s="0"/>
+      <c r="LC25" s="0"/>
+      <c r="LD25" s="0"/>
+      <c r="LE25" s="0"/>
+      <c r="LF25" s="0"/>
+      <c r="LG25" s="0"/>
+      <c r="LH25" s="0"/>
+      <c r="LI25" s="0"/>
+      <c r="LJ25" s="0"/>
+      <c r="LK25" s="0"/>
+      <c r="LL25" s="0"/>
+      <c r="LM25" s="0"/>
+      <c r="LN25" s="0"/>
+      <c r="LO25" s="0"/>
+      <c r="LP25" s="0"/>
+      <c r="LQ25" s="0"/>
+      <c r="LR25" s="0"/>
+      <c r="LS25" s="0"/>
+      <c r="LT25" s="0"/>
+      <c r="LU25" s="0"/>
+      <c r="LV25" s="0"/>
+      <c r="LW25" s="0"/>
+      <c r="LX25" s="0"/>
+      <c r="LY25" s="0"/>
+      <c r="LZ25" s="0"/>
+      <c r="MA25" s="0"/>
+      <c r="MB25" s="0"/>
+      <c r="MC25" s="0"/>
+      <c r="MD25" s="0"/>
+      <c r="ME25" s="0"/>
+      <c r="MF25" s="0"/>
+      <c r="MG25" s="0"/>
+      <c r="MH25" s="0"/>
+      <c r="MI25" s="0"/>
+      <c r="MJ25" s="0"/>
+      <c r="MK25" s="0"/>
+      <c r="ML25" s="0"/>
+      <c r="MM25" s="0"/>
+      <c r="MN25" s="0"/>
+      <c r="MO25" s="0"/>
+      <c r="MP25" s="0"/>
+      <c r="MQ25" s="0"/>
+      <c r="MR25" s="0"/>
+      <c r="MS25" s="0"/>
+      <c r="MT25" s="0"/>
+      <c r="MU25" s="0"/>
+      <c r="MV25" s="0"/>
+      <c r="MW25" s="0"/>
+      <c r="MX25" s="0"/>
+      <c r="MY25" s="0"/>
+      <c r="MZ25" s="0"/>
+      <c r="NA25" s="0"/>
+      <c r="NB25" s="0"/>
+      <c r="NC25" s="0"/>
+      <c r="ND25" s="0"/>
+      <c r="NE25" s="0"/>
+      <c r="NF25" s="0"/>
+      <c r="NG25" s="0"/>
+      <c r="NH25" s="0"/>
+      <c r="NI25" s="0"/>
+      <c r="NJ25" s="0"/>
+      <c r="NK25" s="0"/>
+      <c r="NL25" s="0"/>
+      <c r="NM25" s="0"/>
+      <c r="NN25" s="0"/>
+      <c r="NO25" s="0"/>
+      <c r="NP25" s="0"/>
+      <c r="NQ25" s="0"/>
+      <c r="NR25" s="0"/>
+      <c r="NS25" s="0"/>
+      <c r="NT25" s="0"/>
+      <c r="NU25" s="0"/>
+      <c r="NV25" s="0"/>
+      <c r="NW25" s="0"/>
+      <c r="NX25" s="0"/>
+      <c r="NY25" s="0"/>
+      <c r="NZ25" s="0"/>
+      <c r="OA25" s="0"/>
+      <c r="OB25" s="0"/>
+      <c r="OC25" s="0"/>
+      <c r="OD25" s="0"/>
+      <c r="OE25" s="0"/>
+      <c r="OF25" s="0"/>
+      <c r="OG25" s="0"/>
+      <c r="OH25" s="0"/>
+      <c r="OI25" s="0"/>
+      <c r="OJ25" s="0"/>
+      <c r="OK25" s="0"/>
+      <c r="OL25" s="0"/>
+      <c r="OM25" s="0"/>
+      <c r="ON25" s="0"/>
+      <c r="OO25" s="0"/>
+      <c r="OP25" s="0"/>
+      <c r="OQ25" s="0"/>
+      <c r="OR25" s="0"/>
+      <c r="OS25" s="0"/>
+      <c r="OT25" s="0"/>
+      <c r="OU25" s="0"/>
+      <c r="OV25" s="0"/>
+      <c r="OW25" s="0"/>
+      <c r="OX25" s="0"/>
+      <c r="OY25" s="0"/>
+      <c r="OZ25" s="0"/>
+      <c r="PA25" s="0"/>
+      <c r="PB25" s="0"/>
+      <c r="PC25" s="0"/>
+      <c r="PD25" s="0"/>
+      <c r="PE25" s="0"/>
+      <c r="PF25" s="0"/>
+      <c r="PG25" s="0"/>
+      <c r="PH25" s="0"/>
+      <c r="PI25" s="0"/>
+      <c r="PJ25" s="0"/>
+      <c r="PK25" s="0"/>
+      <c r="PL25" s="0"/>
+      <c r="PM25" s="0"/>
+      <c r="PN25" s="0"/>
+      <c r="PO25" s="0"/>
+      <c r="PP25" s="0"/>
+      <c r="PQ25" s="0"/>
+      <c r="PR25" s="0"/>
+      <c r="PS25" s="0"/>
+      <c r="PT25" s="0"/>
+      <c r="PU25" s="0"/>
+      <c r="PV25" s="0"/>
+      <c r="PW25" s="0"/>
+      <c r="PX25" s="0"/>
+      <c r="PY25" s="0"/>
+      <c r="PZ25" s="0"/>
+      <c r="QA25" s="0"/>
+      <c r="QB25" s="0"/>
+      <c r="QC25" s="0"/>
+      <c r="QD25" s="0"/>
+      <c r="QE25" s="0"/>
+      <c r="QF25" s="0"/>
+      <c r="QG25" s="0"/>
+      <c r="QH25" s="0"/>
+      <c r="QI25" s="0"/>
+      <c r="QJ25" s="0"/>
+      <c r="QK25" s="0"/>
+      <c r="QL25" s="0"/>
+      <c r="QM25" s="0"/>
+      <c r="QN25" s="0"/>
+      <c r="QO25" s="0"/>
+      <c r="QP25" s="0"/>
+      <c r="QQ25" s="0"/>
+      <c r="QR25" s="0"/>
+      <c r="QS25" s="0"/>
+      <c r="QT25" s="0"/>
+      <c r="QU25" s="0"/>
+      <c r="QV25" s="0"/>
+      <c r="QW25" s="0"/>
+      <c r="QX25" s="0"/>
+      <c r="QY25" s="0"/>
+      <c r="QZ25" s="0"/>
+      <c r="RA25" s="0"/>
+      <c r="RB25" s="0"/>
+      <c r="RC25" s="0"/>
+      <c r="RD25" s="0"/>
+      <c r="RE25" s="0"/>
+      <c r="RF25" s="0"/>
+      <c r="RG25" s="0"/>
+      <c r="RH25" s="0"/>
+      <c r="RI25" s="0"/>
+      <c r="RJ25" s="0"/>
+      <c r="RK25" s="0"/>
+      <c r="RL25" s="0"/>
+      <c r="RM25" s="0"/>
+      <c r="RN25" s="0"/>
+      <c r="RO25" s="0"/>
+      <c r="RP25" s="0"/>
+      <c r="RQ25" s="0"/>
+      <c r="RR25" s="0"/>
+      <c r="RS25" s="0"/>
+      <c r="RT25" s="0"/>
+      <c r="RU25" s="0"/>
+      <c r="RV25" s="0"/>
+      <c r="RW25" s="0"/>
+      <c r="RX25" s="0"/>
+      <c r="RY25" s="0"/>
+      <c r="RZ25" s="0"/>
+      <c r="SA25" s="0"/>
+      <c r="SB25" s="0"/>
+      <c r="SC25" s="0"/>
+      <c r="SD25" s="0"/>
+      <c r="SE25" s="0"/>
+      <c r="SF25" s="0"/>
+      <c r="SG25" s="0"/>
+      <c r="SH25" s="0"/>
+      <c r="SI25" s="0"/>
+      <c r="SJ25" s="0"/>
+      <c r="SK25" s="0"/>
+      <c r="SL25" s="0"/>
+      <c r="SM25" s="0"/>
+      <c r="SN25" s="0"/>
+      <c r="SO25" s="0"/>
+      <c r="SP25" s="0"/>
+      <c r="SQ25" s="0"/>
+      <c r="SR25" s="0"/>
+      <c r="SS25" s="0"/>
+      <c r="ST25" s="0"/>
+      <c r="SU25" s="0"/>
+      <c r="SV25" s="0"/>
+      <c r="SW25" s="0"/>
+      <c r="SX25" s="0"/>
+      <c r="SY25" s="0"/>
+      <c r="SZ25" s="0"/>
+      <c r="TA25" s="0"/>
+      <c r="TB25" s="0"/>
+      <c r="TC25" s="0"/>
+      <c r="TD25" s="0"/>
+      <c r="TE25" s="0"/>
+      <c r="TF25" s="0"/>
+      <c r="TG25" s="0"/>
+      <c r="TH25" s="0"/>
+      <c r="TI25" s="0"/>
+      <c r="TJ25" s="0"/>
+      <c r="TK25" s="0"/>
+      <c r="TL25" s="0"/>
+      <c r="TM25" s="0"/>
+      <c r="TN25" s="0"/>
+      <c r="TO25" s="0"/>
+      <c r="TP25" s="0"/>
+      <c r="TQ25" s="0"/>
+      <c r="TR25" s="0"/>
+      <c r="TS25" s="0"/>
+      <c r="TT25" s="0"/>
+      <c r="TU25" s="0"/>
+      <c r="TV25" s="0"/>
+      <c r="TW25" s="0"/>
+      <c r="TX25" s="0"/>
+      <c r="TY25" s="0"/>
+      <c r="TZ25" s="0"/>
+      <c r="UA25" s="0"/>
+      <c r="UB25" s="0"/>
+      <c r="UC25" s="0"/>
+      <c r="UD25" s="0"/>
+      <c r="UE25" s="0"/>
+      <c r="UF25" s="0"/>
+      <c r="UG25" s="0"/>
+      <c r="UH25" s="0"/>
+      <c r="UI25" s="0"/>
+      <c r="UJ25" s="0"/>
+      <c r="UK25" s="0"/>
+      <c r="UL25" s="0"/>
+      <c r="UM25" s="0"/>
+      <c r="UN25" s="0"/>
+      <c r="UO25" s="0"/>
+      <c r="UP25" s="0"/>
+      <c r="UQ25" s="0"/>
+      <c r="UR25" s="0"/>
+      <c r="US25" s="0"/>
+      <c r="UT25" s="0"/>
+      <c r="UU25" s="0"/>
+      <c r="UV25" s="0"/>
+      <c r="UW25" s="0"/>
+      <c r="UX25" s="0"/>
+      <c r="UY25" s="0"/>
+      <c r="UZ25" s="0"/>
+      <c r="VA25" s="0"/>
+      <c r="VB25" s="0"/>
+      <c r="VC25" s="0"/>
+      <c r="VD25" s="0"/>
+      <c r="VE25" s="0"/>
+      <c r="VF25" s="0"/>
+      <c r="VG25" s="0"/>
+      <c r="VH25" s="0"/>
+      <c r="VI25" s="0"/>
+      <c r="VJ25" s="0"/>
+      <c r="VK25" s="0"/>
+      <c r="VL25" s="0"/>
+      <c r="VM25" s="0"/>
+      <c r="VN25" s="0"/>
+      <c r="VO25" s="0"/>
+      <c r="VP25" s="0"/>
+      <c r="VQ25" s="0"/>
+      <c r="VR25" s="0"/>
+      <c r="VS25" s="0"/>
+      <c r="VT25" s="0"/>
+      <c r="VU25" s="0"/>
+      <c r="VV25" s="0"/>
+      <c r="VW25" s="0"/>
+      <c r="VX25" s="0"/>
+      <c r="VY25" s="0"/>
+      <c r="VZ25" s="0"/>
+      <c r="WA25" s="0"/>
+      <c r="WB25" s="0"/>
+      <c r="WC25" s="0"/>
+      <c r="WD25" s="0"/>
+      <c r="WE25" s="0"/>
+      <c r="WF25" s="0"/>
+      <c r="WG25" s="0"/>
+      <c r="WH25" s="0"/>
+      <c r="WI25" s="0"/>
+      <c r="WJ25" s="0"/>
+      <c r="WK25" s="0"/>
+      <c r="WL25" s="0"/>
+      <c r="WM25" s="0"/>
+      <c r="WN25" s="0"/>
+      <c r="WO25" s="0"/>
+      <c r="WP25" s="0"/>
+      <c r="WQ25" s="0"/>
+      <c r="WR25" s="0"/>
+      <c r="WS25" s="0"/>
+      <c r="WT25" s="0"/>
+      <c r="WU25" s="0"/>
+      <c r="WV25" s="0"/>
+      <c r="WW25" s="0"/>
+      <c r="WX25" s="0"/>
+      <c r="WY25" s="0"/>
+      <c r="WZ25" s="0"/>
+      <c r="XA25" s="0"/>
+      <c r="XB25" s="0"/>
+      <c r="XC25" s="0"/>
+      <c r="XD25" s="0"/>
+      <c r="XE25" s="0"/>
+      <c r="XF25" s="0"/>
+      <c r="XG25" s="0"/>
+      <c r="XH25" s="0"/>
+      <c r="XI25" s="0"/>
+      <c r="XJ25" s="0"/>
+      <c r="XK25" s="0"/>
+      <c r="XL25" s="0"/>
+      <c r="XM25" s="0"/>
+      <c r="XN25" s="0"/>
+      <c r="XO25" s="0"/>
+      <c r="XP25" s="0"/>
+      <c r="XQ25" s="0"/>
+      <c r="XR25" s="0"/>
+      <c r="XS25" s="0"/>
+      <c r="XT25" s="0"/>
+      <c r="XU25" s="0"/>
+      <c r="XV25" s="0"/>
+      <c r="XW25" s="0"/>
+      <c r="XX25" s="0"/>
+      <c r="XY25" s="0"/>
+      <c r="XZ25" s="0"/>
+      <c r="YA25" s="0"/>
+      <c r="YB25" s="0"/>
+      <c r="YC25" s="0"/>
+      <c r="YD25" s="0"/>
+      <c r="YE25" s="0"/>
+      <c r="YF25" s="0"/>
+      <c r="YG25" s="0"/>
+      <c r="YH25" s="0"/>
+      <c r="YI25" s="0"/>
+      <c r="YJ25" s="0"/>
+      <c r="YK25" s="0"/>
+      <c r="YL25" s="0"/>
+      <c r="YM25" s="0"/>
+      <c r="YN25" s="0"/>
+      <c r="YO25" s="0"/>
+      <c r="YP25" s="0"/>
+      <c r="YQ25" s="0"/>
+      <c r="YR25" s="0"/>
+      <c r="YS25" s="0"/>
+      <c r="YT25" s="0"/>
+      <c r="YU25" s="0"/>
+      <c r="YV25" s="0"/>
+      <c r="YW25" s="0"/>
+      <c r="YX25" s="0"/>
+      <c r="YY25" s="0"/>
+      <c r="YZ25" s="0"/>
+      <c r="ZA25" s="0"/>
+      <c r="ZB25" s="0"/>
+      <c r="ZC25" s="0"/>
+      <c r="ZD25" s="0"/>
+      <c r="ZE25" s="0"/>
+      <c r="ZF25" s="0"/>
+      <c r="ZG25" s="0"/>
+      <c r="ZH25" s="0"/>
+      <c r="ZI25" s="0"/>
+      <c r="ZJ25" s="0"/>
+      <c r="ZK25" s="0"/>
+      <c r="ZL25" s="0"/>
+      <c r="ZM25" s="0"/>
+      <c r="ZN25" s="0"/>
+      <c r="ZO25" s="0"/>
+      <c r="ZP25" s="0"/>
+      <c r="ZQ25" s="0"/>
+      <c r="ZR25" s="0"/>
+      <c r="ZS25" s="0"/>
+      <c r="ZT25" s="0"/>
+      <c r="ZU25" s="0"/>
+      <c r="ZV25" s="0"/>
+      <c r="ZW25" s="0"/>
+      <c r="ZX25" s="0"/>
+      <c r="ZY25" s="0"/>
+      <c r="ZZ25" s="0"/>
+      <c r="AAA25" s="0"/>
+      <c r="AAB25" s="0"/>
+      <c r="AAC25" s="0"/>
+      <c r="AAD25" s="0"/>
+      <c r="AAE25" s="0"/>
+      <c r="AAF25" s="0"/>
+      <c r="AAG25" s="0"/>
+      <c r="AAH25" s="0"/>
+      <c r="AAI25" s="0"/>
+      <c r="AAJ25" s="0"/>
+      <c r="AAK25" s="0"/>
+      <c r="AAL25" s="0"/>
+      <c r="AAM25" s="0"/>
+      <c r="AAN25" s="0"/>
+      <c r="AAO25" s="0"/>
+      <c r="AAP25" s="0"/>
+      <c r="AAQ25" s="0"/>
+      <c r="AAR25" s="0"/>
+      <c r="AAS25" s="0"/>
+      <c r="AAT25" s="0"/>
+      <c r="AAU25" s="0"/>
+      <c r="AAV25" s="0"/>
+      <c r="AAW25" s="0"/>
+      <c r="AAX25" s="0"/>
+      <c r="AAY25" s="0"/>
+      <c r="AAZ25" s="0"/>
+      <c r="ABA25" s="0"/>
+      <c r="ABB25" s="0"/>
+      <c r="ABC25" s="0"/>
+      <c r="ABD25" s="0"/>
+      <c r="ABE25" s="0"/>
+      <c r="ABF25" s="0"/>
+      <c r="ABG25" s="0"/>
+      <c r="ABH25" s="0"/>
+      <c r="ABI25" s="0"/>
+      <c r="ABJ25" s="0"/>
+      <c r="ABK25" s="0"/>
+      <c r="ABL25" s="0"/>
+      <c r="ABM25" s="0"/>
+      <c r="ABN25" s="0"/>
+      <c r="ABO25" s="0"/>
+      <c r="ABP25" s="0"/>
+      <c r="ABQ25" s="0"/>
+      <c r="ABR25" s="0"/>
+      <c r="ABS25" s="0"/>
+      <c r="ABT25" s="0"/>
+      <c r="ABU25" s="0"/>
+      <c r="ABV25" s="0"/>
+      <c r="ABW25" s="0"/>
+      <c r="ABX25" s="0"/>
+      <c r="ABY25" s="0"/>
+      <c r="ABZ25" s="0"/>
+      <c r="ACA25" s="0"/>
+      <c r="ACB25" s="0"/>
+      <c r="ACC25" s="0"/>
+      <c r="ACD25" s="0"/>
+      <c r="ACE25" s="0"/>
+      <c r="ACF25" s="0"/>
+      <c r="ACG25" s="0"/>
+      <c r="ACH25" s="0"/>
+      <c r="ACI25" s="0"/>
+      <c r="ACJ25" s="0"/>
+      <c r="ACK25" s="0"/>
+      <c r="ACL25" s="0"/>
+      <c r="ACM25" s="0"/>
+      <c r="ACN25" s="0"/>
+      <c r="ACO25" s="0"/>
+      <c r="ACP25" s="0"/>
+      <c r="ACQ25" s="0"/>
+      <c r="ACR25" s="0"/>
+      <c r="ACS25" s="0"/>
+      <c r="ACT25" s="0"/>
+      <c r="ACU25" s="0"/>
+      <c r="ACV25" s="0"/>
+      <c r="ACW25" s="0"/>
+      <c r="ACX25" s="0"/>
+      <c r="ACY25" s="0"/>
+      <c r="ACZ25" s="0"/>
+      <c r="ADA25" s="0"/>
+      <c r="ADB25" s="0"/>
+      <c r="ADC25" s="0"/>
+      <c r="ADD25" s="0"/>
+      <c r="ADE25" s="0"/>
+      <c r="ADF25" s="0"/>
+      <c r="ADG25" s="0"/>
+      <c r="ADH25" s="0"/>
+      <c r="ADI25" s="0"/>
+      <c r="ADJ25" s="0"/>
+      <c r="ADK25" s="0"/>
+      <c r="ADL25" s="0"/>
+      <c r="ADM25" s="0"/>
+      <c r="ADN25" s="0"/>
+      <c r="ADO25" s="0"/>
+      <c r="ADP25" s="0"/>
+      <c r="ADQ25" s="0"/>
+      <c r="ADR25" s="0"/>
+      <c r="ADS25" s="0"/>
+      <c r="ADT25" s="0"/>
+      <c r="ADU25" s="0"/>
+      <c r="ADV25" s="0"/>
+      <c r="ADW25" s="0"/>
+      <c r="ADX25" s="0"/>
+      <c r="ADY25" s="0"/>
+      <c r="ADZ25" s="0"/>
+      <c r="AEA25" s="0"/>
+      <c r="AEB25" s="0"/>
+      <c r="AEC25" s="0"/>
+      <c r="AED25" s="0"/>
+      <c r="AEE25" s="0"/>
+      <c r="AEF25" s="0"/>
+      <c r="AEG25" s="0"/>
+      <c r="AEH25" s="0"/>
+      <c r="AEI25" s="0"/>
+      <c r="AEJ25" s="0"/>
+      <c r="AEK25" s="0"/>
+      <c r="AEL25" s="0"/>
+      <c r="AEM25" s="0"/>
+      <c r="AEN25" s="0"/>
+      <c r="AEO25" s="0"/>
+      <c r="AEP25" s="0"/>
+      <c r="AEQ25" s="0"/>
+      <c r="AER25" s="0"/>
+      <c r="AES25" s="0"/>
+      <c r="AET25" s="0"/>
+      <c r="AEU25" s="0"/>
+      <c r="AEV25" s="0"/>
+      <c r="AEW25" s="0"/>
+      <c r="AEX25" s="0"/>
+      <c r="AEY25" s="0"/>
+      <c r="AEZ25" s="0"/>
+      <c r="AFA25" s="0"/>
+      <c r="AFB25" s="0"/>
+      <c r="AFC25" s="0"/>
+      <c r="AFD25" s="0"/>
+      <c r="AFE25" s="0"/>
+      <c r="AFF25" s="0"/>
+      <c r="AFG25" s="0"/>
+      <c r="AFH25" s="0"/>
+      <c r="AFI25" s="0"/>
+      <c r="AFJ25" s="0"/>
+      <c r="AFK25" s="0"/>
+      <c r="AFL25" s="0"/>
+      <c r="AFM25" s="0"/>
+      <c r="AFN25" s="0"/>
+      <c r="AFO25" s="0"/>
+      <c r="AFP25" s="0"/>
+      <c r="AFQ25" s="0"/>
+      <c r="AFR25" s="0"/>
+      <c r="AFS25" s="0"/>
+      <c r="AFT25" s="0"/>
+      <c r="AFU25" s="0"/>
+      <c r="AFV25" s="0"/>
+      <c r="AFW25" s="0"/>
+      <c r="AFX25" s="0"/>
+      <c r="AFY25" s="0"/>
+      <c r="AFZ25" s="0"/>
+      <c r="AGA25" s="0"/>
+      <c r="AGB25" s="0"/>
+      <c r="AGC25" s="0"/>
+      <c r="AGD25" s="0"/>
+      <c r="AGE25" s="0"/>
+      <c r="AGF25" s="0"/>
+      <c r="AGG25" s="0"/>
+      <c r="AGH25" s="0"/>
+      <c r="AGI25" s="0"/>
+      <c r="AGJ25" s="0"/>
+      <c r="AGK25" s="0"/>
+      <c r="AGL25" s="0"/>
+      <c r="AGM25" s="0"/>
+      <c r="AGN25" s="0"/>
+      <c r="AGO25" s="0"/>
+      <c r="AGP25" s="0"/>
+      <c r="AGQ25" s="0"/>
+      <c r="AGR25" s="0"/>
+      <c r="AGS25" s="0"/>
+      <c r="AGT25" s="0"/>
+      <c r="AGU25" s="0"/>
+      <c r="AGV25" s="0"/>
+      <c r="AGW25" s="0"/>
+      <c r="AGX25" s="0"/>
+      <c r="AGY25" s="0"/>
+      <c r="AGZ25" s="0"/>
+      <c r="AHA25" s="0"/>
+      <c r="AHB25" s="0"/>
+      <c r="AHC25" s="0"/>
+      <c r="AHD25" s="0"/>
+      <c r="AHE25" s="0"/>
+      <c r="AHF25" s="0"/>
+      <c r="AHG25" s="0"/>
+      <c r="AHH25" s="0"/>
+      <c r="AHI25" s="0"/>
+      <c r="AHJ25" s="0"/>
+      <c r="AHK25" s="0"/>
+      <c r="AHL25" s="0"/>
+      <c r="AHM25" s="0"/>
+      <c r="AHN25" s="0"/>
+      <c r="AHO25" s="0"/>
+      <c r="AHP25" s="0"/>
+      <c r="AHQ25" s="0"/>
+      <c r="AHR25" s="0"/>
+      <c r="AHS25" s="0"/>
+      <c r="AHT25" s="0"/>
+      <c r="AHU25" s="0"/>
+      <c r="AHV25" s="0"/>
+      <c r="AHW25" s="0"/>
+      <c r="AHX25" s="0"/>
+      <c r="AHY25" s="0"/>
+      <c r="AHZ25" s="0"/>
+      <c r="AIA25" s="0"/>
+      <c r="AIB25" s="0"/>
+      <c r="AIC25" s="0"/>
+      <c r="AID25" s="0"/>
+      <c r="AIE25" s="0"/>
+      <c r="AIF25" s="0"/>
+      <c r="AIG25" s="0"/>
+      <c r="AIH25" s="0"/>
+      <c r="AII25" s="0"/>
+      <c r="AIJ25" s="0"/>
+      <c r="AIK25" s="0"/>
+      <c r="AIL25" s="0"/>
+      <c r="AIM25" s="0"/>
+      <c r="AIN25" s="0"/>
+      <c r="AIO25" s="0"/>
+      <c r="AIP25" s="0"/>
+      <c r="AIQ25" s="0"/>
+      <c r="AIR25" s="0"/>
+      <c r="AIS25" s="0"/>
+      <c r="AIT25" s="0"/>
+      <c r="AIU25" s="0"/>
+      <c r="AIV25" s="0"/>
+      <c r="AIW25" s="0"/>
+      <c r="AIX25" s="0"/>
+      <c r="AIY25" s="0"/>
+      <c r="AIZ25" s="0"/>
+      <c r="AJA25" s="0"/>
+      <c r="AJB25" s="0"/>
+      <c r="AJC25" s="0"/>
+      <c r="AJD25" s="0"/>
+      <c r="AJE25" s="0"/>
+      <c r="AJF25" s="0"/>
+      <c r="AJG25" s="0"/>
+      <c r="AJH25" s="0"/>
+      <c r="AJI25" s="0"/>
+      <c r="AJJ25" s="0"/>
+      <c r="AJK25" s="0"/>
+      <c r="AJL25" s="0"/>
+      <c r="AJM25" s="0"/>
+      <c r="AJN25" s="0"/>
+      <c r="AJO25" s="0"/>
+      <c r="AJP25" s="0"/>
+      <c r="AJQ25" s="0"/>
+      <c r="AJR25" s="0"/>
+      <c r="AJS25" s="0"/>
+      <c r="AJT25" s="0"/>
+      <c r="AJU25" s="0"/>
+      <c r="AJV25" s="0"/>
+      <c r="AJW25" s="0"/>
+      <c r="AJX25" s="0"/>
+      <c r="AJY25" s="0"/>
+      <c r="AJZ25" s="0"/>
+      <c r="AKA25" s="0"/>
+      <c r="AKB25" s="0"/>
+      <c r="AKC25" s="0"/>
+      <c r="AKD25" s="0"/>
+      <c r="AKE25" s="0"/>
+      <c r="AKF25" s="0"/>
+      <c r="AKG25" s="0"/>
+      <c r="AKH25" s="0"/>
+      <c r="AKI25" s="0"/>
+      <c r="AKJ25" s="0"/>
+      <c r="AKK25" s="0"/>
+      <c r="AKL25" s="0"/>
+      <c r="AKM25" s="0"/>
+      <c r="AKN25" s="0"/>
+      <c r="AKO25" s="0"/>
+      <c r="AKP25" s="0"/>
+      <c r="AKQ25" s="0"/>
+      <c r="AKR25" s="0"/>
+      <c r="AKS25" s="0"/>
+      <c r="AKT25" s="0"/>
+      <c r="AKU25" s="0"/>
+      <c r="AKV25" s="0"/>
+      <c r="AKW25" s="0"/>
+      <c r="AKX25" s="0"/>
+      <c r="AKY25" s="0"/>
+      <c r="AKZ25" s="0"/>
+      <c r="ALA25" s="0"/>
+      <c r="ALB25" s="0"/>
+      <c r="ALC25" s="0"/>
+      <c r="ALD25" s="0"/>
+      <c r="ALE25" s="0"/>
+      <c r="ALF25" s="0"/>
+      <c r="ALG25" s="0"/>
+      <c r="ALH25" s="0"/>
+      <c r="ALI25" s="0"/>
+      <c r="ALJ25" s="0"/>
+      <c r="ALK25" s="0"/>
+      <c r="ALL25" s="0"/>
+      <c r="ALM25" s="0"/>
+      <c r="ALN25" s="0"/>
+      <c r="ALO25" s="0"/>
+      <c r="ALP25" s="0"/>
+      <c r="ALQ25" s="0"/>
+      <c r="ALR25" s="0"/>
+      <c r="ALS25" s="0"/>
+      <c r="ALT25" s="0"/>
+      <c r="ALU25" s="0"/>
+      <c r="ALV25" s="0"/>
+      <c r="ALW25" s="0"/>
+      <c r="ALX25" s="0"/>
+      <c r="ALY25" s="0"/>
+      <c r="ALZ25" s="0"/>
+      <c r="AMA25" s="0"/>
+      <c r="AMB25" s="0"/>
+      <c r="AMC25" s="0"/>
+      <c r="AMD25" s="0"/>
+      <c r="AME25" s="0"/>
+      <c r="AMF25" s="0"/>
+      <c r="AMG25" s="0"/>
+      <c r="AMH25" s="0"/>
+      <c r="AMI25" s="0"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="s">
@@ -21783,7 +22775,7 @@
         <v>58</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>11</v>
@@ -21795,13 +22787,13 @@
         <v>53</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H28" s="6" t="s">
         <v>52</v>
       </c>
       <c r="I28" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J28" s="0"/>
       <c r="K28" s="0"/>
@@ -22821,10 +23813,10 @@
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0"/>
       <c r="B29" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>11</v>
@@ -22836,13 +23828,13 @@
         <v>53</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H29" s="6" t="s">
         <v>52</v>
       </c>
       <c r="I29" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J29" s="0"/>
       <c r="K29" s="0"/>
@@ -23862,10 +24854,10 @@
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0"/>
       <c r="B30" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D30" s="6" t="s">
         <v>11</v>
@@ -23877,13 +24869,13 @@
         <v>53</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H30" s="6" t="s">
         <v>52</v>
       </c>
       <c r="I30" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J30" s="0"/>
       <c r="K30" s="0"/>
@@ -24903,10 +25895,10 @@
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0"/>
       <c r="B31" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D31" s="6" t="s">
         <v>11</v>
@@ -24918,13 +25910,13 @@
         <v>53</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H31" s="6" t="s">
         <v>52</v>
       </c>
       <c r="I31" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J31" s="0"/>
       <c r="K31" s="0"/>
@@ -25943,10 +26935,10 @@
     </row>
     <row r="32" s="8" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>55</v>
+        <v>71</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>59</v>
       </c>
       <c r="D32" s="7" t="s">
         <v>11</v>
@@ -25958,22 +26950,22 @@
         <v>53</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H32" s="7" t="s">
         <v>52</v>
       </c>
       <c r="I32" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0"/>
       <c r="B33" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D33" s="6" t="s">
         <v>11</v>
@@ -25985,13 +26977,13 @@
         <v>53</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H33" s="6" t="s">
         <v>52</v>
       </c>
       <c r="I33" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J33" s="0"/>
       <c r="K33" s="0"/>
@@ -27011,10 +28003,10 @@
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0"/>
       <c r="B34" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D34" s="6" t="s">
         <v>11</v>
@@ -27026,13 +28018,13 @@
         <v>53</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H34" s="6" t="s">
         <v>52</v>
       </c>
       <c r="I34" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J34" s="0"/>
       <c r="K34" s="0"/>
@@ -28052,10 +29044,10 @@
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0"/>
       <c r="B35" s="6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D35" s="6" t="s">
         <v>11</v>
@@ -28067,13 +29059,13 @@
         <v>53</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H35" s="6" t="s">
         <v>52</v>
       </c>
       <c r="I35" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J35" s="0"/>
       <c r="K35" s="0"/>
@@ -29093,10 +30085,10 @@
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0"/>
       <c r="B36" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D36" s="6" t="s">
         <v>11</v>
@@ -29108,13 +30100,13 @@
         <v>53</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H36" s="6" t="s">
         <v>52</v>
       </c>
       <c r="I36" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J36" s="0"/>
       <c r="K36" s="0"/>
@@ -30133,10 +31125,10 @@
     </row>
     <row r="37" s="8" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>55</v>
+        <v>86</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>59</v>
       </c>
       <c r="D37" s="7" t="s">
         <v>11</v>
@@ -30148,13 +31140,13 @@
         <v>53</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H37" s="7" t="s">
         <v>52</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30162,7 +31154,7 @@
         <v>58</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>55</v>
@@ -30174,16 +31166,16 @@
         <v>52</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H38" s="6" t="s">
         <v>52</v>
       </c>
       <c r="I38" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J38" s="0"/>
       <c r="K38" s="0"/>
@@ -31202,10 +32194,10 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C39" s="6" t="s">
         <v>55</v>
@@ -31217,16 +32209,16 @@
         <v>52</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H39" s="6" t="s">
         <v>52</v>
       </c>
       <c r="I39" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J39" s="0"/>
       <c r="K39" s="0"/>
@@ -32245,10 +33237,10 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C40" s="6" t="s">
         <v>55</v>
@@ -32260,16 +33252,16 @@
         <v>52</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H40" s="6" t="s">
         <v>52</v>
       </c>
       <c r="I40" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J40" s="0"/>
       <c r="K40" s="0"/>
@@ -33288,10 +34280,10 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C41" s="6" t="s">
         <v>55</v>
@@ -33303,16 +34295,16 @@
         <v>52</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H41" s="6" t="s">
         <v>52</v>
       </c>
       <c r="I41" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J41" s="0"/>
       <c r="K41" s="0"/>
@@ -34331,10 +35323,10 @@
     </row>
     <row r="42" s="8" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C42" s="7" t="s">
         <v>55</v>
@@ -34346,24 +35338,24 @@
         <v>52</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H42" s="7" t="s">
         <v>52</v>
       </c>
       <c r="I42" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C43" s="6" t="s">
         <v>55</v>
@@ -34375,16 +35367,16 @@
         <v>52</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H43" s="6" t="s">
         <v>52</v>
       </c>
       <c r="I43" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J43" s="0"/>
       <c r="K43" s="0"/>
@@ -35403,10 +36395,10 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C44" s="6" t="s">
         <v>55</v>
@@ -35418,16 +36410,16 @@
         <v>52</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H44" s="6" t="s">
         <v>52</v>
       </c>
       <c r="I44" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J44" s="0"/>
       <c r="K44" s="0"/>
@@ -36446,10 +37438,10 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C45" s="6" t="s">
         <v>55</v>
@@ -36461,16 +37453,16 @@
         <v>52</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H45" s="6" t="s">
         <v>52</v>
       </c>
       <c r="I45" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J45" s="0"/>
       <c r="K45" s="0"/>
@@ -37489,10 +38481,10 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C46" s="6" t="s">
         <v>55</v>
@@ -37504,16 +38496,16 @@
         <v>52</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H46" s="6" t="s">
         <v>52</v>
       </c>
       <c r="I46" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J46" s="0"/>
       <c r="K46" s="0"/>
@@ -38532,10 +39524,10 @@
     </row>
     <row r="47" s="8" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C47" s="7" t="s">
         <v>55</v>
@@ -38547,24 +39539,24 @@
         <v>52</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H47" s="7" t="s">
         <v>52</v>
       </c>
       <c r="I47" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C48" s="6" t="s">
         <v>55</v>
@@ -38576,16 +39568,16 @@
         <v>52</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H48" s="6" t="s">
         <v>52</v>
       </c>
       <c r="I48" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J48" s="0"/>
       <c r="K48" s="0"/>
@@ -39604,10 +40596,10 @@
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C49" s="6" t="s">
         <v>55</v>
@@ -39619,16 +40611,16 @@
         <v>52</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H49" s="6" t="s">
         <v>52</v>
       </c>
       <c r="I49" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J49" s="0"/>
       <c r="K49" s="0"/>
@@ -40647,10 +41639,10 @@
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C50" s="6" t="s">
         <v>55</v>
@@ -40662,16 +41654,16 @@
         <v>52</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H50" s="6" t="s">
         <v>52</v>
       </c>
       <c r="I50" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J50" s="0"/>
       <c r="K50" s="0"/>
@@ -41690,10 +42682,10 @@
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C51" s="6" t="s">
         <v>55</v>
@@ -41705,16 +42697,16 @@
         <v>52</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H51" s="6" t="s">
         <v>52</v>
       </c>
       <c r="I51" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J51" s="0"/>
       <c r="K51" s="0"/>
@@ -42733,10 +43725,10 @@
     </row>
     <row r="52" s="8" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C52" s="7" t="s">
         <v>55</v>
@@ -42748,24 +43740,24 @@
         <v>52</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H52" s="7" t="s">
         <v>52</v>
       </c>
       <c r="I52" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C53" s="6" t="s">
         <v>55</v>
@@ -42777,16 +43769,16 @@
         <v>52</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H53" s="6" t="s">
         <v>52</v>
       </c>
       <c r="I53" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J53" s="0"/>
       <c r="K53" s="0"/>
@@ -43805,10 +44797,10 @@
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C54" s="6" t="s">
         <v>55</v>
@@ -43820,16 +44812,16 @@
         <v>52</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H54" s="6" t="s">
         <v>52</v>
       </c>
       <c r="I54" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J54" s="0"/>
       <c r="K54" s="0"/>
@@ -44848,10 +45840,10 @@
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C55" s="6" t="s">
         <v>55</v>
@@ -44863,16 +45855,16 @@
         <v>52</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H55" s="6" t="s">
         <v>52</v>
       </c>
       <c r="I55" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J55" s="0"/>
       <c r="K55" s="0"/>
@@ -45891,10 +46883,10 @@
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C56" s="6" t="s">
         <v>55</v>
@@ -45906,16 +46898,16 @@
         <v>52</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G56" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H56" s="6" t="s">
         <v>52</v>
       </c>
       <c r="I56" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J56" s="0"/>
       <c r="K56" s="0"/>
@@ -46934,10 +47926,10 @@
     </row>
     <row r="57" s="8" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C57" s="7" t="s">
         <v>55</v>
@@ -46949,25 +47941,25 @@
         <v>52</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H57" s="7" t="s">
         <v>52</v>
       </c>
       <c r="I57" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="13"/>
+      <c r="A58" s="9"/>
       <c r="B58" s="6" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D58" s="6" t="s">
         <v>31</v>
@@ -48002,77 +48994,1086 @@
       <c r="AMH58" s="0"/>
       <c r="AMI58" s="0"/>
     </row>
-    <row r="59" s="12" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="9"/>
-      <c r="B59" s="9" t="s">
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="6"/>
+      <c r="B59" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F59" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G59" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="H59" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I59" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="J59" s="0"/>
+      <c r="K59" s="0"/>
+      <c r="L59" s="0"/>
+      <c r="M59" s="0"/>
+      <c r="N59" s="0"/>
+      <c r="O59" s="0"/>
+      <c r="P59" s="0"/>
+      <c r="Q59" s="0"/>
+      <c r="R59" s="0"/>
+      <c r="S59" s="0"/>
+      <c r="T59" s="0"/>
+      <c r="U59" s="0"/>
+      <c r="V59" s="0"/>
+      <c r="W59" s="0"/>
+      <c r="X59" s="0"/>
+      <c r="Y59" s="0"/>
+      <c r="Z59" s="0"/>
+      <c r="AA59" s="0"/>
+      <c r="AB59" s="0"/>
+      <c r="AC59" s="0"/>
+      <c r="AD59" s="0"/>
+      <c r="AE59" s="0"/>
+      <c r="AF59" s="0"/>
+      <c r="AG59" s="0"/>
+      <c r="AH59" s="0"/>
+      <c r="AI59" s="0"/>
+      <c r="AJ59" s="0"/>
+      <c r="AK59" s="0"/>
+      <c r="AL59" s="0"/>
+      <c r="AM59" s="0"/>
+      <c r="AN59" s="0"/>
+      <c r="AO59" s="0"/>
+      <c r="AP59" s="0"/>
+      <c r="AQ59" s="0"/>
+      <c r="AR59" s="0"/>
+      <c r="AS59" s="0"/>
+      <c r="AT59" s="0"/>
+      <c r="AU59" s="0"/>
+      <c r="AV59" s="0"/>
+      <c r="AW59" s="0"/>
+      <c r="AX59" s="0"/>
+      <c r="AY59" s="0"/>
+      <c r="AZ59" s="0"/>
+      <c r="BA59" s="0"/>
+      <c r="BB59" s="0"/>
+      <c r="BC59" s="0"/>
+      <c r="BD59" s="0"/>
+      <c r="BE59" s="0"/>
+      <c r="BF59" s="0"/>
+      <c r="BG59" s="0"/>
+      <c r="BH59" s="0"/>
+      <c r="BI59" s="0"/>
+      <c r="BJ59" s="0"/>
+      <c r="BK59" s="0"/>
+      <c r="BL59" s="0"/>
+      <c r="BM59" s="0"/>
+      <c r="BN59" s="0"/>
+      <c r="BO59" s="0"/>
+      <c r="BP59" s="0"/>
+      <c r="BQ59" s="0"/>
+      <c r="BR59" s="0"/>
+      <c r="BS59" s="0"/>
+      <c r="BT59" s="0"/>
+      <c r="BU59" s="0"/>
+      <c r="BV59" s="0"/>
+      <c r="BW59" s="0"/>
+      <c r="BX59" s="0"/>
+      <c r="BY59" s="0"/>
+      <c r="BZ59" s="0"/>
+      <c r="CA59" s="0"/>
+      <c r="CB59" s="0"/>
+      <c r="CC59" s="0"/>
+      <c r="CD59" s="0"/>
+      <c r="CE59" s="0"/>
+      <c r="CF59" s="0"/>
+      <c r="CG59" s="0"/>
+      <c r="CH59" s="0"/>
+      <c r="CI59" s="0"/>
+      <c r="CJ59" s="0"/>
+      <c r="CK59" s="0"/>
+      <c r="CL59" s="0"/>
+      <c r="CM59" s="0"/>
+      <c r="CN59" s="0"/>
+      <c r="CO59" s="0"/>
+      <c r="CP59" s="0"/>
+      <c r="CQ59" s="0"/>
+      <c r="CR59" s="0"/>
+      <c r="CS59" s="0"/>
+      <c r="CT59" s="0"/>
+      <c r="CU59" s="0"/>
+      <c r="CV59" s="0"/>
+      <c r="CW59" s="0"/>
+      <c r="CX59" s="0"/>
+      <c r="CY59" s="0"/>
+      <c r="CZ59" s="0"/>
+      <c r="DA59" s="0"/>
+      <c r="DB59" s="0"/>
+      <c r="DC59" s="0"/>
+      <c r="DD59" s="0"/>
+      <c r="DE59" s="0"/>
+      <c r="DF59" s="0"/>
+      <c r="DG59" s="0"/>
+      <c r="DH59" s="0"/>
+      <c r="DI59" s="0"/>
+      <c r="DJ59" s="0"/>
+      <c r="DK59" s="0"/>
+      <c r="DL59" s="0"/>
+      <c r="DM59" s="0"/>
+      <c r="DN59" s="0"/>
+      <c r="DO59" s="0"/>
+      <c r="DP59" s="0"/>
+      <c r="DQ59" s="0"/>
+      <c r="DR59" s="0"/>
+      <c r="DS59" s="0"/>
+      <c r="DT59" s="0"/>
+      <c r="DU59" s="0"/>
+      <c r="DV59" s="0"/>
+      <c r="DW59" s="0"/>
+      <c r="DX59" s="0"/>
+      <c r="DY59" s="0"/>
+      <c r="DZ59" s="0"/>
+      <c r="EA59" s="0"/>
+      <c r="EB59" s="0"/>
+      <c r="EC59" s="0"/>
+      <c r="ED59" s="0"/>
+      <c r="EE59" s="0"/>
+      <c r="EF59" s="0"/>
+      <c r="EG59" s="0"/>
+      <c r="EH59" s="0"/>
+      <c r="EI59" s="0"/>
+      <c r="EJ59" s="0"/>
+      <c r="EK59" s="0"/>
+      <c r="EL59" s="0"/>
+      <c r="EM59" s="0"/>
+      <c r="EN59" s="0"/>
+      <c r="EO59" s="0"/>
+      <c r="EP59" s="0"/>
+      <c r="EQ59" s="0"/>
+      <c r="ER59" s="0"/>
+      <c r="ES59" s="0"/>
+      <c r="ET59" s="0"/>
+      <c r="EU59" s="0"/>
+      <c r="EV59" s="0"/>
+      <c r="EW59" s="0"/>
+      <c r="EX59" s="0"/>
+      <c r="EY59" s="0"/>
+      <c r="EZ59" s="0"/>
+      <c r="FA59" s="0"/>
+      <c r="FB59" s="0"/>
+      <c r="FC59" s="0"/>
+      <c r="FD59" s="0"/>
+      <c r="FE59" s="0"/>
+      <c r="FF59" s="0"/>
+      <c r="FG59" s="0"/>
+      <c r="FH59" s="0"/>
+      <c r="FI59" s="0"/>
+      <c r="FJ59" s="0"/>
+      <c r="FK59" s="0"/>
+      <c r="FL59" s="0"/>
+      <c r="FM59" s="0"/>
+      <c r="FN59" s="0"/>
+      <c r="FO59" s="0"/>
+      <c r="FP59" s="0"/>
+      <c r="FQ59" s="0"/>
+      <c r="FR59" s="0"/>
+      <c r="FS59" s="0"/>
+      <c r="FT59" s="0"/>
+      <c r="FU59" s="0"/>
+      <c r="FV59" s="0"/>
+      <c r="FW59" s="0"/>
+      <c r="FX59" s="0"/>
+      <c r="FY59" s="0"/>
+      <c r="FZ59" s="0"/>
+      <c r="GA59" s="0"/>
+      <c r="GB59" s="0"/>
+      <c r="GC59" s="0"/>
+      <c r="GD59" s="0"/>
+      <c r="GE59" s="0"/>
+      <c r="GF59" s="0"/>
+      <c r="GG59" s="0"/>
+      <c r="GH59" s="0"/>
+      <c r="GI59" s="0"/>
+      <c r="GJ59" s="0"/>
+      <c r="GK59" s="0"/>
+      <c r="GL59" s="0"/>
+      <c r="GM59" s="0"/>
+      <c r="GN59" s="0"/>
+      <c r="GO59" s="0"/>
+      <c r="GP59" s="0"/>
+      <c r="GQ59" s="0"/>
+      <c r="GR59" s="0"/>
+      <c r="GS59" s="0"/>
+      <c r="GT59" s="0"/>
+      <c r="GU59" s="0"/>
+      <c r="GV59" s="0"/>
+      <c r="GW59" s="0"/>
+      <c r="GX59" s="0"/>
+      <c r="GY59" s="0"/>
+      <c r="GZ59" s="0"/>
+      <c r="HA59" s="0"/>
+      <c r="HB59" s="0"/>
+      <c r="HC59" s="0"/>
+      <c r="HD59" s="0"/>
+      <c r="HE59" s="0"/>
+      <c r="HF59" s="0"/>
+      <c r="HG59" s="0"/>
+      <c r="HH59" s="0"/>
+      <c r="HI59" s="0"/>
+      <c r="HJ59" s="0"/>
+      <c r="HK59" s="0"/>
+      <c r="HL59" s="0"/>
+      <c r="HM59" s="0"/>
+      <c r="HN59" s="0"/>
+      <c r="HO59" s="0"/>
+      <c r="HP59" s="0"/>
+      <c r="HQ59" s="0"/>
+      <c r="HR59" s="0"/>
+      <c r="HS59" s="0"/>
+      <c r="HT59" s="0"/>
+      <c r="HU59" s="0"/>
+      <c r="HV59" s="0"/>
+      <c r="HW59" s="0"/>
+      <c r="HX59" s="0"/>
+      <c r="HY59" s="0"/>
+      <c r="HZ59" s="0"/>
+      <c r="IA59" s="0"/>
+      <c r="IB59" s="0"/>
+      <c r="IC59" s="0"/>
+      <c r="ID59" s="0"/>
+      <c r="IE59" s="0"/>
+      <c r="IF59" s="0"/>
+      <c r="IG59" s="0"/>
+      <c r="IH59" s="0"/>
+      <c r="II59" s="0"/>
+      <c r="IJ59" s="0"/>
+      <c r="IK59" s="0"/>
+      <c r="IL59" s="0"/>
+      <c r="IM59" s="0"/>
+      <c r="IN59" s="0"/>
+      <c r="IO59" s="0"/>
+      <c r="IP59" s="0"/>
+      <c r="IQ59" s="0"/>
+      <c r="IR59" s="0"/>
+      <c r="IS59" s="0"/>
+      <c r="IT59" s="0"/>
+      <c r="IU59" s="0"/>
+      <c r="IV59" s="0"/>
+      <c r="IW59" s="0"/>
+      <c r="IX59" s="0"/>
+      <c r="IY59" s="0"/>
+      <c r="IZ59" s="0"/>
+      <c r="JA59" s="0"/>
+      <c r="JB59" s="0"/>
+      <c r="JC59" s="0"/>
+      <c r="JD59" s="0"/>
+      <c r="JE59" s="0"/>
+      <c r="JF59" s="0"/>
+      <c r="JG59" s="0"/>
+      <c r="JH59" s="0"/>
+      <c r="JI59" s="0"/>
+      <c r="JJ59" s="0"/>
+      <c r="JK59" s="0"/>
+      <c r="JL59" s="0"/>
+      <c r="JM59" s="0"/>
+      <c r="JN59" s="0"/>
+      <c r="JO59" s="0"/>
+      <c r="JP59" s="0"/>
+      <c r="JQ59" s="0"/>
+      <c r="JR59" s="0"/>
+      <c r="JS59" s="0"/>
+      <c r="JT59" s="0"/>
+      <c r="JU59" s="0"/>
+      <c r="JV59" s="0"/>
+      <c r="JW59" s="0"/>
+      <c r="JX59" s="0"/>
+      <c r="JY59" s="0"/>
+      <c r="JZ59" s="0"/>
+      <c r="KA59" s="0"/>
+      <c r="KB59" s="0"/>
+      <c r="KC59" s="0"/>
+      <c r="KD59" s="0"/>
+      <c r="KE59" s="0"/>
+      <c r="KF59" s="0"/>
+      <c r="KG59" s="0"/>
+      <c r="KH59" s="0"/>
+      <c r="KI59" s="0"/>
+      <c r="KJ59" s="0"/>
+      <c r="KK59" s="0"/>
+      <c r="KL59" s="0"/>
+      <c r="KM59" s="0"/>
+      <c r="KN59" s="0"/>
+      <c r="KO59" s="0"/>
+      <c r="KP59" s="0"/>
+      <c r="KQ59" s="0"/>
+      <c r="KR59" s="0"/>
+      <c r="KS59" s="0"/>
+      <c r="KT59" s="0"/>
+      <c r="KU59" s="0"/>
+      <c r="KV59" s="0"/>
+      <c r="KW59" s="0"/>
+      <c r="KX59" s="0"/>
+      <c r="KY59" s="0"/>
+      <c r="KZ59" s="0"/>
+      <c r="LA59" s="0"/>
+      <c r="LB59" s="0"/>
+      <c r="LC59" s="0"/>
+      <c r="LD59" s="0"/>
+      <c r="LE59" s="0"/>
+      <c r="LF59" s="0"/>
+      <c r="LG59" s="0"/>
+      <c r="LH59" s="0"/>
+      <c r="LI59" s="0"/>
+      <c r="LJ59" s="0"/>
+      <c r="LK59" s="0"/>
+      <c r="LL59" s="0"/>
+      <c r="LM59" s="0"/>
+      <c r="LN59" s="0"/>
+      <c r="LO59" s="0"/>
+      <c r="LP59" s="0"/>
+      <c r="LQ59" s="0"/>
+      <c r="LR59" s="0"/>
+      <c r="LS59" s="0"/>
+      <c r="LT59" s="0"/>
+      <c r="LU59" s="0"/>
+      <c r="LV59" s="0"/>
+      <c r="LW59" s="0"/>
+      <c r="LX59" s="0"/>
+      <c r="LY59" s="0"/>
+      <c r="LZ59" s="0"/>
+      <c r="MA59" s="0"/>
+      <c r="MB59" s="0"/>
+      <c r="MC59" s="0"/>
+      <c r="MD59" s="0"/>
+      <c r="ME59" s="0"/>
+      <c r="MF59" s="0"/>
+      <c r="MG59" s="0"/>
+      <c r="MH59" s="0"/>
+      <c r="MI59" s="0"/>
+      <c r="MJ59" s="0"/>
+      <c r="MK59" s="0"/>
+      <c r="ML59" s="0"/>
+      <c r="MM59" s="0"/>
+      <c r="MN59" s="0"/>
+      <c r="MO59" s="0"/>
+      <c r="MP59" s="0"/>
+      <c r="MQ59" s="0"/>
+      <c r="MR59" s="0"/>
+      <c r="MS59" s="0"/>
+      <c r="MT59" s="0"/>
+      <c r="MU59" s="0"/>
+      <c r="MV59" s="0"/>
+      <c r="MW59" s="0"/>
+      <c r="MX59" s="0"/>
+      <c r="MY59" s="0"/>
+      <c r="MZ59" s="0"/>
+      <c r="NA59" s="0"/>
+      <c r="NB59" s="0"/>
+      <c r="NC59" s="0"/>
+      <c r="ND59" s="0"/>
+      <c r="NE59" s="0"/>
+      <c r="NF59" s="0"/>
+      <c r="NG59" s="0"/>
+      <c r="NH59" s="0"/>
+      <c r="NI59" s="0"/>
+      <c r="NJ59" s="0"/>
+      <c r="NK59" s="0"/>
+      <c r="NL59" s="0"/>
+      <c r="NM59" s="0"/>
+      <c r="NN59" s="0"/>
+      <c r="NO59" s="0"/>
+      <c r="NP59" s="0"/>
+      <c r="NQ59" s="0"/>
+      <c r="NR59" s="0"/>
+      <c r="NS59" s="0"/>
+      <c r="NT59" s="0"/>
+      <c r="NU59" s="0"/>
+      <c r="NV59" s="0"/>
+      <c r="NW59" s="0"/>
+      <c r="NX59" s="0"/>
+      <c r="NY59" s="0"/>
+      <c r="NZ59" s="0"/>
+      <c r="OA59" s="0"/>
+      <c r="OB59" s="0"/>
+      <c r="OC59" s="0"/>
+      <c r="OD59" s="0"/>
+      <c r="OE59" s="0"/>
+      <c r="OF59" s="0"/>
+      <c r="OG59" s="0"/>
+      <c r="OH59" s="0"/>
+      <c r="OI59" s="0"/>
+      <c r="OJ59" s="0"/>
+      <c r="OK59" s="0"/>
+      <c r="OL59" s="0"/>
+      <c r="OM59" s="0"/>
+      <c r="ON59" s="0"/>
+      <c r="OO59" s="0"/>
+      <c r="OP59" s="0"/>
+      <c r="OQ59" s="0"/>
+      <c r="OR59" s="0"/>
+      <c r="OS59" s="0"/>
+      <c r="OT59" s="0"/>
+      <c r="OU59" s="0"/>
+      <c r="OV59" s="0"/>
+      <c r="OW59" s="0"/>
+      <c r="OX59" s="0"/>
+      <c r="OY59" s="0"/>
+      <c r="OZ59" s="0"/>
+      <c r="PA59" s="0"/>
+      <c r="PB59" s="0"/>
+      <c r="PC59" s="0"/>
+      <c r="PD59" s="0"/>
+      <c r="PE59" s="0"/>
+      <c r="PF59" s="0"/>
+      <c r="PG59" s="0"/>
+      <c r="PH59" s="0"/>
+      <c r="PI59" s="0"/>
+      <c r="PJ59" s="0"/>
+      <c r="PK59" s="0"/>
+      <c r="PL59" s="0"/>
+      <c r="PM59" s="0"/>
+      <c r="PN59" s="0"/>
+      <c r="PO59" s="0"/>
+      <c r="PP59" s="0"/>
+      <c r="PQ59" s="0"/>
+      <c r="PR59" s="0"/>
+      <c r="PS59" s="0"/>
+      <c r="PT59" s="0"/>
+      <c r="PU59" s="0"/>
+      <c r="PV59" s="0"/>
+      <c r="PW59" s="0"/>
+      <c r="PX59" s="0"/>
+      <c r="PY59" s="0"/>
+      <c r="PZ59" s="0"/>
+      <c r="QA59" s="0"/>
+      <c r="QB59" s="0"/>
+      <c r="QC59" s="0"/>
+      <c r="QD59" s="0"/>
+      <c r="QE59" s="0"/>
+      <c r="QF59" s="0"/>
+      <c r="QG59" s="0"/>
+      <c r="QH59" s="0"/>
+      <c r="QI59" s="0"/>
+      <c r="QJ59" s="0"/>
+      <c r="QK59" s="0"/>
+      <c r="QL59" s="0"/>
+      <c r="QM59" s="0"/>
+      <c r="QN59" s="0"/>
+      <c r="QO59" s="0"/>
+      <c r="QP59" s="0"/>
+      <c r="QQ59" s="0"/>
+      <c r="QR59" s="0"/>
+      <c r="QS59" s="0"/>
+      <c r="QT59" s="0"/>
+      <c r="QU59" s="0"/>
+      <c r="QV59" s="0"/>
+      <c r="QW59" s="0"/>
+      <c r="QX59" s="0"/>
+      <c r="QY59" s="0"/>
+      <c r="QZ59" s="0"/>
+      <c r="RA59" s="0"/>
+      <c r="RB59" s="0"/>
+      <c r="RC59" s="0"/>
+      <c r="RD59" s="0"/>
+      <c r="RE59" s="0"/>
+      <c r="RF59" s="0"/>
+      <c r="RG59" s="0"/>
+      <c r="RH59" s="0"/>
+      <c r="RI59" s="0"/>
+      <c r="RJ59" s="0"/>
+      <c r="RK59" s="0"/>
+      <c r="RL59" s="0"/>
+      <c r="RM59" s="0"/>
+      <c r="RN59" s="0"/>
+      <c r="RO59" s="0"/>
+      <c r="RP59" s="0"/>
+      <c r="RQ59" s="0"/>
+      <c r="RR59" s="0"/>
+      <c r="RS59" s="0"/>
+      <c r="RT59" s="0"/>
+      <c r="RU59" s="0"/>
+      <c r="RV59" s="0"/>
+      <c r="RW59" s="0"/>
+      <c r="RX59" s="0"/>
+      <c r="RY59" s="0"/>
+      <c r="RZ59" s="0"/>
+      <c r="SA59" s="0"/>
+      <c r="SB59" s="0"/>
+      <c r="SC59" s="0"/>
+      <c r="SD59" s="0"/>
+      <c r="SE59" s="0"/>
+      <c r="SF59" s="0"/>
+      <c r="SG59" s="0"/>
+      <c r="SH59" s="0"/>
+      <c r="SI59" s="0"/>
+      <c r="SJ59" s="0"/>
+      <c r="SK59" s="0"/>
+      <c r="SL59" s="0"/>
+      <c r="SM59" s="0"/>
+      <c r="SN59" s="0"/>
+      <c r="SO59" s="0"/>
+      <c r="SP59" s="0"/>
+      <c r="SQ59" s="0"/>
+      <c r="SR59" s="0"/>
+      <c r="SS59" s="0"/>
+      <c r="ST59" s="0"/>
+      <c r="SU59" s="0"/>
+      <c r="SV59" s="0"/>
+      <c r="SW59" s="0"/>
+      <c r="SX59" s="0"/>
+      <c r="SY59" s="0"/>
+      <c r="SZ59" s="0"/>
+      <c r="TA59" s="0"/>
+      <c r="TB59" s="0"/>
+      <c r="TC59" s="0"/>
+      <c r="TD59" s="0"/>
+      <c r="TE59" s="0"/>
+      <c r="TF59" s="0"/>
+      <c r="TG59" s="0"/>
+      <c r="TH59" s="0"/>
+      <c r="TI59" s="0"/>
+      <c r="TJ59" s="0"/>
+      <c r="TK59" s="0"/>
+      <c r="TL59" s="0"/>
+      <c r="TM59" s="0"/>
+      <c r="TN59" s="0"/>
+      <c r="TO59" s="0"/>
+      <c r="TP59" s="0"/>
+      <c r="TQ59" s="0"/>
+      <c r="TR59" s="0"/>
+      <c r="TS59" s="0"/>
+      <c r="TT59" s="0"/>
+      <c r="TU59" s="0"/>
+      <c r="TV59" s="0"/>
+      <c r="TW59" s="0"/>
+      <c r="TX59" s="0"/>
+      <c r="TY59" s="0"/>
+      <c r="TZ59" s="0"/>
+      <c r="UA59" s="0"/>
+      <c r="UB59" s="0"/>
+      <c r="UC59" s="0"/>
+      <c r="UD59" s="0"/>
+      <c r="UE59" s="0"/>
+      <c r="UF59" s="0"/>
+      <c r="UG59" s="0"/>
+      <c r="UH59" s="0"/>
+      <c r="UI59" s="0"/>
+      <c r="UJ59" s="0"/>
+      <c r="UK59" s="0"/>
+      <c r="UL59" s="0"/>
+      <c r="UM59" s="0"/>
+      <c r="UN59" s="0"/>
+      <c r="UO59" s="0"/>
+      <c r="UP59" s="0"/>
+      <c r="UQ59" s="0"/>
+      <c r="UR59" s="0"/>
+      <c r="US59" s="0"/>
+      <c r="UT59" s="0"/>
+      <c r="UU59" s="0"/>
+      <c r="UV59" s="0"/>
+      <c r="UW59" s="0"/>
+      <c r="UX59" s="0"/>
+      <c r="UY59" s="0"/>
+      <c r="UZ59" s="0"/>
+      <c r="VA59" s="0"/>
+      <c r="VB59" s="0"/>
+      <c r="VC59" s="0"/>
+      <c r="VD59" s="0"/>
+      <c r="VE59" s="0"/>
+      <c r="VF59" s="0"/>
+      <c r="VG59" s="0"/>
+      <c r="VH59" s="0"/>
+      <c r="VI59" s="0"/>
+      <c r="VJ59" s="0"/>
+      <c r="VK59" s="0"/>
+      <c r="VL59" s="0"/>
+      <c r="VM59" s="0"/>
+      <c r="VN59" s="0"/>
+      <c r="VO59" s="0"/>
+      <c r="VP59" s="0"/>
+      <c r="VQ59" s="0"/>
+      <c r="VR59" s="0"/>
+      <c r="VS59" s="0"/>
+      <c r="VT59" s="0"/>
+      <c r="VU59" s="0"/>
+      <c r="VV59" s="0"/>
+      <c r="VW59" s="0"/>
+      <c r="VX59" s="0"/>
+      <c r="VY59" s="0"/>
+      <c r="VZ59" s="0"/>
+      <c r="WA59" s="0"/>
+      <c r="WB59" s="0"/>
+      <c r="WC59" s="0"/>
+      <c r="WD59" s="0"/>
+      <c r="WE59" s="0"/>
+      <c r="WF59" s="0"/>
+      <c r="WG59" s="0"/>
+      <c r="WH59" s="0"/>
+      <c r="WI59" s="0"/>
+      <c r="WJ59" s="0"/>
+      <c r="WK59" s="0"/>
+      <c r="WL59" s="0"/>
+      <c r="WM59" s="0"/>
+      <c r="WN59" s="0"/>
+      <c r="WO59" s="0"/>
+      <c r="WP59" s="0"/>
+      <c r="WQ59" s="0"/>
+      <c r="WR59" s="0"/>
+      <c r="WS59" s="0"/>
+      <c r="WT59" s="0"/>
+      <c r="WU59" s="0"/>
+      <c r="WV59" s="0"/>
+      <c r="WW59" s="0"/>
+      <c r="WX59" s="0"/>
+      <c r="WY59" s="0"/>
+      <c r="WZ59" s="0"/>
+      <c r="XA59" s="0"/>
+      <c r="XB59" s="0"/>
+      <c r="XC59" s="0"/>
+      <c r="XD59" s="0"/>
+      <c r="XE59" s="0"/>
+      <c r="XF59" s="0"/>
+      <c r="XG59" s="0"/>
+      <c r="XH59" s="0"/>
+      <c r="XI59" s="0"/>
+      <c r="XJ59" s="0"/>
+      <c r="XK59" s="0"/>
+      <c r="XL59" s="0"/>
+      <c r="XM59" s="0"/>
+      <c r="XN59" s="0"/>
+      <c r="XO59" s="0"/>
+      <c r="XP59" s="0"/>
+      <c r="XQ59" s="0"/>
+      <c r="XR59" s="0"/>
+      <c r="XS59" s="0"/>
+      <c r="XT59" s="0"/>
+      <c r="XU59" s="0"/>
+      <c r="XV59" s="0"/>
+      <c r="XW59" s="0"/>
+      <c r="XX59" s="0"/>
+      <c r="XY59" s="0"/>
+      <c r="XZ59" s="0"/>
+      <c r="YA59" s="0"/>
+      <c r="YB59" s="0"/>
+      <c r="YC59" s="0"/>
+      <c r="YD59" s="0"/>
+      <c r="YE59" s="0"/>
+      <c r="YF59" s="0"/>
+      <c r="YG59" s="0"/>
+      <c r="YH59" s="0"/>
+      <c r="YI59" s="0"/>
+      <c r="YJ59" s="0"/>
+      <c r="YK59" s="0"/>
+      <c r="YL59" s="0"/>
+      <c r="YM59" s="0"/>
+      <c r="YN59" s="0"/>
+      <c r="YO59" s="0"/>
+      <c r="YP59" s="0"/>
+      <c r="YQ59" s="0"/>
+      <c r="YR59" s="0"/>
+      <c r="YS59" s="0"/>
+      <c r="YT59" s="0"/>
+      <c r="YU59" s="0"/>
+      <c r="YV59" s="0"/>
+      <c r="YW59" s="0"/>
+      <c r="YX59" s="0"/>
+      <c r="YY59" s="0"/>
+      <c r="YZ59" s="0"/>
+      <c r="ZA59" s="0"/>
+      <c r="ZB59" s="0"/>
+      <c r="ZC59" s="0"/>
+      <c r="ZD59" s="0"/>
+      <c r="ZE59" s="0"/>
+      <c r="ZF59" s="0"/>
+      <c r="ZG59" s="0"/>
+      <c r="ZH59" s="0"/>
+      <c r="ZI59" s="0"/>
+      <c r="ZJ59" s="0"/>
+      <c r="ZK59" s="0"/>
+      <c r="ZL59" s="0"/>
+      <c r="ZM59" s="0"/>
+      <c r="ZN59" s="0"/>
+      <c r="ZO59" s="0"/>
+      <c r="ZP59" s="0"/>
+      <c r="ZQ59" s="0"/>
+      <c r="ZR59" s="0"/>
+      <c r="ZS59" s="0"/>
+      <c r="ZT59" s="0"/>
+      <c r="ZU59" s="0"/>
+      <c r="ZV59" s="0"/>
+      <c r="ZW59" s="0"/>
+      <c r="ZX59" s="0"/>
+      <c r="ZY59" s="0"/>
+      <c r="ZZ59" s="0"/>
+      <c r="AAA59" s="0"/>
+      <c r="AAB59" s="0"/>
+      <c r="AAC59" s="0"/>
+      <c r="AAD59" s="0"/>
+      <c r="AAE59" s="0"/>
+      <c r="AAF59" s="0"/>
+      <c r="AAG59" s="0"/>
+      <c r="AAH59" s="0"/>
+      <c r="AAI59" s="0"/>
+      <c r="AAJ59" s="0"/>
+      <c r="AAK59" s="0"/>
+      <c r="AAL59" s="0"/>
+      <c r="AAM59" s="0"/>
+      <c r="AAN59" s="0"/>
+      <c r="AAO59" s="0"/>
+      <c r="AAP59" s="0"/>
+      <c r="AAQ59" s="0"/>
+      <c r="AAR59" s="0"/>
+      <c r="AAS59" s="0"/>
+      <c r="AAT59" s="0"/>
+      <c r="AAU59" s="0"/>
+      <c r="AAV59" s="0"/>
+      <c r="AAW59" s="0"/>
+      <c r="AAX59" s="0"/>
+      <c r="AAY59" s="0"/>
+      <c r="AAZ59" s="0"/>
+      <c r="ABA59" s="0"/>
+      <c r="ABB59" s="0"/>
+      <c r="ABC59" s="0"/>
+      <c r="ABD59" s="0"/>
+      <c r="ABE59" s="0"/>
+      <c r="ABF59" s="0"/>
+      <c r="ABG59" s="0"/>
+      <c r="ABH59" s="0"/>
+      <c r="ABI59" s="0"/>
+      <c r="ABJ59" s="0"/>
+      <c r="ABK59" s="0"/>
+      <c r="ABL59" s="0"/>
+      <c r="ABM59" s="0"/>
+      <c r="ABN59" s="0"/>
+      <c r="ABO59" s="0"/>
+      <c r="ABP59" s="0"/>
+      <c r="ABQ59" s="0"/>
+      <c r="ABR59" s="0"/>
+      <c r="ABS59" s="0"/>
+      <c r="ABT59" s="0"/>
+      <c r="ABU59" s="0"/>
+      <c r="ABV59" s="0"/>
+      <c r="ABW59" s="0"/>
+      <c r="ABX59" s="0"/>
+      <c r="ABY59" s="0"/>
+      <c r="ABZ59" s="0"/>
+      <c r="ACA59" s="0"/>
+      <c r="ACB59" s="0"/>
+      <c r="ACC59" s="0"/>
+      <c r="ACD59" s="0"/>
+      <c r="ACE59" s="0"/>
+      <c r="ACF59" s="0"/>
+      <c r="ACG59" s="0"/>
+      <c r="ACH59" s="0"/>
+      <c r="ACI59" s="0"/>
+      <c r="ACJ59" s="0"/>
+      <c r="ACK59" s="0"/>
+      <c r="ACL59" s="0"/>
+      <c r="ACM59" s="0"/>
+      <c r="ACN59" s="0"/>
+      <c r="ACO59" s="0"/>
+      <c r="ACP59" s="0"/>
+      <c r="ACQ59" s="0"/>
+      <c r="ACR59" s="0"/>
+      <c r="ACS59" s="0"/>
+      <c r="ACT59" s="0"/>
+      <c r="ACU59" s="0"/>
+      <c r="ACV59" s="0"/>
+      <c r="ACW59" s="0"/>
+      <c r="ACX59" s="0"/>
+      <c r="ACY59" s="0"/>
+      <c r="ACZ59" s="0"/>
+      <c r="ADA59" s="0"/>
+      <c r="ADB59" s="0"/>
+      <c r="ADC59" s="0"/>
+      <c r="ADD59" s="0"/>
+      <c r="ADE59" s="0"/>
+      <c r="ADF59" s="0"/>
+      <c r="ADG59" s="0"/>
+      <c r="ADH59" s="0"/>
+      <c r="ADI59" s="0"/>
+      <c r="ADJ59" s="0"/>
+      <c r="ADK59" s="0"/>
+      <c r="ADL59" s="0"/>
+      <c r="ADM59" s="0"/>
+      <c r="ADN59" s="0"/>
+      <c r="ADO59" s="0"/>
+      <c r="ADP59" s="0"/>
+      <c r="ADQ59" s="0"/>
+      <c r="ADR59" s="0"/>
+      <c r="ADS59" s="0"/>
+      <c r="ADT59" s="0"/>
+      <c r="ADU59" s="0"/>
+      <c r="ADV59" s="0"/>
+      <c r="ADW59" s="0"/>
+      <c r="ADX59" s="0"/>
+      <c r="ADY59" s="0"/>
+      <c r="ADZ59" s="0"/>
+      <c r="AEA59" s="0"/>
+      <c r="AEB59" s="0"/>
+      <c r="AEC59" s="0"/>
+      <c r="AED59" s="0"/>
+      <c r="AEE59" s="0"/>
+      <c r="AEF59" s="0"/>
+      <c r="AEG59" s="0"/>
+      <c r="AEH59" s="0"/>
+      <c r="AEI59" s="0"/>
+      <c r="AEJ59" s="0"/>
+      <c r="AEK59" s="0"/>
+      <c r="AEL59" s="0"/>
+      <c r="AEM59" s="0"/>
+      <c r="AEN59" s="0"/>
+      <c r="AEO59" s="0"/>
+      <c r="AEP59" s="0"/>
+      <c r="AEQ59" s="0"/>
+      <c r="AER59" s="0"/>
+      <c r="AES59" s="0"/>
+      <c r="AET59" s="0"/>
+      <c r="AEU59" s="0"/>
+      <c r="AEV59" s="0"/>
+      <c r="AEW59" s="0"/>
+      <c r="AEX59" s="0"/>
+      <c r="AEY59" s="0"/>
+      <c r="AEZ59" s="0"/>
+      <c r="AFA59" s="0"/>
+      <c r="AFB59" s="0"/>
+      <c r="AFC59" s="0"/>
+      <c r="AFD59" s="0"/>
+      <c r="AFE59" s="0"/>
+      <c r="AFF59" s="0"/>
+      <c r="AFG59" s="0"/>
+      <c r="AFH59" s="0"/>
+      <c r="AFI59" s="0"/>
+      <c r="AFJ59" s="0"/>
+      <c r="AFK59" s="0"/>
+      <c r="AFL59" s="0"/>
+      <c r="AFM59" s="0"/>
+      <c r="AFN59" s="0"/>
+      <c r="AFO59" s="0"/>
+      <c r="AFP59" s="0"/>
+      <c r="AFQ59" s="0"/>
+      <c r="AFR59" s="0"/>
+      <c r="AFS59" s="0"/>
+      <c r="AFT59" s="0"/>
+      <c r="AFU59" s="0"/>
+      <c r="AFV59" s="0"/>
+      <c r="AFW59" s="0"/>
+      <c r="AFX59" s="0"/>
+      <c r="AFY59" s="0"/>
+      <c r="AFZ59" s="0"/>
+      <c r="AGA59" s="0"/>
+      <c r="AGB59" s="0"/>
+      <c r="AGC59" s="0"/>
+      <c r="AGD59" s="0"/>
+      <c r="AGE59" s="0"/>
+      <c r="AGF59" s="0"/>
+      <c r="AGG59" s="0"/>
+      <c r="AGH59" s="0"/>
+      <c r="AGI59" s="0"/>
+      <c r="AGJ59" s="0"/>
+      <c r="AGK59" s="0"/>
+      <c r="AGL59" s="0"/>
+      <c r="AGM59" s="0"/>
+      <c r="AGN59" s="0"/>
+      <c r="AGO59" s="0"/>
+      <c r="AGP59" s="0"/>
+      <c r="AGQ59" s="0"/>
+      <c r="AGR59" s="0"/>
+      <c r="AGS59" s="0"/>
+      <c r="AGT59" s="0"/>
+      <c r="AGU59" s="0"/>
+      <c r="AGV59" s="0"/>
+      <c r="AGW59" s="0"/>
+      <c r="AGX59" s="0"/>
+      <c r="AGY59" s="0"/>
+      <c r="AGZ59" s="0"/>
+      <c r="AHA59" s="0"/>
+      <c r="AHB59" s="0"/>
+      <c r="AHC59" s="0"/>
+      <c r="AHD59" s="0"/>
+      <c r="AHE59" s="0"/>
+      <c r="AHF59" s="0"/>
+      <c r="AHG59" s="0"/>
+      <c r="AHH59" s="0"/>
+      <c r="AHI59" s="0"/>
+      <c r="AHJ59" s="0"/>
+      <c r="AHK59" s="0"/>
+      <c r="AHL59" s="0"/>
+      <c r="AHM59" s="0"/>
+      <c r="AHN59" s="0"/>
+      <c r="AHO59" s="0"/>
+      <c r="AHP59" s="0"/>
+      <c r="AHQ59" s="0"/>
+      <c r="AHR59" s="0"/>
+      <c r="AHS59" s="0"/>
+      <c r="AHT59" s="0"/>
+      <c r="AHU59" s="0"/>
+      <c r="AHV59" s="0"/>
+      <c r="AHW59" s="0"/>
+      <c r="AHX59" s="0"/>
+      <c r="AHY59" s="0"/>
+      <c r="AHZ59" s="0"/>
+      <c r="AIA59" s="0"/>
+      <c r="AIB59" s="0"/>
+      <c r="AIC59" s="0"/>
+      <c r="AID59" s="0"/>
+      <c r="AIE59" s="0"/>
+      <c r="AIF59" s="0"/>
+      <c r="AIG59" s="0"/>
+      <c r="AIH59" s="0"/>
+      <c r="AII59" s="0"/>
+      <c r="AIJ59" s="0"/>
+      <c r="AIK59" s="0"/>
+      <c r="AIL59" s="0"/>
+      <c r="AIM59" s="0"/>
+      <c r="AIN59" s="0"/>
+      <c r="AIO59" s="0"/>
+      <c r="AIP59" s="0"/>
+      <c r="AIQ59" s="0"/>
+      <c r="AIR59" s="0"/>
+      <c r="AIS59" s="0"/>
+      <c r="AIT59" s="0"/>
+      <c r="AIU59" s="0"/>
+      <c r="AIV59" s="0"/>
+      <c r="AIW59" s="0"/>
+      <c r="AIX59" s="0"/>
+      <c r="AIY59" s="0"/>
+      <c r="AIZ59" s="0"/>
+      <c r="AJA59" s="0"/>
+      <c r="AJB59" s="0"/>
+      <c r="AJC59" s="0"/>
+      <c r="AJD59" s="0"/>
+      <c r="AJE59" s="0"/>
+      <c r="AJF59" s="0"/>
+      <c r="AJG59" s="0"/>
+      <c r="AJH59" s="0"/>
+      <c r="AJI59" s="0"/>
+      <c r="AJJ59" s="0"/>
+      <c r="AJK59" s="0"/>
+      <c r="AJL59" s="0"/>
+      <c r="AJM59" s="0"/>
+      <c r="AJN59" s="0"/>
+      <c r="AJO59" s="0"/>
+      <c r="AJP59" s="0"/>
+      <c r="AJQ59" s="0"/>
+      <c r="AJR59" s="0"/>
+      <c r="AJS59" s="0"/>
+      <c r="AJT59" s="0"/>
+      <c r="AJU59" s="0"/>
+      <c r="AJV59" s="0"/>
+      <c r="AJW59" s="0"/>
+      <c r="AJX59" s="0"/>
+      <c r="AJY59" s="0"/>
+      <c r="AJZ59" s="0"/>
+      <c r="AKA59" s="0"/>
+      <c r="AKB59" s="0"/>
+      <c r="AKC59" s="0"/>
+      <c r="AKD59" s="0"/>
+      <c r="AKE59" s="0"/>
+      <c r="AKF59" s="0"/>
+      <c r="AKG59" s="0"/>
+      <c r="AKH59" s="0"/>
+      <c r="AKI59" s="0"/>
+      <c r="AKJ59" s="0"/>
+      <c r="AKK59" s="0"/>
+      <c r="AKL59" s="0"/>
+      <c r="AKM59" s="0"/>
+      <c r="AKN59" s="0"/>
+      <c r="AKO59" s="0"/>
+      <c r="AKP59" s="0"/>
+      <c r="AKQ59" s="0"/>
+      <c r="AKR59" s="0"/>
+      <c r="AKS59" s="0"/>
+      <c r="AKT59" s="0"/>
+      <c r="AKU59" s="0"/>
+      <c r="AKV59" s="0"/>
+      <c r="AKW59" s="0"/>
+      <c r="AKX59" s="0"/>
+      <c r="AKY59" s="0"/>
+      <c r="AKZ59" s="0"/>
+      <c r="ALA59" s="0"/>
+      <c r="ALB59" s="0"/>
+      <c r="ALC59" s="0"/>
+      <c r="ALD59" s="0"/>
+      <c r="ALE59" s="0"/>
+      <c r="ALF59" s="0"/>
+      <c r="ALG59" s="0"/>
+      <c r="ALH59" s="0"/>
+      <c r="ALI59" s="0"/>
+      <c r="ALJ59" s="0"/>
+      <c r="ALK59" s="0"/>
+      <c r="ALL59" s="0"/>
+      <c r="ALM59" s="0"/>
+      <c r="ALN59" s="0"/>
+      <c r="ALO59" s="0"/>
+      <c r="ALP59" s="0"/>
+      <c r="ALQ59" s="0"/>
+      <c r="ALR59" s="0"/>
+      <c r="ALS59" s="0"/>
+      <c r="ALT59" s="0"/>
+      <c r="ALU59" s="0"/>
+      <c r="ALV59" s="0"/>
+      <c r="ALW59" s="0"/>
+      <c r="ALX59" s="0"/>
+      <c r="ALY59" s="0"/>
+      <c r="ALZ59" s="0"/>
+      <c r="AMA59" s="0"/>
+      <c r="AMB59" s="0"/>
+      <c r="AMC59" s="0"/>
+      <c r="AMD59" s="0"/>
+      <c r="AME59" s="0"/>
+      <c r="AMF59" s="0"/>
+      <c r="AMG59" s="0"/>
+      <c r="AMH59" s="0"/>
+      <c r="AMI59" s="0"/>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="5"/>
+      <c r="B60" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C60" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="C59" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D59" s="9" t="s">
+      <c r="D60" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E60" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E59" s="9" t="s">
+      <c r="F60" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G60" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="H60" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F59" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G59" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="H59" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I59" s="9" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="60" s="10" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="14"/>
-      <c r="B60" s="9" t="s">
+      <c r="I60" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C60" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="D60" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E60" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F60" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="G60" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="H60" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I60" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="AMF60" s="11"/>
-      <c r="AMG60" s="11"/>
-      <c r="AMH60" s="11"/>
-      <c r="AMI60" s="11"/>
-      <c r="AMJ60" s="12"/>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="5"/>
       <c r="B61" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D61" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E61" s="15" t="s">
+      <c r="E61" s="10" t="s">
         <v>11</v>
       </c>
       <c r="F61" s="6" t="s">
@@ -48081,25 +50082,1039 @@
       <c r="G61" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="H61" s="15" t="s">
+      <c r="H61" s="10" t="s">
         <v>12</v>
       </c>
       <c r="I61" s="6" t="s">
         <v>17</v>
       </c>
+      <c r="J61" s="0"/>
+      <c r="K61" s="0"/>
+      <c r="L61" s="0"/>
+      <c r="M61" s="0"/>
+      <c r="N61" s="0"/>
+      <c r="O61" s="0"/>
+      <c r="P61" s="0"/>
+      <c r="Q61" s="0"/>
+      <c r="R61" s="0"/>
+      <c r="S61" s="0"/>
+      <c r="T61" s="0"/>
+      <c r="U61" s="0"/>
+      <c r="V61" s="0"/>
+      <c r="W61" s="0"/>
+      <c r="X61" s="0"/>
+      <c r="Y61" s="0"/>
+      <c r="Z61" s="0"/>
+      <c r="AA61" s="0"/>
+      <c r="AB61" s="0"/>
+      <c r="AC61" s="0"/>
+      <c r="AD61" s="0"/>
+      <c r="AE61" s="0"/>
+      <c r="AF61" s="0"/>
+      <c r="AG61" s="0"/>
+      <c r="AH61" s="0"/>
+      <c r="AI61" s="0"/>
+      <c r="AJ61" s="0"/>
+      <c r="AK61" s="0"/>
+      <c r="AL61" s="0"/>
+      <c r="AM61" s="0"/>
+      <c r="AN61" s="0"/>
+      <c r="AO61" s="0"/>
+      <c r="AP61" s="0"/>
+      <c r="AQ61" s="0"/>
+      <c r="AR61" s="0"/>
+      <c r="AS61" s="0"/>
+      <c r="AT61" s="0"/>
+      <c r="AU61" s="0"/>
+      <c r="AV61" s="0"/>
+      <c r="AW61" s="0"/>
+      <c r="AX61" s="0"/>
+      <c r="AY61" s="0"/>
+      <c r="AZ61" s="0"/>
+      <c r="BA61" s="0"/>
+      <c r="BB61" s="0"/>
+      <c r="BC61" s="0"/>
+      <c r="BD61" s="0"/>
+      <c r="BE61" s="0"/>
+      <c r="BF61" s="0"/>
+      <c r="BG61" s="0"/>
+      <c r="BH61" s="0"/>
+      <c r="BI61" s="0"/>
+      <c r="BJ61" s="0"/>
+      <c r="BK61" s="0"/>
+      <c r="BL61" s="0"/>
+      <c r="BM61" s="0"/>
+      <c r="BN61" s="0"/>
+      <c r="BO61" s="0"/>
+      <c r="BP61" s="0"/>
+      <c r="BQ61" s="0"/>
+      <c r="BR61" s="0"/>
+      <c r="BS61" s="0"/>
+      <c r="BT61" s="0"/>
+      <c r="BU61" s="0"/>
+      <c r="BV61" s="0"/>
+      <c r="BW61" s="0"/>
+      <c r="BX61" s="0"/>
+      <c r="BY61" s="0"/>
+      <c r="BZ61" s="0"/>
+      <c r="CA61" s="0"/>
+      <c r="CB61" s="0"/>
+      <c r="CC61" s="0"/>
+      <c r="CD61" s="0"/>
+      <c r="CE61" s="0"/>
+      <c r="CF61" s="0"/>
+      <c r="CG61" s="0"/>
+      <c r="CH61" s="0"/>
+      <c r="CI61" s="0"/>
+      <c r="CJ61" s="0"/>
+      <c r="CK61" s="0"/>
+      <c r="CL61" s="0"/>
+      <c r="CM61" s="0"/>
+      <c r="CN61" s="0"/>
+      <c r="CO61" s="0"/>
+      <c r="CP61" s="0"/>
+      <c r="CQ61" s="0"/>
+      <c r="CR61" s="0"/>
+      <c r="CS61" s="0"/>
+      <c r="CT61" s="0"/>
+      <c r="CU61" s="0"/>
+      <c r="CV61" s="0"/>
+      <c r="CW61" s="0"/>
+      <c r="CX61" s="0"/>
+      <c r="CY61" s="0"/>
+      <c r="CZ61" s="0"/>
+      <c r="DA61" s="0"/>
+      <c r="DB61" s="0"/>
+      <c r="DC61" s="0"/>
+      <c r="DD61" s="0"/>
+      <c r="DE61" s="0"/>
+      <c r="DF61" s="0"/>
+      <c r="DG61" s="0"/>
+      <c r="DH61" s="0"/>
+      <c r="DI61" s="0"/>
+      <c r="DJ61" s="0"/>
+      <c r="DK61" s="0"/>
+      <c r="DL61" s="0"/>
+      <c r="DM61" s="0"/>
+      <c r="DN61" s="0"/>
+      <c r="DO61" s="0"/>
+      <c r="DP61" s="0"/>
+      <c r="DQ61" s="0"/>
+      <c r="DR61" s="0"/>
+      <c r="DS61" s="0"/>
+      <c r="DT61" s="0"/>
+      <c r="DU61" s="0"/>
+      <c r="DV61" s="0"/>
+      <c r="DW61" s="0"/>
+      <c r="DX61" s="0"/>
+      <c r="DY61" s="0"/>
+      <c r="DZ61" s="0"/>
+      <c r="EA61" s="0"/>
+      <c r="EB61" s="0"/>
+      <c r="EC61" s="0"/>
+      <c r="ED61" s="0"/>
+      <c r="EE61" s="0"/>
+      <c r="EF61" s="0"/>
+      <c r="EG61" s="0"/>
+      <c r="EH61" s="0"/>
+      <c r="EI61" s="0"/>
+      <c r="EJ61" s="0"/>
+      <c r="EK61" s="0"/>
+      <c r="EL61" s="0"/>
+      <c r="EM61" s="0"/>
+      <c r="EN61" s="0"/>
+      <c r="EO61" s="0"/>
+      <c r="EP61" s="0"/>
+      <c r="EQ61" s="0"/>
+      <c r="ER61" s="0"/>
+      <c r="ES61" s="0"/>
+      <c r="ET61" s="0"/>
+      <c r="EU61" s="0"/>
+      <c r="EV61" s="0"/>
+      <c r="EW61" s="0"/>
+      <c r="EX61" s="0"/>
+      <c r="EY61" s="0"/>
+      <c r="EZ61" s="0"/>
+      <c r="FA61" s="0"/>
+      <c r="FB61" s="0"/>
+      <c r="FC61" s="0"/>
+      <c r="FD61" s="0"/>
+      <c r="FE61" s="0"/>
+      <c r="FF61" s="0"/>
+      <c r="FG61" s="0"/>
+      <c r="FH61" s="0"/>
+      <c r="FI61" s="0"/>
+      <c r="FJ61" s="0"/>
+      <c r="FK61" s="0"/>
+      <c r="FL61" s="0"/>
+      <c r="FM61" s="0"/>
+      <c r="FN61" s="0"/>
+      <c r="FO61" s="0"/>
+      <c r="FP61" s="0"/>
+      <c r="FQ61" s="0"/>
+      <c r="FR61" s="0"/>
+      <c r="FS61" s="0"/>
+      <c r="FT61" s="0"/>
+      <c r="FU61" s="0"/>
+      <c r="FV61" s="0"/>
+      <c r="FW61" s="0"/>
+      <c r="FX61" s="0"/>
+      <c r="FY61" s="0"/>
+      <c r="FZ61" s="0"/>
+      <c r="GA61" s="0"/>
+      <c r="GB61" s="0"/>
+      <c r="GC61" s="0"/>
+      <c r="GD61" s="0"/>
+      <c r="GE61" s="0"/>
+      <c r="GF61" s="0"/>
+      <c r="GG61" s="0"/>
+      <c r="GH61" s="0"/>
+      <c r="GI61" s="0"/>
+      <c r="GJ61" s="0"/>
+      <c r="GK61" s="0"/>
+      <c r="GL61" s="0"/>
+      <c r="GM61" s="0"/>
+      <c r="GN61" s="0"/>
+      <c r="GO61" s="0"/>
+      <c r="GP61" s="0"/>
+      <c r="GQ61" s="0"/>
+      <c r="GR61" s="0"/>
+      <c r="GS61" s="0"/>
+      <c r="GT61" s="0"/>
+      <c r="GU61" s="0"/>
+      <c r="GV61" s="0"/>
+      <c r="GW61" s="0"/>
+      <c r="GX61" s="0"/>
+      <c r="GY61" s="0"/>
+      <c r="GZ61" s="0"/>
+      <c r="HA61" s="0"/>
+      <c r="HB61" s="0"/>
+      <c r="HC61" s="0"/>
+      <c r="HD61" s="0"/>
+      <c r="HE61" s="0"/>
+      <c r="HF61" s="0"/>
+      <c r="HG61" s="0"/>
+      <c r="HH61" s="0"/>
+      <c r="HI61" s="0"/>
+      <c r="HJ61" s="0"/>
+      <c r="HK61" s="0"/>
+      <c r="HL61" s="0"/>
+      <c r="HM61" s="0"/>
+      <c r="HN61" s="0"/>
+      <c r="HO61" s="0"/>
+      <c r="HP61" s="0"/>
+      <c r="HQ61" s="0"/>
+      <c r="HR61" s="0"/>
+      <c r="HS61" s="0"/>
+      <c r="HT61" s="0"/>
+      <c r="HU61" s="0"/>
+      <c r="HV61" s="0"/>
+      <c r="HW61" s="0"/>
+      <c r="HX61" s="0"/>
+      <c r="HY61" s="0"/>
+      <c r="HZ61" s="0"/>
+      <c r="IA61" s="0"/>
+      <c r="IB61" s="0"/>
+      <c r="IC61" s="0"/>
+      <c r="ID61" s="0"/>
+      <c r="IE61" s="0"/>
+      <c r="IF61" s="0"/>
+      <c r="IG61" s="0"/>
+      <c r="IH61" s="0"/>
+      <c r="II61" s="0"/>
+      <c r="IJ61" s="0"/>
+      <c r="IK61" s="0"/>
+      <c r="IL61" s="0"/>
+      <c r="IM61" s="0"/>
+      <c r="IN61" s="0"/>
+      <c r="IO61" s="0"/>
+      <c r="IP61" s="0"/>
+      <c r="IQ61" s="0"/>
+      <c r="IR61" s="0"/>
+      <c r="IS61" s="0"/>
+      <c r="IT61" s="0"/>
+      <c r="IU61" s="0"/>
+      <c r="IV61" s="0"/>
+      <c r="IW61" s="0"/>
+      <c r="IX61" s="0"/>
+      <c r="IY61" s="0"/>
+      <c r="IZ61" s="0"/>
+      <c r="JA61" s="0"/>
+      <c r="JB61" s="0"/>
+      <c r="JC61" s="0"/>
+      <c r="JD61" s="0"/>
+      <c r="JE61" s="0"/>
+      <c r="JF61" s="0"/>
+      <c r="JG61" s="0"/>
+      <c r="JH61" s="0"/>
+      <c r="JI61" s="0"/>
+      <c r="JJ61" s="0"/>
+      <c r="JK61" s="0"/>
+      <c r="JL61" s="0"/>
+      <c r="JM61" s="0"/>
+      <c r="JN61" s="0"/>
+      <c r="JO61" s="0"/>
+      <c r="JP61" s="0"/>
+      <c r="JQ61" s="0"/>
+      <c r="JR61" s="0"/>
+      <c r="JS61" s="0"/>
+      <c r="JT61" s="0"/>
+      <c r="JU61" s="0"/>
+      <c r="JV61" s="0"/>
+      <c r="JW61" s="0"/>
+      <c r="JX61" s="0"/>
+      <c r="JY61" s="0"/>
+      <c r="JZ61" s="0"/>
+      <c r="KA61" s="0"/>
+      <c r="KB61" s="0"/>
+      <c r="KC61" s="0"/>
+      <c r="KD61" s="0"/>
+      <c r="KE61" s="0"/>
+      <c r="KF61" s="0"/>
+      <c r="KG61" s="0"/>
+      <c r="KH61" s="0"/>
+      <c r="KI61" s="0"/>
+      <c r="KJ61" s="0"/>
+      <c r="KK61" s="0"/>
+      <c r="KL61" s="0"/>
+      <c r="KM61" s="0"/>
+      <c r="KN61" s="0"/>
+      <c r="KO61" s="0"/>
+      <c r="KP61" s="0"/>
+      <c r="KQ61" s="0"/>
+      <c r="KR61" s="0"/>
+      <c r="KS61" s="0"/>
+      <c r="KT61" s="0"/>
+      <c r="KU61" s="0"/>
+      <c r="KV61" s="0"/>
+      <c r="KW61" s="0"/>
+      <c r="KX61" s="0"/>
+      <c r="KY61" s="0"/>
+      <c r="KZ61" s="0"/>
+      <c r="LA61" s="0"/>
+      <c r="LB61" s="0"/>
+      <c r="LC61" s="0"/>
+      <c r="LD61" s="0"/>
+      <c r="LE61" s="0"/>
+      <c r="LF61" s="0"/>
+      <c r="LG61" s="0"/>
+      <c r="LH61" s="0"/>
+      <c r="LI61" s="0"/>
+      <c r="LJ61" s="0"/>
+      <c r="LK61" s="0"/>
+      <c r="LL61" s="0"/>
+      <c r="LM61" s="0"/>
+      <c r="LN61" s="0"/>
+      <c r="LO61" s="0"/>
+      <c r="LP61" s="0"/>
+      <c r="LQ61" s="0"/>
+      <c r="LR61" s="0"/>
+      <c r="LS61" s="0"/>
+      <c r="LT61" s="0"/>
+      <c r="LU61" s="0"/>
+      <c r="LV61" s="0"/>
+      <c r="LW61" s="0"/>
+      <c r="LX61" s="0"/>
+      <c r="LY61" s="0"/>
+      <c r="LZ61" s="0"/>
+      <c r="MA61" s="0"/>
+      <c r="MB61" s="0"/>
+      <c r="MC61" s="0"/>
+      <c r="MD61" s="0"/>
+      <c r="ME61" s="0"/>
+      <c r="MF61" s="0"/>
+      <c r="MG61" s="0"/>
+      <c r="MH61" s="0"/>
+      <c r="MI61" s="0"/>
+      <c r="MJ61" s="0"/>
+      <c r="MK61" s="0"/>
+      <c r="ML61" s="0"/>
+      <c r="MM61" s="0"/>
+      <c r="MN61" s="0"/>
+      <c r="MO61" s="0"/>
+      <c r="MP61" s="0"/>
+      <c r="MQ61" s="0"/>
+      <c r="MR61" s="0"/>
+      <c r="MS61" s="0"/>
+      <c r="MT61" s="0"/>
+      <c r="MU61" s="0"/>
+      <c r="MV61" s="0"/>
+      <c r="MW61" s="0"/>
+      <c r="MX61" s="0"/>
+      <c r="MY61" s="0"/>
+      <c r="MZ61" s="0"/>
+      <c r="NA61" s="0"/>
+      <c r="NB61" s="0"/>
+      <c r="NC61" s="0"/>
+      <c r="ND61" s="0"/>
+      <c r="NE61" s="0"/>
+      <c r="NF61" s="0"/>
+      <c r="NG61" s="0"/>
+      <c r="NH61" s="0"/>
+      <c r="NI61" s="0"/>
+      <c r="NJ61" s="0"/>
+      <c r="NK61" s="0"/>
+      <c r="NL61" s="0"/>
+      <c r="NM61" s="0"/>
+      <c r="NN61" s="0"/>
+      <c r="NO61" s="0"/>
+      <c r="NP61" s="0"/>
+      <c r="NQ61" s="0"/>
+      <c r="NR61" s="0"/>
+      <c r="NS61" s="0"/>
+      <c r="NT61" s="0"/>
+      <c r="NU61" s="0"/>
+      <c r="NV61" s="0"/>
+      <c r="NW61" s="0"/>
+      <c r="NX61" s="0"/>
+      <c r="NY61" s="0"/>
+      <c r="NZ61" s="0"/>
+      <c r="OA61" s="0"/>
+      <c r="OB61" s="0"/>
+      <c r="OC61" s="0"/>
+      <c r="OD61" s="0"/>
+      <c r="OE61" s="0"/>
+      <c r="OF61" s="0"/>
+      <c r="OG61" s="0"/>
+      <c r="OH61" s="0"/>
+      <c r="OI61" s="0"/>
+      <c r="OJ61" s="0"/>
+      <c r="OK61" s="0"/>
+      <c r="OL61" s="0"/>
+      <c r="OM61" s="0"/>
+      <c r="ON61" s="0"/>
+      <c r="OO61" s="0"/>
+      <c r="OP61" s="0"/>
+      <c r="OQ61" s="0"/>
+      <c r="OR61" s="0"/>
+      <c r="OS61" s="0"/>
+      <c r="OT61" s="0"/>
+      <c r="OU61" s="0"/>
+      <c r="OV61" s="0"/>
+      <c r="OW61" s="0"/>
+      <c r="OX61" s="0"/>
+      <c r="OY61" s="0"/>
+      <c r="OZ61" s="0"/>
+      <c r="PA61" s="0"/>
+      <c r="PB61" s="0"/>
+      <c r="PC61" s="0"/>
+      <c r="PD61" s="0"/>
+      <c r="PE61" s="0"/>
+      <c r="PF61" s="0"/>
+      <c r="PG61" s="0"/>
+      <c r="PH61" s="0"/>
+      <c r="PI61" s="0"/>
+      <c r="PJ61" s="0"/>
+      <c r="PK61" s="0"/>
+      <c r="PL61" s="0"/>
+      <c r="PM61" s="0"/>
+      <c r="PN61" s="0"/>
+      <c r="PO61" s="0"/>
+      <c r="PP61" s="0"/>
+      <c r="PQ61" s="0"/>
+      <c r="PR61" s="0"/>
+      <c r="PS61" s="0"/>
+      <c r="PT61" s="0"/>
+      <c r="PU61" s="0"/>
+      <c r="PV61" s="0"/>
+      <c r="PW61" s="0"/>
+      <c r="PX61" s="0"/>
+      <c r="PY61" s="0"/>
+      <c r="PZ61" s="0"/>
+      <c r="QA61" s="0"/>
+      <c r="QB61" s="0"/>
+      <c r="QC61" s="0"/>
+      <c r="QD61" s="0"/>
+      <c r="QE61" s="0"/>
+      <c r="QF61" s="0"/>
+      <c r="QG61" s="0"/>
+      <c r="QH61" s="0"/>
+      <c r="QI61" s="0"/>
+      <c r="QJ61" s="0"/>
+      <c r="QK61" s="0"/>
+      <c r="QL61" s="0"/>
+      <c r="QM61" s="0"/>
+      <c r="QN61" s="0"/>
+      <c r="QO61" s="0"/>
+      <c r="QP61" s="0"/>
+      <c r="QQ61" s="0"/>
+      <c r="QR61" s="0"/>
+      <c r="QS61" s="0"/>
+      <c r="QT61" s="0"/>
+      <c r="QU61" s="0"/>
+      <c r="QV61" s="0"/>
+      <c r="QW61" s="0"/>
+      <c r="QX61" s="0"/>
+      <c r="QY61" s="0"/>
+      <c r="QZ61" s="0"/>
+      <c r="RA61" s="0"/>
+      <c r="RB61" s="0"/>
+      <c r="RC61" s="0"/>
+      <c r="RD61" s="0"/>
+      <c r="RE61" s="0"/>
+      <c r="RF61" s="0"/>
+      <c r="RG61" s="0"/>
+      <c r="RH61" s="0"/>
+      <c r="RI61" s="0"/>
+      <c r="RJ61" s="0"/>
+      <c r="RK61" s="0"/>
+      <c r="RL61" s="0"/>
+      <c r="RM61" s="0"/>
+      <c r="RN61" s="0"/>
+      <c r="RO61" s="0"/>
+      <c r="RP61" s="0"/>
+      <c r="RQ61" s="0"/>
+      <c r="RR61" s="0"/>
+      <c r="RS61" s="0"/>
+      <c r="RT61" s="0"/>
+      <c r="RU61" s="0"/>
+      <c r="RV61" s="0"/>
+      <c r="RW61" s="0"/>
+      <c r="RX61" s="0"/>
+      <c r="RY61" s="0"/>
+      <c r="RZ61" s="0"/>
+      <c r="SA61" s="0"/>
+      <c r="SB61" s="0"/>
+      <c r="SC61" s="0"/>
+      <c r="SD61" s="0"/>
+      <c r="SE61" s="0"/>
+      <c r="SF61" s="0"/>
+      <c r="SG61" s="0"/>
+      <c r="SH61" s="0"/>
+      <c r="SI61" s="0"/>
+      <c r="SJ61" s="0"/>
+      <c r="SK61" s="0"/>
+      <c r="SL61" s="0"/>
+      <c r="SM61" s="0"/>
+      <c r="SN61" s="0"/>
+      <c r="SO61" s="0"/>
+      <c r="SP61" s="0"/>
+      <c r="SQ61" s="0"/>
+      <c r="SR61" s="0"/>
+      <c r="SS61" s="0"/>
+      <c r="ST61" s="0"/>
+      <c r="SU61" s="0"/>
+      <c r="SV61" s="0"/>
+      <c r="SW61" s="0"/>
+      <c r="SX61" s="0"/>
+      <c r="SY61" s="0"/>
+      <c r="SZ61" s="0"/>
+      <c r="TA61" s="0"/>
+      <c r="TB61" s="0"/>
+      <c r="TC61" s="0"/>
+      <c r="TD61" s="0"/>
+      <c r="TE61" s="0"/>
+      <c r="TF61" s="0"/>
+      <c r="TG61" s="0"/>
+      <c r="TH61" s="0"/>
+      <c r="TI61" s="0"/>
+      <c r="TJ61" s="0"/>
+      <c r="TK61" s="0"/>
+      <c r="TL61" s="0"/>
+      <c r="TM61" s="0"/>
+      <c r="TN61" s="0"/>
+      <c r="TO61" s="0"/>
+      <c r="TP61" s="0"/>
+      <c r="TQ61" s="0"/>
+      <c r="TR61" s="0"/>
+      <c r="TS61" s="0"/>
+      <c r="TT61" s="0"/>
+      <c r="TU61" s="0"/>
+      <c r="TV61" s="0"/>
+      <c r="TW61" s="0"/>
+      <c r="TX61" s="0"/>
+      <c r="TY61" s="0"/>
+      <c r="TZ61" s="0"/>
+      <c r="UA61" s="0"/>
+      <c r="UB61" s="0"/>
+      <c r="UC61" s="0"/>
+      <c r="UD61" s="0"/>
+      <c r="UE61" s="0"/>
+      <c r="UF61" s="0"/>
+      <c r="UG61" s="0"/>
+      <c r="UH61" s="0"/>
+      <c r="UI61" s="0"/>
+      <c r="UJ61" s="0"/>
+      <c r="UK61" s="0"/>
+      <c r="UL61" s="0"/>
+      <c r="UM61" s="0"/>
+      <c r="UN61" s="0"/>
+      <c r="UO61" s="0"/>
+      <c r="UP61" s="0"/>
+      <c r="UQ61" s="0"/>
+      <c r="UR61" s="0"/>
+      <c r="US61" s="0"/>
+      <c r="UT61" s="0"/>
+      <c r="UU61" s="0"/>
+      <c r="UV61" s="0"/>
+      <c r="UW61" s="0"/>
+      <c r="UX61" s="0"/>
+      <c r="UY61" s="0"/>
+      <c r="UZ61" s="0"/>
+      <c r="VA61" s="0"/>
+      <c r="VB61" s="0"/>
+      <c r="VC61" s="0"/>
+      <c r="VD61" s="0"/>
+      <c r="VE61" s="0"/>
+      <c r="VF61" s="0"/>
+      <c r="VG61" s="0"/>
+      <c r="VH61" s="0"/>
+      <c r="VI61" s="0"/>
+      <c r="VJ61" s="0"/>
+      <c r="VK61" s="0"/>
+      <c r="VL61" s="0"/>
+      <c r="VM61" s="0"/>
+      <c r="VN61" s="0"/>
+      <c r="VO61" s="0"/>
+      <c r="VP61" s="0"/>
+      <c r="VQ61" s="0"/>
+      <c r="VR61" s="0"/>
+      <c r="VS61" s="0"/>
+      <c r="VT61" s="0"/>
+      <c r="VU61" s="0"/>
+      <c r="VV61" s="0"/>
+      <c r="VW61" s="0"/>
+      <c r="VX61" s="0"/>
+      <c r="VY61" s="0"/>
+      <c r="VZ61" s="0"/>
+      <c r="WA61" s="0"/>
+      <c r="WB61" s="0"/>
+      <c r="WC61" s="0"/>
+      <c r="WD61" s="0"/>
+      <c r="WE61" s="0"/>
+      <c r="WF61" s="0"/>
+      <c r="WG61" s="0"/>
+      <c r="WH61" s="0"/>
+      <c r="WI61" s="0"/>
+      <c r="WJ61" s="0"/>
+      <c r="WK61" s="0"/>
+      <c r="WL61" s="0"/>
+      <c r="WM61" s="0"/>
+      <c r="WN61" s="0"/>
+      <c r="WO61" s="0"/>
+      <c r="WP61" s="0"/>
+      <c r="WQ61" s="0"/>
+      <c r="WR61" s="0"/>
+      <c r="WS61" s="0"/>
+      <c r="WT61" s="0"/>
+      <c r="WU61" s="0"/>
+      <c r="WV61" s="0"/>
+      <c r="WW61" s="0"/>
+      <c r="WX61" s="0"/>
+      <c r="WY61" s="0"/>
+      <c r="WZ61" s="0"/>
+      <c r="XA61" s="0"/>
+      <c r="XB61" s="0"/>
+      <c r="XC61" s="0"/>
+      <c r="XD61" s="0"/>
+      <c r="XE61" s="0"/>
+      <c r="XF61" s="0"/>
+      <c r="XG61" s="0"/>
+      <c r="XH61" s="0"/>
+      <c r="XI61" s="0"/>
+      <c r="XJ61" s="0"/>
+      <c r="XK61" s="0"/>
+      <c r="XL61" s="0"/>
+      <c r="XM61" s="0"/>
+      <c r="XN61" s="0"/>
+      <c r="XO61" s="0"/>
+      <c r="XP61" s="0"/>
+      <c r="XQ61" s="0"/>
+      <c r="XR61" s="0"/>
+      <c r="XS61" s="0"/>
+      <c r="XT61" s="0"/>
+      <c r="XU61" s="0"/>
+      <c r="XV61" s="0"/>
+      <c r="XW61" s="0"/>
+      <c r="XX61" s="0"/>
+      <c r="XY61" s="0"/>
+      <c r="XZ61" s="0"/>
+      <c r="YA61" s="0"/>
+      <c r="YB61" s="0"/>
+      <c r="YC61" s="0"/>
+      <c r="YD61" s="0"/>
+      <c r="YE61" s="0"/>
+      <c r="YF61" s="0"/>
+      <c r="YG61" s="0"/>
+      <c r="YH61" s="0"/>
+      <c r="YI61" s="0"/>
+      <c r="YJ61" s="0"/>
+      <c r="YK61" s="0"/>
+      <c r="YL61" s="0"/>
+      <c r="YM61" s="0"/>
+      <c r="YN61" s="0"/>
+      <c r="YO61" s="0"/>
+      <c r="YP61" s="0"/>
+      <c r="YQ61" s="0"/>
+      <c r="YR61" s="0"/>
+      <c r="YS61" s="0"/>
+      <c r="YT61" s="0"/>
+      <c r="YU61" s="0"/>
+      <c r="YV61" s="0"/>
+      <c r="YW61" s="0"/>
+      <c r="YX61" s="0"/>
+      <c r="YY61" s="0"/>
+      <c r="YZ61" s="0"/>
+      <c r="ZA61" s="0"/>
+      <c r="ZB61" s="0"/>
+      <c r="ZC61" s="0"/>
+      <c r="ZD61" s="0"/>
+      <c r="ZE61" s="0"/>
+      <c r="ZF61" s="0"/>
+      <c r="ZG61" s="0"/>
+      <c r="ZH61" s="0"/>
+      <c r="ZI61" s="0"/>
+      <c r="ZJ61" s="0"/>
+      <c r="ZK61" s="0"/>
+      <c r="ZL61" s="0"/>
+      <c r="ZM61" s="0"/>
+      <c r="ZN61" s="0"/>
+      <c r="ZO61" s="0"/>
+      <c r="ZP61" s="0"/>
+      <c r="ZQ61" s="0"/>
+      <c r="ZR61" s="0"/>
+      <c r="ZS61" s="0"/>
+      <c r="ZT61" s="0"/>
+      <c r="ZU61" s="0"/>
+      <c r="ZV61" s="0"/>
+      <c r="ZW61" s="0"/>
+      <c r="ZX61" s="0"/>
+      <c r="ZY61" s="0"/>
+      <c r="ZZ61" s="0"/>
+      <c r="AAA61" s="0"/>
+      <c r="AAB61" s="0"/>
+      <c r="AAC61" s="0"/>
+      <c r="AAD61" s="0"/>
+      <c r="AAE61" s="0"/>
+      <c r="AAF61" s="0"/>
+      <c r="AAG61" s="0"/>
+      <c r="AAH61" s="0"/>
+      <c r="AAI61" s="0"/>
+      <c r="AAJ61" s="0"/>
+      <c r="AAK61" s="0"/>
+      <c r="AAL61" s="0"/>
+      <c r="AAM61" s="0"/>
+      <c r="AAN61" s="0"/>
+      <c r="AAO61" s="0"/>
+      <c r="AAP61" s="0"/>
+      <c r="AAQ61" s="0"/>
+      <c r="AAR61" s="0"/>
+      <c r="AAS61" s="0"/>
+      <c r="AAT61" s="0"/>
+      <c r="AAU61" s="0"/>
+      <c r="AAV61" s="0"/>
+      <c r="AAW61" s="0"/>
+      <c r="AAX61" s="0"/>
+      <c r="AAY61" s="0"/>
+      <c r="AAZ61" s="0"/>
+      <c r="ABA61" s="0"/>
+      <c r="ABB61" s="0"/>
+      <c r="ABC61" s="0"/>
+      <c r="ABD61" s="0"/>
+      <c r="ABE61" s="0"/>
+      <c r="ABF61" s="0"/>
+      <c r="ABG61" s="0"/>
+      <c r="ABH61" s="0"/>
+      <c r="ABI61" s="0"/>
+      <c r="ABJ61" s="0"/>
+      <c r="ABK61" s="0"/>
+      <c r="ABL61" s="0"/>
+      <c r="ABM61" s="0"/>
+      <c r="ABN61" s="0"/>
+      <c r="ABO61" s="0"/>
+      <c r="ABP61" s="0"/>
+      <c r="ABQ61" s="0"/>
+      <c r="ABR61" s="0"/>
+      <c r="ABS61" s="0"/>
+      <c r="ABT61" s="0"/>
+      <c r="ABU61" s="0"/>
+      <c r="ABV61" s="0"/>
+      <c r="ABW61" s="0"/>
+      <c r="ABX61" s="0"/>
+      <c r="ABY61" s="0"/>
+      <c r="ABZ61" s="0"/>
+      <c r="ACA61" s="0"/>
+      <c r="ACB61" s="0"/>
+      <c r="ACC61" s="0"/>
+      <c r="ACD61" s="0"/>
+      <c r="ACE61" s="0"/>
+      <c r="ACF61" s="0"/>
+      <c r="ACG61" s="0"/>
+      <c r="ACH61" s="0"/>
+      <c r="ACI61" s="0"/>
+      <c r="ACJ61" s="0"/>
+      <c r="ACK61" s="0"/>
+      <c r="ACL61" s="0"/>
+      <c r="ACM61" s="0"/>
+      <c r="ACN61" s="0"/>
+      <c r="ACO61" s="0"/>
+      <c r="ACP61" s="0"/>
+      <c r="ACQ61" s="0"/>
+      <c r="ACR61" s="0"/>
+      <c r="ACS61" s="0"/>
+      <c r="ACT61" s="0"/>
+      <c r="ACU61" s="0"/>
+      <c r="ACV61" s="0"/>
+      <c r="ACW61" s="0"/>
+      <c r="ACX61" s="0"/>
+      <c r="ACY61" s="0"/>
+      <c r="ACZ61" s="0"/>
+      <c r="ADA61" s="0"/>
+      <c r="ADB61" s="0"/>
+      <c r="ADC61" s="0"/>
+      <c r="ADD61" s="0"/>
+      <c r="ADE61" s="0"/>
+      <c r="ADF61" s="0"/>
+      <c r="ADG61" s="0"/>
+      <c r="ADH61" s="0"/>
+      <c r="ADI61" s="0"/>
+      <c r="ADJ61" s="0"/>
+      <c r="ADK61" s="0"/>
+      <c r="ADL61" s="0"/>
+      <c r="ADM61" s="0"/>
+      <c r="ADN61" s="0"/>
+      <c r="ADO61" s="0"/>
+      <c r="ADP61" s="0"/>
+      <c r="ADQ61" s="0"/>
+      <c r="ADR61" s="0"/>
+      <c r="ADS61" s="0"/>
+      <c r="ADT61" s="0"/>
+      <c r="ADU61" s="0"/>
+      <c r="ADV61" s="0"/>
+      <c r="ADW61" s="0"/>
+      <c r="ADX61" s="0"/>
+      <c r="ADY61" s="0"/>
+      <c r="ADZ61" s="0"/>
+      <c r="AEA61" s="0"/>
+      <c r="AEB61" s="0"/>
+      <c r="AEC61" s="0"/>
+      <c r="AED61" s="0"/>
+      <c r="AEE61" s="0"/>
+      <c r="AEF61" s="0"/>
+      <c r="AEG61" s="0"/>
+      <c r="AEH61" s="0"/>
+      <c r="AEI61" s="0"/>
+      <c r="AEJ61" s="0"/>
+      <c r="AEK61" s="0"/>
+      <c r="AEL61" s="0"/>
+      <c r="AEM61" s="0"/>
+      <c r="AEN61" s="0"/>
+      <c r="AEO61" s="0"/>
+      <c r="AEP61" s="0"/>
+      <c r="AEQ61" s="0"/>
+      <c r="AER61" s="0"/>
+      <c r="AES61" s="0"/>
+      <c r="AET61" s="0"/>
+      <c r="AEU61" s="0"/>
+      <c r="AEV61" s="0"/>
+      <c r="AEW61" s="0"/>
+      <c r="AEX61" s="0"/>
+      <c r="AEY61" s="0"/>
+      <c r="AEZ61" s="0"/>
+      <c r="AFA61" s="0"/>
+      <c r="AFB61" s="0"/>
+      <c r="AFC61" s="0"/>
+      <c r="AFD61" s="0"/>
+      <c r="AFE61" s="0"/>
+      <c r="AFF61" s="0"/>
+      <c r="AFG61" s="0"/>
+      <c r="AFH61" s="0"/>
+      <c r="AFI61" s="0"/>
+      <c r="AFJ61" s="0"/>
+      <c r="AFK61" s="0"/>
+      <c r="AFL61" s="0"/>
+      <c r="AFM61" s="0"/>
+      <c r="AFN61" s="0"/>
+      <c r="AFO61" s="0"/>
+      <c r="AFP61" s="0"/>
+      <c r="AFQ61" s="0"/>
+      <c r="AFR61" s="0"/>
+      <c r="AFS61" s="0"/>
+      <c r="AFT61" s="0"/>
+      <c r="AFU61" s="0"/>
+      <c r="AFV61" s="0"/>
+      <c r="AFW61" s="0"/>
+      <c r="AFX61" s="0"/>
+      <c r="AFY61" s="0"/>
+      <c r="AFZ61" s="0"/>
+      <c r="AGA61" s="0"/>
+      <c r="AGB61" s="0"/>
+      <c r="AGC61" s="0"/>
+      <c r="AGD61" s="0"/>
+      <c r="AGE61" s="0"/>
+      <c r="AGF61" s="0"/>
+      <c r="AGG61" s="0"/>
+      <c r="AGH61" s="0"/>
+      <c r="AGI61" s="0"/>
+      <c r="AGJ61" s="0"/>
+      <c r="AGK61" s="0"/>
+      <c r="AGL61" s="0"/>
+      <c r="AGM61" s="0"/>
+      <c r="AGN61" s="0"/>
+      <c r="AGO61" s="0"/>
+      <c r="AGP61" s="0"/>
+      <c r="AGQ61" s="0"/>
+      <c r="AGR61" s="0"/>
+      <c r="AGS61" s="0"/>
+      <c r="AGT61" s="0"/>
+      <c r="AGU61" s="0"/>
+      <c r="AGV61" s="0"/>
+      <c r="AGW61" s="0"/>
+      <c r="AGX61" s="0"/>
+      <c r="AGY61" s="0"/>
+      <c r="AGZ61" s="0"/>
+      <c r="AHA61" s="0"/>
+      <c r="AHB61" s="0"/>
+      <c r="AHC61" s="0"/>
+      <c r="AHD61" s="0"/>
+      <c r="AHE61" s="0"/>
+      <c r="AHF61" s="0"/>
+      <c r="AHG61" s="0"/>
+      <c r="AHH61" s="0"/>
+      <c r="AHI61" s="0"/>
+      <c r="AHJ61" s="0"/>
+      <c r="AHK61" s="0"/>
+      <c r="AHL61" s="0"/>
+      <c r="AHM61" s="0"/>
+      <c r="AHN61" s="0"/>
+      <c r="AHO61" s="0"/>
+      <c r="AHP61" s="0"/>
+      <c r="AHQ61" s="0"/>
+      <c r="AHR61" s="0"/>
+      <c r="AHS61" s="0"/>
+      <c r="AHT61" s="0"/>
+      <c r="AHU61" s="0"/>
+      <c r="AHV61" s="0"/>
+      <c r="AHW61" s="0"/>
+      <c r="AHX61" s="0"/>
+      <c r="AHY61" s="0"/>
+      <c r="AHZ61" s="0"/>
+      <c r="AIA61" s="0"/>
+      <c r="AIB61" s="0"/>
+      <c r="AIC61" s="0"/>
+      <c r="AID61" s="0"/>
+      <c r="AIE61" s="0"/>
+      <c r="AIF61" s="0"/>
+      <c r="AIG61" s="0"/>
+      <c r="AIH61" s="0"/>
+      <c r="AII61" s="0"/>
+      <c r="AIJ61" s="0"/>
+      <c r="AIK61" s="0"/>
+      <c r="AIL61" s="0"/>
+      <c r="AIM61" s="0"/>
+      <c r="AIN61" s="0"/>
+      <c r="AIO61" s="0"/>
+      <c r="AIP61" s="0"/>
+      <c r="AIQ61" s="0"/>
+      <c r="AIR61" s="0"/>
+      <c r="AIS61" s="0"/>
+      <c r="AIT61" s="0"/>
+      <c r="AIU61" s="0"/>
+      <c r="AIV61" s="0"/>
+      <c r="AIW61" s="0"/>
+      <c r="AIX61" s="0"/>
+      <c r="AIY61" s="0"/>
+      <c r="AIZ61" s="0"/>
+      <c r="AJA61" s="0"/>
+      <c r="AJB61" s="0"/>
+      <c r="AJC61" s="0"/>
+      <c r="AJD61" s="0"/>
+      <c r="AJE61" s="0"/>
+      <c r="AJF61" s="0"/>
+      <c r="AJG61" s="0"/>
+      <c r="AJH61" s="0"/>
+      <c r="AJI61" s="0"/>
+      <c r="AJJ61" s="0"/>
+      <c r="AJK61" s="0"/>
+      <c r="AJL61" s="0"/>
+      <c r="AJM61" s="0"/>
+      <c r="AJN61" s="0"/>
+      <c r="AJO61" s="0"/>
+      <c r="AJP61" s="0"/>
+      <c r="AJQ61" s="0"/>
+      <c r="AJR61" s="0"/>
+      <c r="AJS61" s="0"/>
+      <c r="AJT61" s="0"/>
+      <c r="AJU61" s="0"/>
+      <c r="AJV61" s="0"/>
+      <c r="AJW61" s="0"/>
+      <c r="AJX61" s="0"/>
+      <c r="AJY61" s="0"/>
+      <c r="AJZ61" s="0"/>
+      <c r="AKA61" s="0"/>
+      <c r="AKB61" s="0"/>
+      <c r="AKC61" s="0"/>
+      <c r="AKD61" s="0"/>
+      <c r="AKE61" s="0"/>
+      <c r="AKF61" s="0"/>
+      <c r="AKG61" s="0"/>
+      <c r="AKH61" s="0"/>
+      <c r="AKI61" s="0"/>
+      <c r="AKJ61" s="0"/>
+      <c r="AKK61" s="0"/>
+      <c r="AKL61" s="0"/>
+      <c r="AKM61" s="0"/>
+      <c r="AKN61" s="0"/>
+      <c r="AKO61" s="0"/>
+      <c r="AKP61" s="0"/>
+      <c r="AKQ61" s="0"/>
+      <c r="AKR61" s="0"/>
+      <c r="AKS61" s="0"/>
+      <c r="AKT61" s="0"/>
+      <c r="AKU61" s="0"/>
+      <c r="AKV61" s="0"/>
+      <c r="AKW61" s="0"/>
+      <c r="AKX61" s="0"/>
+      <c r="AKY61" s="0"/>
+      <c r="AKZ61" s="0"/>
+      <c r="ALA61" s="0"/>
+      <c r="ALB61" s="0"/>
+      <c r="ALC61" s="0"/>
+      <c r="ALD61" s="0"/>
+      <c r="ALE61" s="0"/>
+      <c r="ALF61" s="0"/>
+      <c r="ALG61" s="0"/>
+      <c r="ALH61" s="0"/>
+      <c r="ALI61" s="0"/>
+      <c r="ALJ61" s="0"/>
+      <c r="ALK61" s="0"/>
+      <c r="ALL61" s="0"/>
+      <c r="ALM61" s="0"/>
+      <c r="ALN61" s="0"/>
+      <c r="ALO61" s="0"/>
+      <c r="ALP61" s="0"/>
+      <c r="ALQ61" s="0"/>
+      <c r="ALR61" s="0"/>
+      <c r="ALS61" s="0"/>
+      <c r="ALT61" s="0"/>
+      <c r="ALU61" s="0"/>
+      <c r="ALV61" s="0"/>
+      <c r="ALW61" s="0"/>
+      <c r="ALX61" s="0"/>
+      <c r="ALY61" s="0"/>
+      <c r="ALZ61" s="0"/>
+      <c r="AMA61" s="0"/>
+      <c r="AMB61" s="0"/>
+      <c r="AMC61" s="0"/>
+      <c r="AMD61" s="0"/>
+      <c r="AME61" s="0"/>
+      <c r="AMF61" s="0"/>
+      <c r="AMG61" s="0"/>
+      <c r="AMH61" s="0"/>
+      <c r="AMI61" s="0"/>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="5"/>
       <c r="B62" s="6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D62" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E62" s="15" t="s">
+      <c r="E62" s="10" t="s">
         <v>11</v>
       </c>
       <c r="F62" s="6" t="s">
@@ -48108,25 +51123,1039 @@
       <c r="G62" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H62" s="15" t="s">
+      <c r="H62" s="10" t="s">
         <v>12</v>
       </c>
       <c r="I62" s="6" t="s">
         <v>20</v>
       </c>
+      <c r="J62" s="0"/>
+      <c r="K62" s="0"/>
+      <c r="L62" s="0"/>
+      <c r="M62" s="0"/>
+      <c r="N62" s="0"/>
+      <c r="O62" s="0"/>
+      <c r="P62" s="0"/>
+      <c r="Q62" s="0"/>
+      <c r="R62" s="0"/>
+      <c r="S62" s="0"/>
+      <c r="T62" s="0"/>
+      <c r="U62" s="0"/>
+      <c r="V62" s="0"/>
+      <c r="W62" s="0"/>
+      <c r="X62" s="0"/>
+      <c r="Y62" s="0"/>
+      <c r="Z62" s="0"/>
+      <c r="AA62" s="0"/>
+      <c r="AB62" s="0"/>
+      <c r="AC62" s="0"/>
+      <c r="AD62" s="0"/>
+      <c r="AE62" s="0"/>
+      <c r="AF62" s="0"/>
+      <c r="AG62" s="0"/>
+      <c r="AH62" s="0"/>
+      <c r="AI62" s="0"/>
+      <c r="AJ62" s="0"/>
+      <c r="AK62" s="0"/>
+      <c r="AL62" s="0"/>
+      <c r="AM62" s="0"/>
+      <c r="AN62" s="0"/>
+      <c r="AO62" s="0"/>
+      <c r="AP62" s="0"/>
+      <c r="AQ62" s="0"/>
+      <c r="AR62" s="0"/>
+      <c r="AS62" s="0"/>
+      <c r="AT62" s="0"/>
+      <c r="AU62" s="0"/>
+      <c r="AV62" s="0"/>
+      <c r="AW62" s="0"/>
+      <c r="AX62" s="0"/>
+      <c r="AY62" s="0"/>
+      <c r="AZ62" s="0"/>
+      <c r="BA62" s="0"/>
+      <c r="BB62" s="0"/>
+      <c r="BC62" s="0"/>
+      <c r="BD62" s="0"/>
+      <c r="BE62" s="0"/>
+      <c r="BF62" s="0"/>
+      <c r="BG62" s="0"/>
+      <c r="BH62" s="0"/>
+      <c r="BI62" s="0"/>
+      <c r="BJ62" s="0"/>
+      <c r="BK62" s="0"/>
+      <c r="BL62" s="0"/>
+      <c r="BM62" s="0"/>
+      <c r="BN62" s="0"/>
+      <c r="BO62" s="0"/>
+      <c r="BP62" s="0"/>
+      <c r="BQ62" s="0"/>
+      <c r="BR62" s="0"/>
+      <c r="BS62" s="0"/>
+      <c r="BT62" s="0"/>
+      <c r="BU62" s="0"/>
+      <c r="BV62" s="0"/>
+      <c r="BW62" s="0"/>
+      <c r="BX62" s="0"/>
+      <c r="BY62" s="0"/>
+      <c r="BZ62" s="0"/>
+      <c r="CA62" s="0"/>
+      <c r="CB62" s="0"/>
+      <c r="CC62" s="0"/>
+      <c r="CD62" s="0"/>
+      <c r="CE62" s="0"/>
+      <c r="CF62" s="0"/>
+      <c r="CG62" s="0"/>
+      <c r="CH62" s="0"/>
+      <c r="CI62" s="0"/>
+      <c r="CJ62" s="0"/>
+      <c r="CK62" s="0"/>
+      <c r="CL62" s="0"/>
+      <c r="CM62" s="0"/>
+      <c r="CN62" s="0"/>
+      <c r="CO62" s="0"/>
+      <c r="CP62" s="0"/>
+      <c r="CQ62" s="0"/>
+      <c r="CR62" s="0"/>
+      <c r="CS62" s="0"/>
+      <c r="CT62" s="0"/>
+      <c r="CU62" s="0"/>
+      <c r="CV62" s="0"/>
+      <c r="CW62" s="0"/>
+      <c r="CX62" s="0"/>
+      <c r="CY62" s="0"/>
+      <c r="CZ62" s="0"/>
+      <c r="DA62" s="0"/>
+      <c r="DB62" s="0"/>
+      <c r="DC62" s="0"/>
+      <c r="DD62" s="0"/>
+      <c r="DE62" s="0"/>
+      <c r="DF62" s="0"/>
+      <c r="DG62" s="0"/>
+      <c r="DH62" s="0"/>
+      <c r="DI62" s="0"/>
+      <c r="DJ62" s="0"/>
+      <c r="DK62" s="0"/>
+      <c r="DL62" s="0"/>
+      <c r="DM62" s="0"/>
+      <c r="DN62" s="0"/>
+      <c r="DO62" s="0"/>
+      <c r="DP62" s="0"/>
+      <c r="DQ62" s="0"/>
+      <c r="DR62" s="0"/>
+      <c r="DS62" s="0"/>
+      <c r="DT62" s="0"/>
+      <c r="DU62" s="0"/>
+      <c r="DV62" s="0"/>
+      <c r="DW62" s="0"/>
+      <c r="DX62" s="0"/>
+      <c r="DY62" s="0"/>
+      <c r="DZ62" s="0"/>
+      <c r="EA62" s="0"/>
+      <c r="EB62" s="0"/>
+      <c r="EC62" s="0"/>
+      <c r="ED62" s="0"/>
+      <c r="EE62" s="0"/>
+      <c r="EF62" s="0"/>
+      <c r="EG62" s="0"/>
+      <c r="EH62" s="0"/>
+      <c r="EI62" s="0"/>
+      <c r="EJ62" s="0"/>
+      <c r="EK62" s="0"/>
+      <c r="EL62" s="0"/>
+      <c r="EM62" s="0"/>
+      <c r="EN62" s="0"/>
+      <c r="EO62" s="0"/>
+      <c r="EP62" s="0"/>
+      <c r="EQ62" s="0"/>
+      <c r="ER62" s="0"/>
+      <c r="ES62" s="0"/>
+      <c r="ET62" s="0"/>
+      <c r="EU62" s="0"/>
+      <c r="EV62" s="0"/>
+      <c r="EW62" s="0"/>
+      <c r="EX62" s="0"/>
+      <c r="EY62" s="0"/>
+      <c r="EZ62" s="0"/>
+      <c r="FA62" s="0"/>
+      <c r="FB62" s="0"/>
+      <c r="FC62" s="0"/>
+      <c r="FD62" s="0"/>
+      <c r="FE62" s="0"/>
+      <c r="FF62" s="0"/>
+      <c r="FG62" s="0"/>
+      <c r="FH62" s="0"/>
+      <c r="FI62" s="0"/>
+      <c r="FJ62" s="0"/>
+      <c r="FK62" s="0"/>
+      <c r="FL62" s="0"/>
+      <c r="FM62" s="0"/>
+      <c r="FN62" s="0"/>
+      <c r="FO62" s="0"/>
+      <c r="FP62" s="0"/>
+      <c r="FQ62" s="0"/>
+      <c r="FR62" s="0"/>
+      <c r="FS62" s="0"/>
+      <c r="FT62" s="0"/>
+      <c r="FU62" s="0"/>
+      <c r="FV62" s="0"/>
+      <c r="FW62" s="0"/>
+      <c r="FX62" s="0"/>
+      <c r="FY62" s="0"/>
+      <c r="FZ62" s="0"/>
+      <c r="GA62" s="0"/>
+      <c r="GB62" s="0"/>
+      <c r="GC62" s="0"/>
+      <c r="GD62" s="0"/>
+      <c r="GE62" s="0"/>
+      <c r="GF62" s="0"/>
+      <c r="GG62" s="0"/>
+      <c r="GH62" s="0"/>
+      <c r="GI62" s="0"/>
+      <c r="GJ62" s="0"/>
+      <c r="GK62" s="0"/>
+      <c r="GL62" s="0"/>
+      <c r="GM62" s="0"/>
+      <c r="GN62" s="0"/>
+      <c r="GO62" s="0"/>
+      <c r="GP62" s="0"/>
+      <c r="GQ62" s="0"/>
+      <c r="GR62" s="0"/>
+      <c r="GS62" s="0"/>
+      <c r="GT62" s="0"/>
+      <c r="GU62" s="0"/>
+      <c r="GV62" s="0"/>
+      <c r="GW62" s="0"/>
+      <c r="GX62" s="0"/>
+      <c r="GY62" s="0"/>
+      <c r="GZ62" s="0"/>
+      <c r="HA62" s="0"/>
+      <c r="HB62" s="0"/>
+      <c r="HC62" s="0"/>
+      <c r="HD62" s="0"/>
+      <c r="HE62" s="0"/>
+      <c r="HF62" s="0"/>
+      <c r="HG62" s="0"/>
+      <c r="HH62" s="0"/>
+      <c r="HI62" s="0"/>
+      <c r="HJ62" s="0"/>
+      <c r="HK62" s="0"/>
+      <c r="HL62" s="0"/>
+      <c r="HM62" s="0"/>
+      <c r="HN62" s="0"/>
+      <c r="HO62" s="0"/>
+      <c r="HP62" s="0"/>
+      <c r="HQ62" s="0"/>
+      <c r="HR62" s="0"/>
+      <c r="HS62" s="0"/>
+      <c r="HT62" s="0"/>
+      <c r="HU62" s="0"/>
+      <c r="HV62" s="0"/>
+      <c r="HW62" s="0"/>
+      <c r="HX62" s="0"/>
+      <c r="HY62" s="0"/>
+      <c r="HZ62" s="0"/>
+      <c r="IA62" s="0"/>
+      <c r="IB62" s="0"/>
+      <c r="IC62" s="0"/>
+      <c r="ID62" s="0"/>
+      <c r="IE62" s="0"/>
+      <c r="IF62" s="0"/>
+      <c r="IG62" s="0"/>
+      <c r="IH62" s="0"/>
+      <c r="II62" s="0"/>
+      <c r="IJ62" s="0"/>
+      <c r="IK62" s="0"/>
+      <c r="IL62" s="0"/>
+      <c r="IM62" s="0"/>
+      <c r="IN62" s="0"/>
+      <c r="IO62" s="0"/>
+      <c r="IP62" s="0"/>
+      <c r="IQ62" s="0"/>
+      <c r="IR62" s="0"/>
+      <c r="IS62" s="0"/>
+      <c r="IT62" s="0"/>
+      <c r="IU62" s="0"/>
+      <c r="IV62" s="0"/>
+      <c r="IW62" s="0"/>
+      <c r="IX62" s="0"/>
+      <c r="IY62" s="0"/>
+      <c r="IZ62" s="0"/>
+      <c r="JA62" s="0"/>
+      <c r="JB62" s="0"/>
+      <c r="JC62" s="0"/>
+      <c r="JD62" s="0"/>
+      <c r="JE62" s="0"/>
+      <c r="JF62" s="0"/>
+      <c r="JG62" s="0"/>
+      <c r="JH62" s="0"/>
+      <c r="JI62" s="0"/>
+      <c r="JJ62" s="0"/>
+      <c r="JK62" s="0"/>
+      <c r="JL62" s="0"/>
+      <c r="JM62" s="0"/>
+      <c r="JN62" s="0"/>
+      <c r="JO62" s="0"/>
+      <c r="JP62" s="0"/>
+      <c r="JQ62" s="0"/>
+      <c r="JR62" s="0"/>
+      <c r="JS62" s="0"/>
+      <c r="JT62" s="0"/>
+      <c r="JU62" s="0"/>
+      <c r="JV62" s="0"/>
+      <c r="JW62" s="0"/>
+      <c r="JX62" s="0"/>
+      <c r="JY62" s="0"/>
+      <c r="JZ62" s="0"/>
+      <c r="KA62" s="0"/>
+      <c r="KB62" s="0"/>
+      <c r="KC62" s="0"/>
+      <c r="KD62" s="0"/>
+      <c r="KE62" s="0"/>
+      <c r="KF62" s="0"/>
+      <c r="KG62" s="0"/>
+      <c r="KH62" s="0"/>
+      <c r="KI62" s="0"/>
+      <c r="KJ62" s="0"/>
+      <c r="KK62" s="0"/>
+      <c r="KL62" s="0"/>
+      <c r="KM62" s="0"/>
+      <c r="KN62" s="0"/>
+      <c r="KO62" s="0"/>
+      <c r="KP62" s="0"/>
+      <c r="KQ62" s="0"/>
+      <c r="KR62" s="0"/>
+      <c r="KS62" s="0"/>
+      <c r="KT62" s="0"/>
+      <c r="KU62" s="0"/>
+      <c r="KV62" s="0"/>
+      <c r="KW62" s="0"/>
+      <c r="KX62" s="0"/>
+      <c r="KY62" s="0"/>
+      <c r="KZ62" s="0"/>
+      <c r="LA62" s="0"/>
+      <c r="LB62" s="0"/>
+      <c r="LC62" s="0"/>
+      <c r="LD62" s="0"/>
+      <c r="LE62" s="0"/>
+      <c r="LF62" s="0"/>
+      <c r="LG62" s="0"/>
+      <c r="LH62" s="0"/>
+      <c r="LI62" s="0"/>
+      <c r="LJ62" s="0"/>
+      <c r="LK62" s="0"/>
+      <c r="LL62" s="0"/>
+      <c r="LM62" s="0"/>
+      <c r="LN62" s="0"/>
+      <c r="LO62" s="0"/>
+      <c r="LP62" s="0"/>
+      <c r="LQ62" s="0"/>
+      <c r="LR62" s="0"/>
+      <c r="LS62" s="0"/>
+      <c r="LT62" s="0"/>
+      <c r="LU62" s="0"/>
+      <c r="LV62" s="0"/>
+      <c r="LW62" s="0"/>
+      <c r="LX62" s="0"/>
+      <c r="LY62" s="0"/>
+      <c r="LZ62" s="0"/>
+      <c r="MA62" s="0"/>
+      <c r="MB62" s="0"/>
+      <c r="MC62" s="0"/>
+      <c r="MD62" s="0"/>
+      <c r="ME62" s="0"/>
+      <c r="MF62" s="0"/>
+      <c r="MG62" s="0"/>
+      <c r="MH62" s="0"/>
+      <c r="MI62" s="0"/>
+      <c r="MJ62" s="0"/>
+      <c r="MK62" s="0"/>
+      <c r="ML62" s="0"/>
+      <c r="MM62" s="0"/>
+      <c r="MN62" s="0"/>
+      <c r="MO62" s="0"/>
+      <c r="MP62" s="0"/>
+      <c r="MQ62" s="0"/>
+      <c r="MR62" s="0"/>
+      <c r="MS62" s="0"/>
+      <c r="MT62" s="0"/>
+      <c r="MU62" s="0"/>
+      <c r="MV62" s="0"/>
+      <c r="MW62" s="0"/>
+      <c r="MX62" s="0"/>
+      <c r="MY62" s="0"/>
+      <c r="MZ62" s="0"/>
+      <c r="NA62" s="0"/>
+      <c r="NB62" s="0"/>
+      <c r="NC62" s="0"/>
+      <c r="ND62" s="0"/>
+      <c r="NE62" s="0"/>
+      <c r="NF62" s="0"/>
+      <c r="NG62" s="0"/>
+      <c r="NH62" s="0"/>
+      <c r="NI62" s="0"/>
+      <c r="NJ62" s="0"/>
+      <c r="NK62" s="0"/>
+      <c r="NL62" s="0"/>
+      <c r="NM62" s="0"/>
+      <c r="NN62" s="0"/>
+      <c r="NO62" s="0"/>
+      <c r="NP62" s="0"/>
+      <c r="NQ62" s="0"/>
+      <c r="NR62" s="0"/>
+      <c r="NS62" s="0"/>
+      <c r="NT62" s="0"/>
+      <c r="NU62" s="0"/>
+      <c r="NV62" s="0"/>
+      <c r="NW62" s="0"/>
+      <c r="NX62" s="0"/>
+      <c r="NY62" s="0"/>
+      <c r="NZ62" s="0"/>
+      <c r="OA62" s="0"/>
+      <c r="OB62" s="0"/>
+      <c r="OC62" s="0"/>
+      <c r="OD62" s="0"/>
+      <c r="OE62" s="0"/>
+      <c r="OF62" s="0"/>
+      <c r="OG62" s="0"/>
+      <c r="OH62" s="0"/>
+      <c r="OI62" s="0"/>
+      <c r="OJ62" s="0"/>
+      <c r="OK62" s="0"/>
+      <c r="OL62" s="0"/>
+      <c r="OM62" s="0"/>
+      <c r="ON62" s="0"/>
+      <c r="OO62" s="0"/>
+      <c r="OP62" s="0"/>
+      <c r="OQ62" s="0"/>
+      <c r="OR62" s="0"/>
+      <c r="OS62" s="0"/>
+      <c r="OT62" s="0"/>
+      <c r="OU62" s="0"/>
+      <c r="OV62" s="0"/>
+      <c r="OW62" s="0"/>
+      <c r="OX62" s="0"/>
+      <c r="OY62" s="0"/>
+      <c r="OZ62" s="0"/>
+      <c r="PA62" s="0"/>
+      <c r="PB62" s="0"/>
+      <c r="PC62" s="0"/>
+      <c r="PD62" s="0"/>
+      <c r="PE62" s="0"/>
+      <c r="PF62" s="0"/>
+      <c r="PG62" s="0"/>
+      <c r="PH62" s="0"/>
+      <c r="PI62" s="0"/>
+      <c r="PJ62" s="0"/>
+      <c r="PK62" s="0"/>
+      <c r="PL62" s="0"/>
+      <c r="PM62" s="0"/>
+      <c r="PN62" s="0"/>
+      <c r="PO62" s="0"/>
+      <c r="PP62" s="0"/>
+      <c r="PQ62" s="0"/>
+      <c r="PR62" s="0"/>
+      <c r="PS62" s="0"/>
+      <c r="PT62" s="0"/>
+      <c r="PU62" s="0"/>
+      <c r="PV62" s="0"/>
+      <c r="PW62" s="0"/>
+      <c r="PX62" s="0"/>
+      <c r="PY62" s="0"/>
+      <c r="PZ62" s="0"/>
+      <c r="QA62" s="0"/>
+      <c r="QB62" s="0"/>
+      <c r="QC62" s="0"/>
+      <c r="QD62" s="0"/>
+      <c r="QE62" s="0"/>
+      <c r="QF62" s="0"/>
+      <c r="QG62" s="0"/>
+      <c r="QH62" s="0"/>
+      <c r="QI62" s="0"/>
+      <c r="QJ62" s="0"/>
+      <c r="QK62" s="0"/>
+      <c r="QL62" s="0"/>
+      <c r="QM62" s="0"/>
+      <c r="QN62" s="0"/>
+      <c r="QO62" s="0"/>
+      <c r="QP62" s="0"/>
+      <c r="QQ62" s="0"/>
+      <c r="QR62" s="0"/>
+      <c r="QS62" s="0"/>
+      <c r="QT62" s="0"/>
+      <c r="QU62" s="0"/>
+      <c r="QV62" s="0"/>
+      <c r="QW62" s="0"/>
+      <c r="QX62" s="0"/>
+      <c r="QY62" s="0"/>
+      <c r="QZ62" s="0"/>
+      <c r="RA62" s="0"/>
+      <c r="RB62" s="0"/>
+      <c r="RC62" s="0"/>
+      <c r="RD62" s="0"/>
+      <c r="RE62" s="0"/>
+      <c r="RF62" s="0"/>
+      <c r="RG62" s="0"/>
+      <c r="RH62" s="0"/>
+      <c r="RI62" s="0"/>
+      <c r="RJ62" s="0"/>
+      <c r="RK62" s="0"/>
+      <c r="RL62" s="0"/>
+      <c r="RM62" s="0"/>
+      <c r="RN62" s="0"/>
+      <c r="RO62" s="0"/>
+      <c r="RP62" s="0"/>
+      <c r="RQ62" s="0"/>
+      <c r="RR62" s="0"/>
+      <c r="RS62" s="0"/>
+      <c r="RT62" s="0"/>
+      <c r="RU62" s="0"/>
+      <c r="RV62" s="0"/>
+      <c r="RW62" s="0"/>
+      <c r="RX62" s="0"/>
+      <c r="RY62" s="0"/>
+      <c r="RZ62" s="0"/>
+      <c r="SA62" s="0"/>
+      <c r="SB62" s="0"/>
+      <c r="SC62" s="0"/>
+      <c r="SD62" s="0"/>
+      <c r="SE62" s="0"/>
+      <c r="SF62" s="0"/>
+      <c r="SG62" s="0"/>
+      <c r="SH62" s="0"/>
+      <c r="SI62" s="0"/>
+      <c r="SJ62" s="0"/>
+      <c r="SK62" s="0"/>
+      <c r="SL62" s="0"/>
+      <c r="SM62" s="0"/>
+      <c r="SN62" s="0"/>
+      <c r="SO62" s="0"/>
+      <c r="SP62" s="0"/>
+      <c r="SQ62" s="0"/>
+      <c r="SR62" s="0"/>
+      <c r="SS62" s="0"/>
+      <c r="ST62" s="0"/>
+      <c r="SU62" s="0"/>
+      <c r="SV62" s="0"/>
+      <c r="SW62" s="0"/>
+      <c r="SX62" s="0"/>
+      <c r="SY62" s="0"/>
+      <c r="SZ62" s="0"/>
+      <c r="TA62" s="0"/>
+      <c r="TB62" s="0"/>
+      <c r="TC62" s="0"/>
+      <c r="TD62" s="0"/>
+      <c r="TE62" s="0"/>
+      <c r="TF62" s="0"/>
+      <c r="TG62" s="0"/>
+      <c r="TH62" s="0"/>
+      <c r="TI62" s="0"/>
+      <c r="TJ62" s="0"/>
+      <c r="TK62" s="0"/>
+      <c r="TL62" s="0"/>
+      <c r="TM62" s="0"/>
+      <c r="TN62" s="0"/>
+      <c r="TO62" s="0"/>
+      <c r="TP62" s="0"/>
+      <c r="TQ62" s="0"/>
+      <c r="TR62" s="0"/>
+      <c r="TS62" s="0"/>
+      <c r="TT62" s="0"/>
+      <c r="TU62" s="0"/>
+      <c r="TV62" s="0"/>
+      <c r="TW62" s="0"/>
+      <c r="TX62" s="0"/>
+      <c r="TY62" s="0"/>
+      <c r="TZ62" s="0"/>
+      <c r="UA62" s="0"/>
+      <c r="UB62" s="0"/>
+      <c r="UC62" s="0"/>
+      <c r="UD62" s="0"/>
+      <c r="UE62" s="0"/>
+      <c r="UF62" s="0"/>
+      <c r="UG62" s="0"/>
+      <c r="UH62" s="0"/>
+      <c r="UI62" s="0"/>
+      <c r="UJ62" s="0"/>
+      <c r="UK62" s="0"/>
+      <c r="UL62" s="0"/>
+      <c r="UM62" s="0"/>
+      <c r="UN62" s="0"/>
+      <c r="UO62" s="0"/>
+      <c r="UP62" s="0"/>
+      <c r="UQ62" s="0"/>
+      <c r="UR62" s="0"/>
+      <c r="US62" s="0"/>
+      <c r="UT62" s="0"/>
+      <c r="UU62" s="0"/>
+      <c r="UV62" s="0"/>
+      <c r="UW62" s="0"/>
+      <c r="UX62" s="0"/>
+      <c r="UY62" s="0"/>
+      <c r="UZ62" s="0"/>
+      <c r="VA62" s="0"/>
+      <c r="VB62" s="0"/>
+      <c r="VC62" s="0"/>
+      <c r="VD62" s="0"/>
+      <c r="VE62" s="0"/>
+      <c r="VF62" s="0"/>
+      <c r="VG62" s="0"/>
+      <c r="VH62" s="0"/>
+      <c r="VI62" s="0"/>
+      <c r="VJ62" s="0"/>
+      <c r="VK62" s="0"/>
+      <c r="VL62" s="0"/>
+      <c r="VM62" s="0"/>
+      <c r="VN62" s="0"/>
+      <c r="VO62" s="0"/>
+      <c r="VP62" s="0"/>
+      <c r="VQ62" s="0"/>
+      <c r="VR62" s="0"/>
+      <c r="VS62" s="0"/>
+      <c r="VT62" s="0"/>
+      <c r="VU62" s="0"/>
+      <c r="VV62" s="0"/>
+      <c r="VW62" s="0"/>
+      <c r="VX62" s="0"/>
+      <c r="VY62" s="0"/>
+      <c r="VZ62" s="0"/>
+      <c r="WA62" s="0"/>
+      <c r="WB62" s="0"/>
+      <c r="WC62" s="0"/>
+      <c r="WD62" s="0"/>
+      <c r="WE62" s="0"/>
+      <c r="WF62" s="0"/>
+      <c r="WG62" s="0"/>
+      <c r="WH62" s="0"/>
+      <c r="WI62" s="0"/>
+      <c r="WJ62" s="0"/>
+      <c r="WK62" s="0"/>
+      <c r="WL62" s="0"/>
+      <c r="WM62" s="0"/>
+      <c r="WN62" s="0"/>
+      <c r="WO62" s="0"/>
+      <c r="WP62" s="0"/>
+      <c r="WQ62" s="0"/>
+      <c r="WR62" s="0"/>
+      <c r="WS62" s="0"/>
+      <c r="WT62" s="0"/>
+      <c r="WU62" s="0"/>
+      <c r="WV62" s="0"/>
+      <c r="WW62" s="0"/>
+      <c r="WX62" s="0"/>
+      <c r="WY62" s="0"/>
+      <c r="WZ62" s="0"/>
+      <c r="XA62" s="0"/>
+      <c r="XB62" s="0"/>
+      <c r="XC62" s="0"/>
+      <c r="XD62" s="0"/>
+      <c r="XE62" s="0"/>
+      <c r="XF62" s="0"/>
+      <c r="XG62" s="0"/>
+      <c r="XH62" s="0"/>
+      <c r="XI62" s="0"/>
+      <c r="XJ62" s="0"/>
+      <c r="XK62" s="0"/>
+      <c r="XL62" s="0"/>
+      <c r="XM62" s="0"/>
+      <c r="XN62" s="0"/>
+      <c r="XO62" s="0"/>
+      <c r="XP62" s="0"/>
+      <c r="XQ62" s="0"/>
+      <c r="XR62" s="0"/>
+      <c r="XS62" s="0"/>
+      <c r="XT62" s="0"/>
+      <c r="XU62" s="0"/>
+      <c r="XV62" s="0"/>
+      <c r="XW62" s="0"/>
+      <c r="XX62" s="0"/>
+      <c r="XY62" s="0"/>
+      <c r="XZ62" s="0"/>
+      <c r="YA62" s="0"/>
+      <c r="YB62" s="0"/>
+      <c r="YC62" s="0"/>
+      <c r="YD62" s="0"/>
+      <c r="YE62" s="0"/>
+      <c r="YF62" s="0"/>
+      <c r="YG62" s="0"/>
+      <c r="YH62" s="0"/>
+      <c r="YI62" s="0"/>
+      <c r="YJ62" s="0"/>
+      <c r="YK62" s="0"/>
+      <c r="YL62" s="0"/>
+      <c r="YM62" s="0"/>
+      <c r="YN62" s="0"/>
+      <c r="YO62" s="0"/>
+      <c r="YP62" s="0"/>
+      <c r="YQ62" s="0"/>
+      <c r="YR62" s="0"/>
+      <c r="YS62" s="0"/>
+      <c r="YT62" s="0"/>
+      <c r="YU62" s="0"/>
+      <c r="YV62" s="0"/>
+      <c r="YW62" s="0"/>
+      <c r="YX62" s="0"/>
+      <c r="YY62" s="0"/>
+      <c r="YZ62" s="0"/>
+      <c r="ZA62" s="0"/>
+      <c r="ZB62" s="0"/>
+      <c r="ZC62" s="0"/>
+      <c r="ZD62" s="0"/>
+      <c r="ZE62" s="0"/>
+      <c r="ZF62" s="0"/>
+      <c r="ZG62" s="0"/>
+      <c r="ZH62" s="0"/>
+      <c r="ZI62" s="0"/>
+      <c r="ZJ62" s="0"/>
+      <c r="ZK62" s="0"/>
+      <c r="ZL62" s="0"/>
+      <c r="ZM62" s="0"/>
+      <c r="ZN62" s="0"/>
+      <c r="ZO62" s="0"/>
+      <c r="ZP62" s="0"/>
+      <c r="ZQ62" s="0"/>
+      <c r="ZR62" s="0"/>
+      <c r="ZS62" s="0"/>
+      <c r="ZT62" s="0"/>
+      <c r="ZU62" s="0"/>
+      <c r="ZV62" s="0"/>
+      <c r="ZW62" s="0"/>
+      <c r="ZX62" s="0"/>
+      <c r="ZY62" s="0"/>
+      <c r="ZZ62" s="0"/>
+      <c r="AAA62" s="0"/>
+      <c r="AAB62" s="0"/>
+      <c r="AAC62" s="0"/>
+      <c r="AAD62" s="0"/>
+      <c r="AAE62" s="0"/>
+      <c r="AAF62" s="0"/>
+      <c r="AAG62" s="0"/>
+      <c r="AAH62" s="0"/>
+      <c r="AAI62" s="0"/>
+      <c r="AAJ62" s="0"/>
+      <c r="AAK62" s="0"/>
+      <c r="AAL62" s="0"/>
+      <c r="AAM62" s="0"/>
+      <c r="AAN62" s="0"/>
+      <c r="AAO62" s="0"/>
+      <c r="AAP62" s="0"/>
+      <c r="AAQ62" s="0"/>
+      <c r="AAR62" s="0"/>
+      <c r="AAS62" s="0"/>
+      <c r="AAT62" s="0"/>
+      <c r="AAU62" s="0"/>
+      <c r="AAV62" s="0"/>
+      <c r="AAW62" s="0"/>
+      <c r="AAX62" s="0"/>
+      <c r="AAY62" s="0"/>
+      <c r="AAZ62" s="0"/>
+      <c r="ABA62" s="0"/>
+      <c r="ABB62" s="0"/>
+      <c r="ABC62" s="0"/>
+      <c r="ABD62" s="0"/>
+      <c r="ABE62" s="0"/>
+      <c r="ABF62" s="0"/>
+      <c r="ABG62" s="0"/>
+      <c r="ABH62" s="0"/>
+      <c r="ABI62" s="0"/>
+      <c r="ABJ62" s="0"/>
+      <c r="ABK62" s="0"/>
+      <c r="ABL62" s="0"/>
+      <c r="ABM62" s="0"/>
+      <c r="ABN62" s="0"/>
+      <c r="ABO62" s="0"/>
+      <c r="ABP62" s="0"/>
+      <c r="ABQ62" s="0"/>
+      <c r="ABR62" s="0"/>
+      <c r="ABS62" s="0"/>
+      <c r="ABT62" s="0"/>
+      <c r="ABU62" s="0"/>
+      <c r="ABV62" s="0"/>
+      <c r="ABW62" s="0"/>
+      <c r="ABX62" s="0"/>
+      <c r="ABY62" s="0"/>
+      <c r="ABZ62" s="0"/>
+      <c r="ACA62" s="0"/>
+      <c r="ACB62" s="0"/>
+      <c r="ACC62" s="0"/>
+      <c r="ACD62" s="0"/>
+      <c r="ACE62" s="0"/>
+      <c r="ACF62" s="0"/>
+      <c r="ACG62" s="0"/>
+      <c r="ACH62" s="0"/>
+      <c r="ACI62" s="0"/>
+      <c r="ACJ62" s="0"/>
+      <c r="ACK62" s="0"/>
+      <c r="ACL62" s="0"/>
+      <c r="ACM62" s="0"/>
+      <c r="ACN62" s="0"/>
+      <c r="ACO62" s="0"/>
+      <c r="ACP62" s="0"/>
+      <c r="ACQ62" s="0"/>
+      <c r="ACR62" s="0"/>
+      <c r="ACS62" s="0"/>
+      <c r="ACT62" s="0"/>
+      <c r="ACU62" s="0"/>
+      <c r="ACV62" s="0"/>
+      <c r="ACW62" s="0"/>
+      <c r="ACX62" s="0"/>
+      <c r="ACY62" s="0"/>
+      <c r="ACZ62" s="0"/>
+      <c r="ADA62" s="0"/>
+      <c r="ADB62" s="0"/>
+      <c r="ADC62" s="0"/>
+      <c r="ADD62" s="0"/>
+      <c r="ADE62" s="0"/>
+      <c r="ADF62" s="0"/>
+      <c r="ADG62" s="0"/>
+      <c r="ADH62" s="0"/>
+      <c r="ADI62" s="0"/>
+      <c r="ADJ62" s="0"/>
+      <c r="ADK62" s="0"/>
+      <c r="ADL62" s="0"/>
+      <c r="ADM62" s="0"/>
+      <c r="ADN62" s="0"/>
+      <c r="ADO62" s="0"/>
+      <c r="ADP62" s="0"/>
+      <c r="ADQ62" s="0"/>
+      <c r="ADR62" s="0"/>
+      <c r="ADS62" s="0"/>
+      <c r="ADT62" s="0"/>
+      <c r="ADU62" s="0"/>
+      <c r="ADV62" s="0"/>
+      <c r="ADW62" s="0"/>
+      <c r="ADX62" s="0"/>
+      <c r="ADY62" s="0"/>
+      <c r="ADZ62" s="0"/>
+      <c r="AEA62" s="0"/>
+      <c r="AEB62" s="0"/>
+      <c r="AEC62" s="0"/>
+      <c r="AED62" s="0"/>
+      <c r="AEE62" s="0"/>
+      <c r="AEF62" s="0"/>
+      <c r="AEG62" s="0"/>
+      <c r="AEH62" s="0"/>
+      <c r="AEI62" s="0"/>
+      <c r="AEJ62" s="0"/>
+      <c r="AEK62" s="0"/>
+      <c r="AEL62" s="0"/>
+      <c r="AEM62" s="0"/>
+      <c r="AEN62" s="0"/>
+      <c r="AEO62" s="0"/>
+      <c r="AEP62" s="0"/>
+      <c r="AEQ62" s="0"/>
+      <c r="AER62" s="0"/>
+      <c r="AES62" s="0"/>
+      <c r="AET62" s="0"/>
+      <c r="AEU62" s="0"/>
+      <c r="AEV62" s="0"/>
+      <c r="AEW62" s="0"/>
+      <c r="AEX62" s="0"/>
+      <c r="AEY62" s="0"/>
+      <c r="AEZ62" s="0"/>
+      <c r="AFA62" s="0"/>
+      <c r="AFB62" s="0"/>
+      <c r="AFC62" s="0"/>
+      <c r="AFD62" s="0"/>
+      <c r="AFE62" s="0"/>
+      <c r="AFF62" s="0"/>
+      <c r="AFG62" s="0"/>
+      <c r="AFH62" s="0"/>
+      <c r="AFI62" s="0"/>
+      <c r="AFJ62" s="0"/>
+      <c r="AFK62" s="0"/>
+      <c r="AFL62" s="0"/>
+      <c r="AFM62" s="0"/>
+      <c r="AFN62" s="0"/>
+      <c r="AFO62" s="0"/>
+      <c r="AFP62" s="0"/>
+      <c r="AFQ62" s="0"/>
+      <c r="AFR62" s="0"/>
+      <c r="AFS62" s="0"/>
+      <c r="AFT62" s="0"/>
+      <c r="AFU62" s="0"/>
+      <c r="AFV62" s="0"/>
+      <c r="AFW62" s="0"/>
+      <c r="AFX62" s="0"/>
+      <c r="AFY62" s="0"/>
+      <c r="AFZ62" s="0"/>
+      <c r="AGA62" s="0"/>
+      <c r="AGB62" s="0"/>
+      <c r="AGC62" s="0"/>
+      <c r="AGD62" s="0"/>
+      <c r="AGE62" s="0"/>
+      <c r="AGF62" s="0"/>
+      <c r="AGG62" s="0"/>
+      <c r="AGH62" s="0"/>
+      <c r="AGI62" s="0"/>
+      <c r="AGJ62" s="0"/>
+      <c r="AGK62" s="0"/>
+      <c r="AGL62" s="0"/>
+      <c r="AGM62" s="0"/>
+      <c r="AGN62" s="0"/>
+      <c r="AGO62" s="0"/>
+      <c r="AGP62" s="0"/>
+      <c r="AGQ62" s="0"/>
+      <c r="AGR62" s="0"/>
+      <c r="AGS62" s="0"/>
+      <c r="AGT62" s="0"/>
+      <c r="AGU62" s="0"/>
+      <c r="AGV62" s="0"/>
+      <c r="AGW62" s="0"/>
+      <c r="AGX62" s="0"/>
+      <c r="AGY62" s="0"/>
+      <c r="AGZ62" s="0"/>
+      <c r="AHA62" s="0"/>
+      <c r="AHB62" s="0"/>
+      <c r="AHC62" s="0"/>
+      <c r="AHD62" s="0"/>
+      <c r="AHE62" s="0"/>
+      <c r="AHF62" s="0"/>
+      <c r="AHG62" s="0"/>
+      <c r="AHH62" s="0"/>
+      <c r="AHI62" s="0"/>
+      <c r="AHJ62" s="0"/>
+      <c r="AHK62" s="0"/>
+      <c r="AHL62" s="0"/>
+      <c r="AHM62" s="0"/>
+      <c r="AHN62" s="0"/>
+      <c r="AHO62" s="0"/>
+      <c r="AHP62" s="0"/>
+      <c r="AHQ62" s="0"/>
+      <c r="AHR62" s="0"/>
+      <c r="AHS62" s="0"/>
+      <c r="AHT62" s="0"/>
+      <c r="AHU62" s="0"/>
+      <c r="AHV62" s="0"/>
+      <c r="AHW62" s="0"/>
+      <c r="AHX62" s="0"/>
+      <c r="AHY62" s="0"/>
+      <c r="AHZ62" s="0"/>
+      <c r="AIA62" s="0"/>
+      <c r="AIB62" s="0"/>
+      <c r="AIC62" s="0"/>
+      <c r="AID62" s="0"/>
+      <c r="AIE62" s="0"/>
+      <c r="AIF62" s="0"/>
+      <c r="AIG62" s="0"/>
+      <c r="AIH62" s="0"/>
+      <c r="AII62" s="0"/>
+      <c r="AIJ62" s="0"/>
+      <c r="AIK62" s="0"/>
+      <c r="AIL62" s="0"/>
+      <c r="AIM62" s="0"/>
+      <c r="AIN62" s="0"/>
+      <c r="AIO62" s="0"/>
+      <c r="AIP62" s="0"/>
+      <c r="AIQ62" s="0"/>
+      <c r="AIR62" s="0"/>
+      <c r="AIS62" s="0"/>
+      <c r="AIT62" s="0"/>
+      <c r="AIU62" s="0"/>
+      <c r="AIV62" s="0"/>
+      <c r="AIW62" s="0"/>
+      <c r="AIX62" s="0"/>
+      <c r="AIY62" s="0"/>
+      <c r="AIZ62" s="0"/>
+      <c r="AJA62" s="0"/>
+      <c r="AJB62" s="0"/>
+      <c r="AJC62" s="0"/>
+      <c r="AJD62" s="0"/>
+      <c r="AJE62" s="0"/>
+      <c r="AJF62" s="0"/>
+      <c r="AJG62" s="0"/>
+      <c r="AJH62" s="0"/>
+      <c r="AJI62" s="0"/>
+      <c r="AJJ62" s="0"/>
+      <c r="AJK62" s="0"/>
+      <c r="AJL62" s="0"/>
+      <c r="AJM62" s="0"/>
+      <c r="AJN62" s="0"/>
+      <c r="AJO62" s="0"/>
+      <c r="AJP62" s="0"/>
+      <c r="AJQ62" s="0"/>
+      <c r="AJR62" s="0"/>
+      <c r="AJS62" s="0"/>
+      <c r="AJT62" s="0"/>
+      <c r="AJU62" s="0"/>
+      <c r="AJV62" s="0"/>
+      <c r="AJW62" s="0"/>
+      <c r="AJX62" s="0"/>
+      <c r="AJY62" s="0"/>
+      <c r="AJZ62" s="0"/>
+      <c r="AKA62" s="0"/>
+      <c r="AKB62" s="0"/>
+      <c r="AKC62" s="0"/>
+      <c r="AKD62" s="0"/>
+      <c r="AKE62" s="0"/>
+      <c r="AKF62" s="0"/>
+      <c r="AKG62" s="0"/>
+      <c r="AKH62" s="0"/>
+      <c r="AKI62" s="0"/>
+      <c r="AKJ62" s="0"/>
+      <c r="AKK62" s="0"/>
+      <c r="AKL62" s="0"/>
+      <c r="AKM62" s="0"/>
+      <c r="AKN62" s="0"/>
+      <c r="AKO62" s="0"/>
+      <c r="AKP62" s="0"/>
+      <c r="AKQ62" s="0"/>
+      <c r="AKR62" s="0"/>
+      <c r="AKS62" s="0"/>
+      <c r="AKT62" s="0"/>
+      <c r="AKU62" s="0"/>
+      <c r="AKV62" s="0"/>
+      <c r="AKW62" s="0"/>
+      <c r="AKX62" s="0"/>
+      <c r="AKY62" s="0"/>
+      <c r="AKZ62" s="0"/>
+      <c r="ALA62" s="0"/>
+      <c r="ALB62" s="0"/>
+      <c r="ALC62" s="0"/>
+      <c r="ALD62" s="0"/>
+      <c r="ALE62" s="0"/>
+      <c r="ALF62" s="0"/>
+      <c r="ALG62" s="0"/>
+      <c r="ALH62" s="0"/>
+      <c r="ALI62" s="0"/>
+      <c r="ALJ62" s="0"/>
+      <c r="ALK62" s="0"/>
+      <c r="ALL62" s="0"/>
+      <c r="ALM62" s="0"/>
+      <c r="ALN62" s="0"/>
+      <c r="ALO62" s="0"/>
+      <c r="ALP62" s="0"/>
+      <c r="ALQ62" s="0"/>
+      <c r="ALR62" s="0"/>
+      <c r="ALS62" s="0"/>
+      <c r="ALT62" s="0"/>
+      <c r="ALU62" s="0"/>
+      <c r="ALV62" s="0"/>
+      <c r="ALW62" s="0"/>
+      <c r="ALX62" s="0"/>
+      <c r="ALY62" s="0"/>
+      <c r="ALZ62" s="0"/>
+      <c r="AMA62" s="0"/>
+      <c r="AMB62" s="0"/>
+      <c r="AMC62" s="0"/>
+      <c r="AMD62" s="0"/>
+      <c r="AME62" s="0"/>
+      <c r="AMF62" s="0"/>
+      <c r="AMG62" s="0"/>
+      <c r="AMH62" s="0"/>
+      <c r="AMI62" s="0"/>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="5"/>
       <c r="B63" s="6" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D63" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E63" s="15" t="s">
+      <c r="E63" s="10" t="s">
         <v>11</v>
       </c>
       <c r="F63" s="6" t="s">
@@ -48135,25 +52164,1039 @@
       <c r="G63" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H63" s="15" t="s">
+      <c r="H63" s="10" t="s">
         <v>12</v>
       </c>
       <c r="I63" s="6" t="s">
         <v>23</v>
       </c>
+      <c r="J63" s="0"/>
+      <c r="K63" s="0"/>
+      <c r="L63" s="0"/>
+      <c r="M63" s="0"/>
+      <c r="N63" s="0"/>
+      <c r="O63" s="0"/>
+      <c r="P63" s="0"/>
+      <c r="Q63" s="0"/>
+      <c r="R63" s="0"/>
+      <c r="S63" s="0"/>
+      <c r="T63" s="0"/>
+      <c r="U63" s="0"/>
+      <c r="V63" s="0"/>
+      <c r="W63" s="0"/>
+      <c r="X63" s="0"/>
+      <c r="Y63" s="0"/>
+      <c r="Z63" s="0"/>
+      <c r="AA63" s="0"/>
+      <c r="AB63" s="0"/>
+      <c r="AC63" s="0"/>
+      <c r="AD63" s="0"/>
+      <c r="AE63" s="0"/>
+      <c r="AF63" s="0"/>
+      <c r="AG63" s="0"/>
+      <c r="AH63" s="0"/>
+      <c r="AI63" s="0"/>
+      <c r="AJ63" s="0"/>
+      <c r="AK63" s="0"/>
+      <c r="AL63" s="0"/>
+      <c r="AM63" s="0"/>
+      <c r="AN63" s="0"/>
+      <c r="AO63" s="0"/>
+      <c r="AP63" s="0"/>
+      <c r="AQ63" s="0"/>
+      <c r="AR63" s="0"/>
+      <c r="AS63" s="0"/>
+      <c r="AT63" s="0"/>
+      <c r="AU63" s="0"/>
+      <c r="AV63" s="0"/>
+      <c r="AW63" s="0"/>
+      <c r="AX63" s="0"/>
+      <c r="AY63" s="0"/>
+      <c r="AZ63" s="0"/>
+      <c r="BA63" s="0"/>
+      <c r="BB63" s="0"/>
+      <c r="BC63" s="0"/>
+      <c r="BD63" s="0"/>
+      <c r="BE63" s="0"/>
+      <c r="BF63" s="0"/>
+      <c r="BG63" s="0"/>
+      <c r="BH63" s="0"/>
+      <c r="BI63" s="0"/>
+      <c r="BJ63" s="0"/>
+      <c r="BK63" s="0"/>
+      <c r="BL63" s="0"/>
+      <c r="BM63" s="0"/>
+      <c r="BN63" s="0"/>
+      <c r="BO63" s="0"/>
+      <c r="BP63" s="0"/>
+      <c r="BQ63" s="0"/>
+      <c r="BR63" s="0"/>
+      <c r="BS63" s="0"/>
+      <c r="BT63" s="0"/>
+      <c r="BU63" s="0"/>
+      <c r="BV63" s="0"/>
+      <c r="BW63" s="0"/>
+      <c r="BX63" s="0"/>
+      <c r="BY63" s="0"/>
+      <c r="BZ63" s="0"/>
+      <c r="CA63" s="0"/>
+      <c r="CB63" s="0"/>
+      <c r="CC63" s="0"/>
+      <c r="CD63" s="0"/>
+      <c r="CE63" s="0"/>
+      <c r="CF63" s="0"/>
+      <c r="CG63" s="0"/>
+      <c r="CH63" s="0"/>
+      <c r="CI63" s="0"/>
+      <c r="CJ63" s="0"/>
+      <c r="CK63" s="0"/>
+      <c r="CL63" s="0"/>
+      <c r="CM63" s="0"/>
+      <c r="CN63" s="0"/>
+      <c r="CO63" s="0"/>
+      <c r="CP63" s="0"/>
+      <c r="CQ63" s="0"/>
+      <c r="CR63" s="0"/>
+      <c r="CS63" s="0"/>
+      <c r="CT63" s="0"/>
+      <c r="CU63" s="0"/>
+      <c r="CV63" s="0"/>
+      <c r="CW63" s="0"/>
+      <c r="CX63" s="0"/>
+      <c r="CY63" s="0"/>
+      <c r="CZ63" s="0"/>
+      <c r="DA63" s="0"/>
+      <c r="DB63" s="0"/>
+      <c r="DC63" s="0"/>
+      <c r="DD63" s="0"/>
+      <c r="DE63" s="0"/>
+      <c r="DF63" s="0"/>
+      <c r="DG63" s="0"/>
+      <c r="DH63" s="0"/>
+      <c r="DI63" s="0"/>
+      <c r="DJ63" s="0"/>
+      <c r="DK63" s="0"/>
+      <c r="DL63" s="0"/>
+      <c r="DM63" s="0"/>
+      <c r="DN63" s="0"/>
+      <c r="DO63" s="0"/>
+      <c r="DP63" s="0"/>
+      <c r="DQ63" s="0"/>
+      <c r="DR63" s="0"/>
+      <c r="DS63" s="0"/>
+      <c r="DT63" s="0"/>
+      <c r="DU63" s="0"/>
+      <c r="DV63" s="0"/>
+      <c r="DW63" s="0"/>
+      <c r="DX63" s="0"/>
+      <c r="DY63" s="0"/>
+      <c r="DZ63" s="0"/>
+      <c r="EA63" s="0"/>
+      <c r="EB63" s="0"/>
+      <c r="EC63" s="0"/>
+      <c r="ED63" s="0"/>
+      <c r="EE63" s="0"/>
+      <c r="EF63" s="0"/>
+      <c r="EG63" s="0"/>
+      <c r="EH63" s="0"/>
+      <c r="EI63" s="0"/>
+      <c r="EJ63" s="0"/>
+      <c r="EK63" s="0"/>
+      <c r="EL63" s="0"/>
+      <c r="EM63" s="0"/>
+      <c r="EN63" s="0"/>
+      <c r="EO63" s="0"/>
+      <c r="EP63" s="0"/>
+      <c r="EQ63" s="0"/>
+      <c r="ER63" s="0"/>
+      <c r="ES63" s="0"/>
+      <c r="ET63" s="0"/>
+      <c r="EU63" s="0"/>
+      <c r="EV63" s="0"/>
+      <c r="EW63" s="0"/>
+      <c r="EX63" s="0"/>
+      <c r="EY63" s="0"/>
+      <c r="EZ63" s="0"/>
+      <c r="FA63" s="0"/>
+      <c r="FB63" s="0"/>
+      <c r="FC63" s="0"/>
+      <c r="FD63" s="0"/>
+      <c r="FE63" s="0"/>
+      <c r="FF63" s="0"/>
+      <c r="FG63" s="0"/>
+      <c r="FH63" s="0"/>
+      <c r="FI63" s="0"/>
+      <c r="FJ63" s="0"/>
+      <c r="FK63" s="0"/>
+      <c r="FL63" s="0"/>
+      <c r="FM63" s="0"/>
+      <c r="FN63" s="0"/>
+      <c r="FO63" s="0"/>
+      <c r="FP63" s="0"/>
+      <c r="FQ63" s="0"/>
+      <c r="FR63" s="0"/>
+      <c r="FS63" s="0"/>
+      <c r="FT63" s="0"/>
+      <c r="FU63" s="0"/>
+      <c r="FV63" s="0"/>
+      <c r="FW63" s="0"/>
+      <c r="FX63" s="0"/>
+      <c r="FY63" s="0"/>
+      <c r="FZ63" s="0"/>
+      <c r="GA63" s="0"/>
+      <c r="GB63" s="0"/>
+      <c r="GC63" s="0"/>
+      <c r="GD63" s="0"/>
+      <c r="GE63" s="0"/>
+      <c r="GF63" s="0"/>
+      <c r="GG63" s="0"/>
+      <c r="GH63" s="0"/>
+      <c r="GI63" s="0"/>
+      <c r="GJ63" s="0"/>
+      <c r="GK63" s="0"/>
+      <c r="GL63" s="0"/>
+      <c r="GM63" s="0"/>
+      <c r="GN63" s="0"/>
+      <c r="GO63" s="0"/>
+      <c r="GP63" s="0"/>
+      <c r="GQ63" s="0"/>
+      <c r="GR63" s="0"/>
+      <c r="GS63" s="0"/>
+      <c r="GT63" s="0"/>
+      <c r="GU63" s="0"/>
+      <c r="GV63" s="0"/>
+      <c r="GW63" s="0"/>
+      <c r="GX63" s="0"/>
+      <c r="GY63" s="0"/>
+      <c r="GZ63" s="0"/>
+      <c r="HA63" s="0"/>
+      <c r="HB63" s="0"/>
+      <c r="HC63" s="0"/>
+      <c r="HD63" s="0"/>
+      <c r="HE63" s="0"/>
+      <c r="HF63" s="0"/>
+      <c r="HG63" s="0"/>
+      <c r="HH63" s="0"/>
+      <c r="HI63" s="0"/>
+      <c r="HJ63" s="0"/>
+      <c r="HK63" s="0"/>
+      <c r="HL63" s="0"/>
+      <c r="HM63" s="0"/>
+      <c r="HN63" s="0"/>
+      <c r="HO63" s="0"/>
+      <c r="HP63" s="0"/>
+      <c r="HQ63" s="0"/>
+      <c r="HR63" s="0"/>
+      <c r="HS63" s="0"/>
+      <c r="HT63" s="0"/>
+      <c r="HU63" s="0"/>
+      <c r="HV63" s="0"/>
+      <c r="HW63" s="0"/>
+      <c r="HX63" s="0"/>
+      <c r="HY63" s="0"/>
+      <c r="HZ63" s="0"/>
+      <c r="IA63" s="0"/>
+      <c r="IB63" s="0"/>
+      <c r="IC63" s="0"/>
+      <c r="ID63" s="0"/>
+      <c r="IE63" s="0"/>
+      <c r="IF63" s="0"/>
+      <c r="IG63" s="0"/>
+      <c r="IH63" s="0"/>
+      <c r="II63" s="0"/>
+      <c r="IJ63" s="0"/>
+      <c r="IK63" s="0"/>
+      <c r="IL63" s="0"/>
+      <c r="IM63" s="0"/>
+      <c r="IN63" s="0"/>
+      <c r="IO63" s="0"/>
+      <c r="IP63" s="0"/>
+      <c r="IQ63" s="0"/>
+      <c r="IR63" s="0"/>
+      <c r="IS63" s="0"/>
+      <c r="IT63" s="0"/>
+      <c r="IU63" s="0"/>
+      <c r="IV63" s="0"/>
+      <c r="IW63" s="0"/>
+      <c r="IX63" s="0"/>
+      <c r="IY63" s="0"/>
+      <c r="IZ63" s="0"/>
+      <c r="JA63" s="0"/>
+      <c r="JB63" s="0"/>
+      <c r="JC63" s="0"/>
+      <c r="JD63" s="0"/>
+      <c r="JE63" s="0"/>
+      <c r="JF63" s="0"/>
+      <c r="JG63" s="0"/>
+      <c r="JH63" s="0"/>
+      <c r="JI63" s="0"/>
+      <c r="JJ63" s="0"/>
+      <c r="JK63" s="0"/>
+      <c r="JL63" s="0"/>
+      <c r="JM63" s="0"/>
+      <c r="JN63" s="0"/>
+      <c r="JO63" s="0"/>
+      <c r="JP63" s="0"/>
+      <c r="JQ63" s="0"/>
+      <c r="JR63" s="0"/>
+      <c r="JS63" s="0"/>
+      <c r="JT63" s="0"/>
+      <c r="JU63" s="0"/>
+      <c r="JV63" s="0"/>
+      <c r="JW63" s="0"/>
+      <c r="JX63" s="0"/>
+      <c r="JY63" s="0"/>
+      <c r="JZ63" s="0"/>
+      <c r="KA63" s="0"/>
+      <c r="KB63" s="0"/>
+      <c r="KC63" s="0"/>
+      <c r="KD63" s="0"/>
+      <c r="KE63" s="0"/>
+      <c r="KF63" s="0"/>
+      <c r="KG63" s="0"/>
+      <c r="KH63" s="0"/>
+      <c r="KI63" s="0"/>
+      <c r="KJ63" s="0"/>
+      <c r="KK63" s="0"/>
+      <c r="KL63" s="0"/>
+      <c r="KM63" s="0"/>
+      <c r="KN63" s="0"/>
+      <c r="KO63" s="0"/>
+      <c r="KP63" s="0"/>
+      <c r="KQ63" s="0"/>
+      <c r="KR63" s="0"/>
+      <c r="KS63" s="0"/>
+      <c r="KT63" s="0"/>
+      <c r="KU63" s="0"/>
+      <c r="KV63" s="0"/>
+      <c r="KW63" s="0"/>
+      <c r="KX63" s="0"/>
+      <c r="KY63" s="0"/>
+      <c r="KZ63" s="0"/>
+      <c r="LA63" s="0"/>
+      <c r="LB63" s="0"/>
+      <c r="LC63" s="0"/>
+      <c r="LD63" s="0"/>
+      <c r="LE63" s="0"/>
+      <c r="LF63" s="0"/>
+      <c r="LG63" s="0"/>
+      <c r="LH63" s="0"/>
+      <c r="LI63" s="0"/>
+      <c r="LJ63" s="0"/>
+      <c r="LK63" s="0"/>
+      <c r="LL63" s="0"/>
+      <c r="LM63" s="0"/>
+      <c r="LN63" s="0"/>
+      <c r="LO63" s="0"/>
+      <c r="LP63" s="0"/>
+      <c r="LQ63" s="0"/>
+      <c r="LR63" s="0"/>
+      <c r="LS63" s="0"/>
+      <c r="LT63" s="0"/>
+      <c r="LU63" s="0"/>
+      <c r="LV63" s="0"/>
+      <c r="LW63" s="0"/>
+      <c r="LX63" s="0"/>
+      <c r="LY63" s="0"/>
+      <c r="LZ63" s="0"/>
+      <c r="MA63" s="0"/>
+      <c r="MB63" s="0"/>
+      <c r="MC63" s="0"/>
+      <c r="MD63" s="0"/>
+      <c r="ME63" s="0"/>
+      <c r="MF63" s="0"/>
+      <c r="MG63" s="0"/>
+      <c r="MH63" s="0"/>
+      <c r="MI63" s="0"/>
+      <c r="MJ63" s="0"/>
+      <c r="MK63" s="0"/>
+      <c r="ML63" s="0"/>
+      <c r="MM63" s="0"/>
+      <c r="MN63" s="0"/>
+      <c r="MO63" s="0"/>
+      <c r="MP63" s="0"/>
+      <c r="MQ63" s="0"/>
+      <c r="MR63" s="0"/>
+      <c r="MS63" s="0"/>
+      <c r="MT63" s="0"/>
+      <c r="MU63" s="0"/>
+      <c r="MV63" s="0"/>
+      <c r="MW63" s="0"/>
+      <c r="MX63" s="0"/>
+      <c r="MY63" s="0"/>
+      <c r="MZ63" s="0"/>
+      <c r="NA63" s="0"/>
+      <c r="NB63" s="0"/>
+      <c r="NC63" s="0"/>
+      <c r="ND63" s="0"/>
+      <c r="NE63" s="0"/>
+      <c r="NF63" s="0"/>
+      <c r="NG63" s="0"/>
+      <c r="NH63" s="0"/>
+      <c r="NI63" s="0"/>
+      <c r="NJ63" s="0"/>
+      <c r="NK63" s="0"/>
+      <c r="NL63" s="0"/>
+      <c r="NM63" s="0"/>
+      <c r="NN63" s="0"/>
+      <c r="NO63" s="0"/>
+      <c r="NP63" s="0"/>
+      <c r="NQ63" s="0"/>
+      <c r="NR63" s="0"/>
+      <c r="NS63" s="0"/>
+      <c r="NT63" s="0"/>
+      <c r="NU63" s="0"/>
+      <c r="NV63" s="0"/>
+      <c r="NW63" s="0"/>
+      <c r="NX63" s="0"/>
+      <c r="NY63" s="0"/>
+      <c r="NZ63" s="0"/>
+      <c r="OA63" s="0"/>
+      <c r="OB63" s="0"/>
+      <c r="OC63" s="0"/>
+      <c r="OD63" s="0"/>
+      <c r="OE63" s="0"/>
+      <c r="OF63" s="0"/>
+      <c r="OG63" s="0"/>
+      <c r="OH63" s="0"/>
+      <c r="OI63" s="0"/>
+      <c r="OJ63" s="0"/>
+      <c r="OK63" s="0"/>
+      <c r="OL63" s="0"/>
+      <c r="OM63" s="0"/>
+      <c r="ON63" s="0"/>
+      <c r="OO63" s="0"/>
+      <c r="OP63" s="0"/>
+      <c r="OQ63" s="0"/>
+      <c r="OR63" s="0"/>
+      <c r="OS63" s="0"/>
+      <c r="OT63" s="0"/>
+      <c r="OU63" s="0"/>
+      <c r="OV63" s="0"/>
+      <c r="OW63" s="0"/>
+      <c r="OX63" s="0"/>
+      <c r="OY63" s="0"/>
+      <c r="OZ63" s="0"/>
+      <c r="PA63" s="0"/>
+      <c r="PB63" s="0"/>
+      <c r="PC63" s="0"/>
+      <c r="PD63" s="0"/>
+      <c r="PE63" s="0"/>
+      <c r="PF63" s="0"/>
+      <c r="PG63" s="0"/>
+      <c r="PH63" s="0"/>
+      <c r="PI63" s="0"/>
+      <c r="PJ63" s="0"/>
+      <c r="PK63" s="0"/>
+      <c r="PL63" s="0"/>
+      <c r="PM63" s="0"/>
+      <c r="PN63" s="0"/>
+      <c r="PO63" s="0"/>
+      <c r="PP63" s="0"/>
+      <c r="PQ63" s="0"/>
+      <c r="PR63" s="0"/>
+      <c r="PS63" s="0"/>
+      <c r="PT63" s="0"/>
+      <c r="PU63" s="0"/>
+      <c r="PV63" s="0"/>
+      <c r="PW63" s="0"/>
+      <c r="PX63" s="0"/>
+      <c r="PY63" s="0"/>
+      <c r="PZ63" s="0"/>
+      <c r="QA63" s="0"/>
+      <c r="QB63" s="0"/>
+      <c r="QC63" s="0"/>
+      <c r="QD63" s="0"/>
+      <c r="QE63" s="0"/>
+      <c r="QF63" s="0"/>
+      <c r="QG63" s="0"/>
+      <c r="QH63" s="0"/>
+      <c r="QI63" s="0"/>
+      <c r="QJ63" s="0"/>
+      <c r="QK63" s="0"/>
+      <c r="QL63" s="0"/>
+      <c r="QM63" s="0"/>
+      <c r="QN63" s="0"/>
+      <c r="QO63" s="0"/>
+      <c r="QP63" s="0"/>
+      <c r="QQ63" s="0"/>
+      <c r="QR63" s="0"/>
+      <c r="QS63" s="0"/>
+      <c r="QT63" s="0"/>
+      <c r="QU63" s="0"/>
+      <c r="QV63" s="0"/>
+      <c r="QW63" s="0"/>
+      <c r="QX63" s="0"/>
+      <c r="QY63" s="0"/>
+      <c r="QZ63" s="0"/>
+      <c r="RA63" s="0"/>
+      <c r="RB63" s="0"/>
+      <c r="RC63" s="0"/>
+      <c r="RD63" s="0"/>
+      <c r="RE63" s="0"/>
+      <c r="RF63" s="0"/>
+      <c r="RG63" s="0"/>
+      <c r="RH63" s="0"/>
+      <c r="RI63" s="0"/>
+      <c r="RJ63" s="0"/>
+      <c r="RK63" s="0"/>
+      <c r="RL63" s="0"/>
+      <c r="RM63" s="0"/>
+      <c r="RN63" s="0"/>
+      <c r="RO63" s="0"/>
+      <c r="RP63" s="0"/>
+      <c r="RQ63" s="0"/>
+      <c r="RR63" s="0"/>
+      <c r="RS63" s="0"/>
+      <c r="RT63" s="0"/>
+      <c r="RU63" s="0"/>
+      <c r="RV63" s="0"/>
+      <c r="RW63" s="0"/>
+      <c r="RX63" s="0"/>
+      <c r="RY63" s="0"/>
+      <c r="RZ63" s="0"/>
+      <c r="SA63" s="0"/>
+      <c r="SB63" s="0"/>
+      <c r="SC63" s="0"/>
+      <c r="SD63" s="0"/>
+      <c r="SE63" s="0"/>
+      <c r="SF63" s="0"/>
+      <c r="SG63" s="0"/>
+      <c r="SH63" s="0"/>
+      <c r="SI63" s="0"/>
+      <c r="SJ63" s="0"/>
+      <c r="SK63" s="0"/>
+      <c r="SL63" s="0"/>
+      <c r="SM63" s="0"/>
+      <c r="SN63" s="0"/>
+      <c r="SO63" s="0"/>
+      <c r="SP63" s="0"/>
+      <c r="SQ63" s="0"/>
+      <c r="SR63" s="0"/>
+      <c r="SS63" s="0"/>
+      <c r="ST63" s="0"/>
+      <c r="SU63" s="0"/>
+      <c r="SV63" s="0"/>
+      <c r="SW63" s="0"/>
+      <c r="SX63" s="0"/>
+      <c r="SY63" s="0"/>
+      <c r="SZ63" s="0"/>
+      <c r="TA63" s="0"/>
+      <c r="TB63" s="0"/>
+      <c r="TC63" s="0"/>
+      <c r="TD63" s="0"/>
+      <c r="TE63" s="0"/>
+      <c r="TF63" s="0"/>
+      <c r="TG63" s="0"/>
+      <c r="TH63" s="0"/>
+      <c r="TI63" s="0"/>
+      <c r="TJ63" s="0"/>
+      <c r="TK63" s="0"/>
+      <c r="TL63" s="0"/>
+      <c r="TM63" s="0"/>
+      <c r="TN63" s="0"/>
+      <c r="TO63" s="0"/>
+      <c r="TP63" s="0"/>
+      <c r="TQ63" s="0"/>
+      <c r="TR63" s="0"/>
+      <c r="TS63" s="0"/>
+      <c r="TT63" s="0"/>
+      <c r="TU63" s="0"/>
+      <c r="TV63" s="0"/>
+      <c r="TW63" s="0"/>
+      <c r="TX63" s="0"/>
+      <c r="TY63" s="0"/>
+      <c r="TZ63" s="0"/>
+      <c r="UA63" s="0"/>
+      <c r="UB63" s="0"/>
+      <c r="UC63" s="0"/>
+      <c r="UD63" s="0"/>
+      <c r="UE63" s="0"/>
+      <c r="UF63" s="0"/>
+      <c r="UG63" s="0"/>
+      <c r="UH63" s="0"/>
+      <c r="UI63" s="0"/>
+      <c r="UJ63" s="0"/>
+      <c r="UK63" s="0"/>
+      <c r="UL63" s="0"/>
+      <c r="UM63" s="0"/>
+      <c r="UN63" s="0"/>
+      <c r="UO63" s="0"/>
+      <c r="UP63" s="0"/>
+      <c r="UQ63" s="0"/>
+      <c r="UR63" s="0"/>
+      <c r="US63" s="0"/>
+      <c r="UT63" s="0"/>
+      <c r="UU63" s="0"/>
+      <c r="UV63" s="0"/>
+      <c r="UW63" s="0"/>
+      <c r="UX63" s="0"/>
+      <c r="UY63" s="0"/>
+      <c r="UZ63" s="0"/>
+      <c r="VA63" s="0"/>
+      <c r="VB63" s="0"/>
+      <c r="VC63" s="0"/>
+      <c r="VD63" s="0"/>
+      <c r="VE63" s="0"/>
+      <c r="VF63" s="0"/>
+      <c r="VG63" s="0"/>
+      <c r="VH63" s="0"/>
+      <c r="VI63" s="0"/>
+      <c r="VJ63" s="0"/>
+      <c r="VK63" s="0"/>
+      <c r="VL63" s="0"/>
+      <c r="VM63" s="0"/>
+      <c r="VN63" s="0"/>
+      <c r="VO63" s="0"/>
+      <c r="VP63" s="0"/>
+      <c r="VQ63" s="0"/>
+      <c r="VR63" s="0"/>
+      <c r="VS63" s="0"/>
+      <c r="VT63" s="0"/>
+      <c r="VU63" s="0"/>
+      <c r="VV63" s="0"/>
+      <c r="VW63" s="0"/>
+      <c r="VX63" s="0"/>
+      <c r="VY63" s="0"/>
+      <c r="VZ63" s="0"/>
+      <c r="WA63" s="0"/>
+      <c r="WB63" s="0"/>
+      <c r="WC63" s="0"/>
+      <c r="WD63" s="0"/>
+      <c r="WE63" s="0"/>
+      <c r="WF63" s="0"/>
+      <c r="WG63" s="0"/>
+      <c r="WH63" s="0"/>
+      <c r="WI63" s="0"/>
+      <c r="WJ63" s="0"/>
+      <c r="WK63" s="0"/>
+      <c r="WL63" s="0"/>
+      <c r="WM63" s="0"/>
+      <c r="WN63" s="0"/>
+      <c r="WO63" s="0"/>
+      <c r="WP63" s="0"/>
+      <c r="WQ63" s="0"/>
+      <c r="WR63" s="0"/>
+      <c r="WS63" s="0"/>
+      <c r="WT63" s="0"/>
+      <c r="WU63" s="0"/>
+      <c r="WV63" s="0"/>
+      <c r="WW63" s="0"/>
+      <c r="WX63" s="0"/>
+      <c r="WY63" s="0"/>
+      <c r="WZ63" s="0"/>
+      <c r="XA63" s="0"/>
+      <c r="XB63" s="0"/>
+      <c r="XC63" s="0"/>
+      <c r="XD63" s="0"/>
+      <c r="XE63" s="0"/>
+      <c r="XF63" s="0"/>
+      <c r="XG63" s="0"/>
+      <c r="XH63" s="0"/>
+      <c r="XI63" s="0"/>
+      <c r="XJ63" s="0"/>
+      <c r="XK63" s="0"/>
+      <c r="XL63" s="0"/>
+      <c r="XM63" s="0"/>
+      <c r="XN63" s="0"/>
+      <c r="XO63" s="0"/>
+      <c r="XP63" s="0"/>
+      <c r="XQ63" s="0"/>
+      <c r="XR63" s="0"/>
+      <c r="XS63" s="0"/>
+      <c r="XT63" s="0"/>
+      <c r="XU63" s="0"/>
+      <c r="XV63" s="0"/>
+      <c r="XW63" s="0"/>
+      <c r="XX63" s="0"/>
+      <c r="XY63" s="0"/>
+      <c r="XZ63" s="0"/>
+      <c r="YA63" s="0"/>
+      <c r="YB63" s="0"/>
+      <c r="YC63" s="0"/>
+      <c r="YD63" s="0"/>
+      <c r="YE63" s="0"/>
+      <c r="YF63" s="0"/>
+      <c r="YG63" s="0"/>
+      <c r="YH63" s="0"/>
+      <c r="YI63" s="0"/>
+      <c r="YJ63" s="0"/>
+      <c r="YK63" s="0"/>
+      <c r="YL63" s="0"/>
+      <c r="YM63" s="0"/>
+      <c r="YN63" s="0"/>
+      <c r="YO63" s="0"/>
+      <c r="YP63" s="0"/>
+      <c r="YQ63" s="0"/>
+      <c r="YR63" s="0"/>
+      <c r="YS63" s="0"/>
+      <c r="YT63" s="0"/>
+      <c r="YU63" s="0"/>
+      <c r="YV63" s="0"/>
+      <c r="YW63" s="0"/>
+      <c r="YX63" s="0"/>
+      <c r="YY63" s="0"/>
+      <c r="YZ63" s="0"/>
+      <c r="ZA63" s="0"/>
+      <c r="ZB63" s="0"/>
+      <c r="ZC63" s="0"/>
+      <c r="ZD63" s="0"/>
+      <c r="ZE63" s="0"/>
+      <c r="ZF63" s="0"/>
+      <c r="ZG63" s="0"/>
+      <c r="ZH63" s="0"/>
+      <c r="ZI63" s="0"/>
+      <c r="ZJ63" s="0"/>
+      <c r="ZK63" s="0"/>
+      <c r="ZL63" s="0"/>
+      <c r="ZM63" s="0"/>
+      <c r="ZN63" s="0"/>
+      <c r="ZO63" s="0"/>
+      <c r="ZP63" s="0"/>
+      <c r="ZQ63" s="0"/>
+      <c r="ZR63" s="0"/>
+      <c r="ZS63" s="0"/>
+      <c r="ZT63" s="0"/>
+      <c r="ZU63" s="0"/>
+      <c r="ZV63" s="0"/>
+      <c r="ZW63" s="0"/>
+      <c r="ZX63" s="0"/>
+      <c r="ZY63" s="0"/>
+      <c r="ZZ63" s="0"/>
+      <c r="AAA63" s="0"/>
+      <c r="AAB63" s="0"/>
+      <c r="AAC63" s="0"/>
+      <c r="AAD63" s="0"/>
+      <c r="AAE63" s="0"/>
+      <c r="AAF63" s="0"/>
+      <c r="AAG63" s="0"/>
+      <c r="AAH63" s="0"/>
+      <c r="AAI63" s="0"/>
+      <c r="AAJ63" s="0"/>
+      <c r="AAK63" s="0"/>
+      <c r="AAL63" s="0"/>
+      <c r="AAM63" s="0"/>
+      <c r="AAN63" s="0"/>
+      <c r="AAO63" s="0"/>
+      <c r="AAP63" s="0"/>
+      <c r="AAQ63" s="0"/>
+      <c r="AAR63" s="0"/>
+      <c r="AAS63" s="0"/>
+      <c r="AAT63" s="0"/>
+      <c r="AAU63" s="0"/>
+      <c r="AAV63" s="0"/>
+      <c r="AAW63" s="0"/>
+      <c r="AAX63" s="0"/>
+      <c r="AAY63" s="0"/>
+      <c r="AAZ63" s="0"/>
+      <c r="ABA63" s="0"/>
+      <c r="ABB63" s="0"/>
+      <c r="ABC63" s="0"/>
+      <c r="ABD63" s="0"/>
+      <c r="ABE63" s="0"/>
+      <c r="ABF63" s="0"/>
+      <c r="ABG63" s="0"/>
+      <c r="ABH63" s="0"/>
+      <c r="ABI63" s="0"/>
+      <c r="ABJ63" s="0"/>
+      <c r="ABK63" s="0"/>
+      <c r="ABL63" s="0"/>
+      <c r="ABM63" s="0"/>
+      <c r="ABN63" s="0"/>
+      <c r="ABO63" s="0"/>
+      <c r="ABP63" s="0"/>
+      <c r="ABQ63" s="0"/>
+      <c r="ABR63" s="0"/>
+      <c r="ABS63" s="0"/>
+      <c r="ABT63" s="0"/>
+      <c r="ABU63" s="0"/>
+      <c r="ABV63" s="0"/>
+      <c r="ABW63" s="0"/>
+      <c r="ABX63" s="0"/>
+      <c r="ABY63" s="0"/>
+      <c r="ABZ63" s="0"/>
+      <c r="ACA63" s="0"/>
+      <c r="ACB63" s="0"/>
+      <c r="ACC63" s="0"/>
+      <c r="ACD63" s="0"/>
+      <c r="ACE63" s="0"/>
+      <c r="ACF63" s="0"/>
+      <c r="ACG63" s="0"/>
+      <c r="ACH63" s="0"/>
+      <c r="ACI63" s="0"/>
+      <c r="ACJ63" s="0"/>
+      <c r="ACK63" s="0"/>
+      <c r="ACL63" s="0"/>
+      <c r="ACM63" s="0"/>
+      <c r="ACN63" s="0"/>
+      <c r="ACO63" s="0"/>
+      <c r="ACP63" s="0"/>
+      <c r="ACQ63" s="0"/>
+      <c r="ACR63" s="0"/>
+      <c r="ACS63" s="0"/>
+      <c r="ACT63" s="0"/>
+      <c r="ACU63" s="0"/>
+      <c r="ACV63" s="0"/>
+      <c r="ACW63" s="0"/>
+      <c r="ACX63" s="0"/>
+      <c r="ACY63" s="0"/>
+      <c r="ACZ63" s="0"/>
+      <c r="ADA63" s="0"/>
+      <c r="ADB63" s="0"/>
+      <c r="ADC63" s="0"/>
+      <c r="ADD63" s="0"/>
+      <c r="ADE63" s="0"/>
+      <c r="ADF63" s="0"/>
+      <c r="ADG63" s="0"/>
+      <c r="ADH63" s="0"/>
+      <c r="ADI63" s="0"/>
+      <c r="ADJ63" s="0"/>
+      <c r="ADK63" s="0"/>
+      <c r="ADL63" s="0"/>
+      <c r="ADM63" s="0"/>
+      <c r="ADN63" s="0"/>
+      <c r="ADO63" s="0"/>
+      <c r="ADP63" s="0"/>
+      <c r="ADQ63" s="0"/>
+      <c r="ADR63" s="0"/>
+      <c r="ADS63" s="0"/>
+      <c r="ADT63" s="0"/>
+      <c r="ADU63" s="0"/>
+      <c r="ADV63" s="0"/>
+      <c r="ADW63" s="0"/>
+      <c r="ADX63" s="0"/>
+      <c r="ADY63" s="0"/>
+      <c r="ADZ63" s="0"/>
+      <c r="AEA63" s="0"/>
+      <c r="AEB63" s="0"/>
+      <c r="AEC63" s="0"/>
+      <c r="AED63" s="0"/>
+      <c r="AEE63" s="0"/>
+      <c r="AEF63" s="0"/>
+      <c r="AEG63" s="0"/>
+      <c r="AEH63" s="0"/>
+      <c r="AEI63" s="0"/>
+      <c r="AEJ63" s="0"/>
+      <c r="AEK63" s="0"/>
+      <c r="AEL63" s="0"/>
+      <c r="AEM63" s="0"/>
+      <c r="AEN63" s="0"/>
+      <c r="AEO63" s="0"/>
+      <c r="AEP63" s="0"/>
+      <c r="AEQ63" s="0"/>
+      <c r="AER63" s="0"/>
+      <c r="AES63" s="0"/>
+      <c r="AET63" s="0"/>
+      <c r="AEU63" s="0"/>
+      <c r="AEV63" s="0"/>
+      <c r="AEW63" s="0"/>
+      <c r="AEX63" s="0"/>
+      <c r="AEY63" s="0"/>
+      <c r="AEZ63" s="0"/>
+      <c r="AFA63" s="0"/>
+      <c r="AFB63" s="0"/>
+      <c r="AFC63" s="0"/>
+      <c r="AFD63" s="0"/>
+      <c r="AFE63" s="0"/>
+      <c r="AFF63" s="0"/>
+      <c r="AFG63" s="0"/>
+      <c r="AFH63" s="0"/>
+      <c r="AFI63" s="0"/>
+      <c r="AFJ63" s="0"/>
+      <c r="AFK63" s="0"/>
+      <c r="AFL63" s="0"/>
+      <c r="AFM63" s="0"/>
+      <c r="AFN63" s="0"/>
+      <c r="AFO63" s="0"/>
+      <c r="AFP63" s="0"/>
+      <c r="AFQ63" s="0"/>
+      <c r="AFR63" s="0"/>
+      <c r="AFS63" s="0"/>
+      <c r="AFT63" s="0"/>
+      <c r="AFU63" s="0"/>
+      <c r="AFV63" s="0"/>
+      <c r="AFW63" s="0"/>
+      <c r="AFX63" s="0"/>
+      <c r="AFY63" s="0"/>
+      <c r="AFZ63" s="0"/>
+      <c r="AGA63" s="0"/>
+      <c r="AGB63" s="0"/>
+      <c r="AGC63" s="0"/>
+      <c r="AGD63" s="0"/>
+      <c r="AGE63" s="0"/>
+      <c r="AGF63" s="0"/>
+      <c r="AGG63" s="0"/>
+      <c r="AGH63" s="0"/>
+      <c r="AGI63" s="0"/>
+      <c r="AGJ63" s="0"/>
+      <c r="AGK63" s="0"/>
+      <c r="AGL63" s="0"/>
+      <c r="AGM63" s="0"/>
+      <c r="AGN63" s="0"/>
+      <c r="AGO63" s="0"/>
+      <c r="AGP63" s="0"/>
+      <c r="AGQ63" s="0"/>
+      <c r="AGR63" s="0"/>
+      <c r="AGS63" s="0"/>
+      <c r="AGT63" s="0"/>
+      <c r="AGU63" s="0"/>
+      <c r="AGV63" s="0"/>
+      <c r="AGW63" s="0"/>
+      <c r="AGX63" s="0"/>
+      <c r="AGY63" s="0"/>
+      <c r="AGZ63" s="0"/>
+      <c r="AHA63" s="0"/>
+      <c r="AHB63" s="0"/>
+      <c r="AHC63" s="0"/>
+      <c r="AHD63" s="0"/>
+      <c r="AHE63" s="0"/>
+      <c r="AHF63" s="0"/>
+      <c r="AHG63" s="0"/>
+      <c r="AHH63" s="0"/>
+      <c r="AHI63" s="0"/>
+      <c r="AHJ63" s="0"/>
+      <c r="AHK63" s="0"/>
+      <c r="AHL63" s="0"/>
+      <c r="AHM63" s="0"/>
+      <c r="AHN63" s="0"/>
+      <c r="AHO63" s="0"/>
+      <c r="AHP63" s="0"/>
+      <c r="AHQ63" s="0"/>
+      <c r="AHR63" s="0"/>
+      <c r="AHS63" s="0"/>
+      <c r="AHT63" s="0"/>
+      <c r="AHU63" s="0"/>
+      <c r="AHV63" s="0"/>
+      <c r="AHW63" s="0"/>
+      <c r="AHX63" s="0"/>
+      <c r="AHY63" s="0"/>
+      <c r="AHZ63" s="0"/>
+      <c r="AIA63" s="0"/>
+      <c r="AIB63" s="0"/>
+      <c r="AIC63" s="0"/>
+      <c r="AID63" s="0"/>
+      <c r="AIE63" s="0"/>
+      <c r="AIF63" s="0"/>
+      <c r="AIG63" s="0"/>
+      <c r="AIH63" s="0"/>
+      <c r="AII63" s="0"/>
+      <c r="AIJ63" s="0"/>
+      <c r="AIK63" s="0"/>
+      <c r="AIL63" s="0"/>
+      <c r="AIM63" s="0"/>
+      <c r="AIN63" s="0"/>
+      <c r="AIO63" s="0"/>
+      <c r="AIP63" s="0"/>
+      <c r="AIQ63" s="0"/>
+      <c r="AIR63" s="0"/>
+      <c r="AIS63" s="0"/>
+      <c r="AIT63" s="0"/>
+      <c r="AIU63" s="0"/>
+      <c r="AIV63" s="0"/>
+      <c r="AIW63" s="0"/>
+      <c r="AIX63" s="0"/>
+      <c r="AIY63" s="0"/>
+      <c r="AIZ63" s="0"/>
+      <c r="AJA63" s="0"/>
+      <c r="AJB63" s="0"/>
+      <c r="AJC63" s="0"/>
+      <c r="AJD63" s="0"/>
+      <c r="AJE63" s="0"/>
+      <c r="AJF63" s="0"/>
+      <c r="AJG63" s="0"/>
+      <c r="AJH63" s="0"/>
+      <c r="AJI63" s="0"/>
+      <c r="AJJ63" s="0"/>
+      <c r="AJK63" s="0"/>
+      <c r="AJL63" s="0"/>
+      <c r="AJM63" s="0"/>
+      <c r="AJN63" s="0"/>
+      <c r="AJO63" s="0"/>
+      <c r="AJP63" s="0"/>
+      <c r="AJQ63" s="0"/>
+      <c r="AJR63" s="0"/>
+      <c r="AJS63" s="0"/>
+      <c r="AJT63" s="0"/>
+      <c r="AJU63" s="0"/>
+      <c r="AJV63" s="0"/>
+      <c r="AJW63" s="0"/>
+      <c r="AJX63" s="0"/>
+      <c r="AJY63" s="0"/>
+      <c r="AJZ63" s="0"/>
+      <c r="AKA63" s="0"/>
+      <c r="AKB63" s="0"/>
+      <c r="AKC63" s="0"/>
+      <c r="AKD63" s="0"/>
+      <c r="AKE63" s="0"/>
+      <c r="AKF63" s="0"/>
+      <c r="AKG63" s="0"/>
+      <c r="AKH63" s="0"/>
+      <c r="AKI63" s="0"/>
+      <c r="AKJ63" s="0"/>
+      <c r="AKK63" s="0"/>
+      <c r="AKL63" s="0"/>
+      <c r="AKM63" s="0"/>
+      <c r="AKN63" s="0"/>
+      <c r="AKO63" s="0"/>
+      <c r="AKP63" s="0"/>
+      <c r="AKQ63" s="0"/>
+      <c r="AKR63" s="0"/>
+      <c r="AKS63" s="0"/>
+      <c r="AKT63" s="0"/>
+      <c r="AKU63" s="0"/>
+      <c r="AKV63" s="0"/>
+      <c r="AKW63" s="0"/>
+      <c r="AKX63" s="0"/>
+      <c r="AKY63" s="0"/>
+      <c r="AKZ63" s="0"/>
+      <c r="ALA63" s="0"/>
+      <c r="ALB63" s="0"/>
+      <c r="ALC63" s="0"/>
+      <c r="ALD63" s="0"/>
+      <c r="ALE63" s="0"/>
+      <c r="ALF63" s="0"/>
+      <c r="ALG63" s="0"/>
+      <c r="ALH63" s="0"/>
+      <c r="ALI63" s="0"/>
+      <c r="ALJ63" s="0"/>
+      <c r="ALK63" s="0"/>
+      <c r="ALL63" s="0"/>
+      <c r="ALM63" s="0"/>
+      <c r="ALN63" s="0"/>
+      <c r="ALO63" s="0"/>
+      <c r="ALP63" s="0"/>
+      <c r="ALQ63" s="0"/>
+      <c r="ALR63" s="0"/>
+      <c r="ALS63" s="0"/>
+      <c r="ALT63" s="0"/>
+      <c r="ALU63" s="0"/>
+      <c r="ALV63" s="0"/>
+      <c r="ALW63" s="0"/>
+      <c r="ALX63" s="0"/>
+      <c r="ALY63" s="0"/>
+      <c r="ALZ63" s="0"/>
+      <c r="AMA63" s="0"/>
+      <c r="AMB63" s="0"/>
+      <c r="AMC63" s="0"/>
+      <c r="AMD63" s="0"/>
+      <c r="AME63" s="0"/>
+      <c r="AMF63" s="0"/>
+      <c r="AMG63" s="0"/>
+      <c r="AMH63" s="0"/>
+      <c r="AMI63" s="0"/>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="5"/>
       <c r="B64" s="6" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D64" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E64" s="15" t="s">
+      <c r="E64" s="10" t="s">
         <v>11</v>
       </c>
       <c r="F64" s="6" t="s">
@@ -48162,20 +53205,1034 @@
       <c r="G64" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="H64" s="15" t="s">
+      <c r="H64" s="10" t="s">
         <v>12</v>
       </c>
       <c r="I64" s="6" t="s">
         <v>26</v>
       </c>
+      <c r="J64" s="0"/>
+      <c r="K64" s="0"/>
+      <c r="L64" s="0"/>
+      <c r="M64" s="0"/>
+      <c r="N64" s="0"/>
+      <c r="O64" s="0"/>
+      <c r="P64" s="0"/>
+      <c r="Q64" s="0"/>
+      <c r="R64" s="0"/>
+      <c r="S64" s="0"/>
+      <c r="T64" s="0"/>
+      <c r="U64" s="0"/>
+      <c r="V64" s="0"/>
+      <c r="W64" s="0"/>
+      <c r="X64" s="0"/>
+      <c r="Y64" s="0"/>
+      <c r="Z64" s="0"/>
+      <c r="AA64" s="0"/>
+      <c r="AB64" s="0"/>
+      <c r="AC64" s="0"/>
+      <c r="AD64" s="0"/>
+      <c r="AE64" s="0"/>
+      <c r="AF64" s="0"/>
+      <c r="AG64" s="0"/>
+      <c r="AH64" s="0"/>
+      <c r="AI64" s="0"/>
+      <c r="AJ64" s="0"/>
+      <c r="AK64" s="0"/>
+      <c r="AL64" s="0"/>
+      <c r="AM64" s="0"/>
+      <c r="AN64" s="0"/>
+      <c r="AO64" s="0"/>
+      <c r="AP64" s="0"/>
+      <c r="AQ64" s="0"/>
+      <c r="AR64" s="0"/>
+      <c r="AS64" s="0"/>
+      <c r="AT64" s="0"/>
+      <c r="AU64" s="0"/>
+      <c r="AV64" s="0"/>
+      <c r="AW64" s="0"/>
+      <c r="AX64" s="0"/>
+      <c r="AY64" s="0"/>
+      <c r="AZ64" s="0"/>
+      <c r="BA64" s="0"/>
+      <c r="BB64" s="0"/>
+      <c r="BC64" s="0"/>
+      <c r="BD64" s="0"/>
+      <c r="BE64" s="0"/>
+      <c r="BF64" s="0"/>
+      <c r="BG64" s="0"/>
+      <c r="BH64" s="0"/>
+      <c r="BI64" s="0"/>
+      <c r="BJ64" s="0"/>
+      <c r="BK64" s="0"/>
+      <c r="BL64" s="0"/>
+      <c r="BM64" s="0"/>
+      <c r="BN64" s="0"/>
+      <c r="BO64" s="0"/>
+      <c r="BP64" s="0"/>
+      <c r="BQ64" s="0"/>
+      <c r="BR64" s="0"/>
+      <c r="BS64" s="0"/>
+      <c r="BT64" s="0"/>
+      <c r="BU64" s="0"/>
+      <c r="BV64" s="0"/>
+      <c r="BW64" s="0"/>
+      <c r="BX64" s="0"/>
+      <c r="BY64" s="0"/>
+      <c r="BZ64" s="0"/>
+      <c r="CA64" s="0"/>
+      <c r="CB64" s="0"/>
+      <c r="CC64" s="0"/>
+      <c r="CD64" s="0"/>
+      <c r="CE64" s="0"/>
+      <c r="CF64" s="0"/>
+      <c r="CG64" s="0"/>
+      <c r="CH64" s="0"/>
+      <c r="CI64" s="0"/>
+      <c r="CJ64" s="0"/>
+      <c r="CK64" s="0"/>
+      <c r="CL64" s="0"/>
+      <c r="CM64" s="0"/>
+      <c r="CN64" s="0"/>
+      <c r="CO64" s="0"/>
+      <c r="CP64" s="0"/>
+      <c r="CQ64" s="0"/>
+      <c r="CR64" s="0"/>
+      <c r="CS64" s="0"/>
+      <c r="CT64" s="0"/>
+      <c r="CU64" s="0"/>
+      <c r="CV64" s="0"/>
+      <c r="CW64" s="0"/>
+      <c r="CX64" s="0"/>
+      <c r="CY64" s="0"/>
+      <c r="CZ64" s="0"/>
+      <c r="DA64" s="0"/>
+      <c r="DB64" s="0"/>
+      <c r="DC64" s="0"/>
+      <c r="DD64" s="0"/>
+      <c r="DE64" s="0"/>
+      <c r="DF64" s="0"/>
+      <c r="DG64" s="0"/>
+      <c r="DH64" s="0"/>
+      <c r="DI64" s="0"/>
+      <c r="DJ64" s="0"/>
+      <c r="DK64" s="0"/>
+      <c r="DL64" s="0"/>
+      <c r="DM64" s="0"/>
+      <c r="DN64" s="0"/>
+      <c r="DO64" s="0"/>
+      <c r="DP64" s="0"/>
+      <c r="DQ64" s="0"/>
+      <c r="DR64" s="0"/>
+      <c r="DS64" s="0"/>
+      <c r="DT64" s="0"/>
+      <c r="DU64" s="0"/>
+      <c r="DV64" s="0"/>
+      <c r="DW64" s="0"/>
+      <c r="DX64" s="0"/>
+      <c r="DY64" s="0"/>
+      <c r="DZ64" s="0"/>
+      <c r="EA64" s="0"/>
+      <c r="EB64" s="0"/>
+      <c r="EC64" s="0"/>
+      <c r="ED64" s="0"/>
+      <c r="EE64" s="0"/>
+      <c r="EF64" s="0"/>
+      <c r="EG64" s="0"/>
+      <c r="EH64" s="0"/>
+      <c r="EI64" s="0"/>
+      <c r="EJ64" s="0"/>
+      <c r="EK64" s="0"/>
+      <c r="EL64" s="0"/>
+      <c r="EM64" s="0"/>
+      <c r="EN64" s="0"/>
+      <c r="EO64" s="0"/>
+      <c r="EP64" s="0"/>
+      <c r="EQ64" s="0"/>
+      <c r="ER64" s="0"/>
+      <c r="ES64" s="0"/>
+      <c r="ET64" s="0"/>
+      <c r="EU64" s="0"/>
+      <c r="EV64" s="0"/>
+      <c r="EW64" s="0"/>
+      <c r="EX64" s="0"/>
+      <c r="EY64" s="0"/>
+      <c r="EZ64" s="0"/>
+      <c r="FA64" s="0"/>
+      <c r="FB64" s="0"/>
+      <c r="FC64" s="0"/>
+      <c r="FD64" s="0"/>
+      <c r="FE64" s="0"/>
+      <c r="FF64" s="0"/>
+      <c r="FG64" s="0"/>
+      <c r="FH64" s="0"/>
+      <c r="FI64" s="0"/>
+      <c r="FJ64" s="0"/>
+      <c r="FK64" s="0"/>
+      <c r="FL64" s="0"/>
+      <c r="FM64" s="0"/>
+      <c r="FN64" s="0"/>
+      <c r="FO64" s="0"/>
+      <c r="FP64" s="0"/>
+      <c r="FQ64" s="0"/>
+      <c r="FR64" s="0"/>
+      <c r="FS64" s="0"/>
+      <c r="FT64" s="0"/>
+      <c r="FU64" s="0"/>
+      <c r="FV64" s="0"/>
+      <c r="FW64" s="0"/>
+      <c r="FX64" s="0"/>
+      <c r="FY64" s="0"/>
+      <c r="FZ64" s="0"/>
+      <c r="GA64" s="0"/>
+      <c r="GB64" s="0"/>
+      <c r="GC64" s="0"/>
+      <c r="GD64" s="0"/>
+      <c r="GE64" s="0"/>
+      <c r="GF64" s="0"/>
+      <c r="GG64" s="0"/>
+      <c r="GH64" s="0"/>
+      <c r="GI64" s="0"/>
+      <c r="GJ64" s="0"/>
+      <c r="GK64" s="0"/>
+      <c r="GL64" s="0"/>
+      <c r="GM64" s="0"/>
+      <c r="GN64" s="0"/>
+      <c r="GO64" s="0"/>
+      <c r="GP64" s="0"/>
+      <c r="GQ64" s="0"/>
+      <c r="GR64" s="0"/>
+      <c r="GS64" s="0"/>
+      <c r="GT64" s="0"/>
+      <c r="GU64" s="0"/>
+      <c r="GV64" s="0"/>
+      <c r="GW64" s="0"/>
+      <c r="GX64" s="0"/>
+      <c r="GY64" s="0"/>
+      <c r="GZ64" s="0"/>
+      <c r="HA64" s="0"/>
+      <c r="HB64" s="0"/>
+      <c r="HC64" s="0"/>
+      <c r="HD64" s="0"/>
+      <c r="HE64" s="0"/>
+      <c r="HF64" s="0"/>
+      <c r="HG64" s="0"/>
+      <c r="HH64" s="0"/>
+      <c r="HI64" s="0"/>
+      <c r="HJ64" s="0"/>
+      <c r="HK64" s="0"/>
+      <c r="HL64" s="0"/>
+      <c r="HM64" s="0"/>
+      <c r="HN64" s="0"/>
+      <c r="HO64" s="0"/>
+      <c r="HP64" s="0"/>
+      <c r="HQ64" s="0"/>
+      <c r="HR64" s="0"/>
+      <c r="HS64" s="0"/>
+      <c r="HT64" s="0"/>
+      <c r="HU64" s="0"/>
+      <c r="HV64" s="0"/>
+      <c r="HW64" s="0"/>
+      <c r="HX64" s="0"/>
+      <c r="HY64" s="0"/>
+      <c r="HZ64" s="0"/>
+      <c r="IA64" s="0"/>
+      <c r="IB64" s="0"/>
+      <c r="IC64" s="0"/>
+      <c r="ID64" s="0"/>
+      <c r="IE64" s="0"/>
+      <c r="IF64" s="0"/>
+      <c r="IG64" s="0"/>
+      <c r="IH64" s="0"/>
+      <c r="II64" s="0"/>
+      <c r="IJ64" s="0"/>
+      <c r="IK64" s="0"/>
+      <c r="IL64" s="0"/>
+      <c r="IM64" s="0"/>
+      <c r="IN64" s="0"/>
+      <c r="IO64" s="0"/>
+      <c r="IP64" s="0"/>
+      <c r="IQ64" s="0"/>
+      <c r="IR64" s="0"/>
+      <c r="IS64" s="0"/>
+      <c r="IT64" s="0"/>
+      <c r="IU64" s="0"/>
+      <c r="IV64" s="0"/>
+      <c r="IW64" s="0"/>
+      <c r="IX64" s="0"/>
+      <c r="IY64" s="0"/>
+      <c r="IZ64" s="0"/>
+      <c r="JA64" s="0"/>
+      <c r="JB64" s="0"/>
+      <c r="JC64" s="0"/>
+      <c r="JD64" s="0"/>
+      <c r="JE64" s="0"/>
+      <c r="JF64" s="0"/>
+      <c r="JG64" s="0"/>
+      <c r="JH64" s="0"/>
+      <c r="JI64" s="0"/>
+      <c r="JJ64" s="0"/>
+      <c r="JK64" s="0"/>
+      <c r="JL64" s="0"/>
+      <c r="JM64" s="0"/>
+      <c r="JN64" s="0"/>
+      <c r="JO64" s="0"/>
+      <c r="JP64" s="0"/>
+      <c r="JQ64" s="0"/>
+      <c r="JR64" s="0"/>
+      <c r="JS64" s="0"/>
+      <c r="JT64" s="0"/>
+      <c r="JU64" s="0"/>
+      <c r="JV64" s="0"/>
+      <c r="JW64" s="0"/>
+      <c r="JX64" s="0"/>
+      <c r="JY64" s="0"/>
+      <c r="JZ64" s="0"/>
+      <c r="KA64" s="0"/>
+      <c r="KB64" s="0"/>
+      <c r="KC64" s="0"/>
+      <c r="KD64" s="0"/>
+      <c r="KE64" s="0"/>
+      <c r="KF64" s="0"/>
+      <c r="KG64" s="0"/>
+      <c r="KH64" s="0"/>
+      <c r="KI64" s="0"/>
+      <c r="KJ64" s="0"/>
+      <c r="KK64" s="0"/>
+      <c r="KL64" s="0"/>
+      <c r="KM64" s="0"/>
+      <c r="KN64" s="0"/>
+      <c r="KO64" s="0"/>
+      <c r="KP64" s="0"/>
+      <c r="KQ64" s="0"/>
+      <c r="KR64" s="0"/>
+      <c r="KS64" s="0"/>
+      <c r="KT64" s="0"/>
+      <c r="KU64" s="0"/>
+      <c r="KV64" s="0"/>
+      <c r="KW64" s="0"/>
+      <c r="KX64" s="0"/>
+      <c r="KY64" s="0"/>
+      <c r="KZ64" s="0"/>
+      <c r="LA64" s="0"/>
+      <c r="LB64" s="0"/>
+      <c r="LC64" s="0"/>
+      <c r="LD64" s="0"/>
+      <c r="LE64" s="0"/>
+      <c r="LF64" s="0"/>
+      <c r="LG64" s="0"/>
+      <c r="LH64" s="0"/>
+      <c r="LI64" s="0"/>
+      <c r="LJ64" s="0"/>
+      <c r="LK64" s="0"/>
+      <c r="LL64" s="0"/>
+      <c r="LM64" s="0"/>
+      <c r="LN64" s="0"/>
+      <c r="LO64" s="0"/>
+      <c r="LP64" s="0"/>
+      <c r="LQ64" s="0"/>
+      <c r="LR64" s="0"/>
+      <c r="LS64" s="0"/>
+      <c r="LT64" s="0"/>
+      <c r="LU64" s="0"/>
+      <c r="LV64" s="0"/>
+      <c r="LW64" s="0"/>
+      <c r="LX64" s="0"/>
+      <c r="LY64" s="0"/>
+      <c r="LZ64" s="0"/>
+      <c r="MA64" s="0"/>
+      <c r="MB64" s="0"/>
+      <c r="MC64" s="0"/>
+      <c r="MD64" s="0"/>
+      <c r="ME64" s="0"/>
+      <c r="MF64" s="0"/>
+      <c r="MG64" s="0"/>
+      <c r="MH64" s="0"/>
+      <c r="MI64" s="0"/>
+      <c r="MJ64" s="0"/>
+      <c r="MK64" s="0"/>
+      <c r="ML64" s="0"/>
+      <c r="MM64" s="0"/>
+      <c r="MN64" s="0"/>
+      <c r="MO64" s="0"/>
+      <c r="MP64" s="0"/>
+      <c r="MQ64" s="0"/>
+      <c r="MR64" s="0"/>
+      <c r="MS64" s="0"/>
+      <c r="MT64" s="0"/>
+      <c r="MU64" s="0"/>
+      <c r="MV64" s="0"/>
+      <c r="MW64" s="0"/>
+      <c r="MX64" s="0"/>
+      <c r="MY64" s="0"/>
+      <c r="MZ64" s="0"/>
+      <c r="NA64" s="0"/>
+      <c r="NB64" s="0"/>
+      <c r="NC64" s="0"/>
+      <c r="ND64" s="0"/>
+      <c r="NE64" s="0"/>
+      <c r="NF64" s="0"/>
+      <c r="NG64" s="0"/>
+      <c r="NH64" s="0"/>
+      <c r="NI64" s="0"/>
+      <c r="NJ64" s="0"/>
+      <c r="NK64" s="0"/>
+      <c r="NL64" s="0"/>
+      <c r="NM64" s="0"/>
+      <c r="NN64" s="0"/>
+      <c r="NO64" s="0"/>
+      <c r="NP64" s="0"/>
+      <c r="NQ64" s="0"/>
+      <c r="NR64" s="0"/>
+      <c r="NS64" s="0"/>
+      <c r="NT64" s="0"/>
+      <c r="NU64" s="0"/>
+      <c r="NV64" s="0"/>
+      <c r="NW64" s="0"/>
+      <c r="NX64" s="0"/>
+      <c r="NY64" s="0"/>
+      <c r="NZ64" s="0"/>
+      <c r="OA64" s="0"/>
+      <c r="OB64" s="0"/>
+      <c r="OC64" s="0"/>
+      <c r="OD64" s="0"/>
+      <c r="OE64" s="0"/>
+      <c r="OF64" s="0"/>
+      <c r="OG64" s="0"/>
+      <c r="OH64" s="0"/>
+      <c r="OI64" s="0"/>
+      <c r="OJ64" s="0"/>
+      <c r="OK64" s="0"/>
+      <c r="OL64" s="0"/>
+      <c r="OM64" s="0"/>
+      <c r="ON64" s="0"/>
+      <c r="OO64" s="0"/>
+      <c r="OP64" s="0"/>
+      <c r="OQ64" s="0"/>
+      <c r="OR64" s="0"/>
+      <c r="OS64" s="0"/>
+      <c r="OT64" s="0"/>
+      <c r="OU64" s="0"/>
+      <c r="OV64" s="0"/>
+      <c r="OW64" s="0"/>
+      <c r="OX64" s="0"/>
+      <c r="OY64" s="0"/>
+      <c r="OZ64" s="0"/>
+      <c r="PA64" s="0"/>
+      <c r="PB64" s="0"/>
+      <c r="PC64" s="0"/>
+      <c r="PD64" s="0"/>
+      <c r="PE64" s="0"/>
+      <c r="PF64" s="0"/>
+      <c r="PG64" s="0"/>
+      <c r="PH64" s="0"/>
+      <c r="PI64" s="0"/>
+      <c r="PJ64" s="0"/>
+      <c r="PK64" s="0"/>
+      <c r="PL64" s="0"/>
+      <c r="PM64" s="0"/>
+      <c r="PN64" s="0"/>
+      <c r="PO64" s="0"/>
+      <c r="PP64" s="0"/>
+      <c r="PQ64" s="0"/>
+      <c r="PR64" s="0"/>
+      <c r="PS64" s="0"/>
+      <c r="PT64" s="0"/>
+      <c r="PU64" s="0"/>
+      <c r="PV64" s="0"/>
+      <c r="PW64" s="0"/>
+      <c r="PX64" s="0"/>
+      <c r="PY64" s="0"/>
+      <c r="PZ64" s="0"/>
+      <c r="QA64" s="0"/>
+      <c r="QB64" s="0"/>
+      <c r="QC64" s="0"/>
+      <c r="QD64" s="0"/>
+      <c r="QE64" s="0"/>
+      <c r="QF64" s="0"/>
+      <c r="QG64" s="0"/>
+      <c r="QH64" s="0"/>
+      <c r="QI64" s="0"/>
+      <c r="QJ64" s="0"/>
+      <c r="QK64" s="0"/>
+      <c r="QL64" s="0"/>
+      <c r="QM64" s="0"/>
+      <c r="QN64" s="0"/>
+      <c r="QO64" s="0"/>
+      <c r="QP64" s="0"/>
+      <c r="QQ64" s="0"/>
+      <c r="QR64" s="0"/>
+      <c r="QS64" s="0"/>
+      <c r="QT64" s="0"/>
+      <c r="QU64" s="0"/>
+      <c r="QV64" s="0"/>
+      <c r="QW64" s="0"/>
+      <c r="QX64" s="0"/>
+      <c r="QY64" s="0"/>
+      <c r="QZ64" s="0"/>
+      <c r="RA64" s="0"/>
+      <c r="RB64" s="0"/>
+      <c r="RC64" s="0"/>
+      <c r="RD64" s="0"/>
+      <c r="RE64" s="0"/>
+      <c r="RF64" s="0"/>
+      <c r="RG64" s="0"/>
+      <c r="RH64" s="0"/>
+      <c r="RI64" s="0"/>
+      <c r="RJ64" s="0"/>
+      <c r="RK64" s="0"/>
+      <c r="RL64" s="0"/>
+      <c r="RM64" s="0"/>
+      <c r="RN64" s="0"/>
+      <c r="RO64" s="0"/>
+      <c r="RP64" s="0"/>
+      <c r="RQ64" s="0"/>
+      <c r="RR64" s="0"/>
+      <c r="RS64" s="0"/>
+      <c r="RT64" s="0"/>
+      <c r="RU64" s="0"/>
+      <c r="RV64" s="0"/>
+      <c r="RW64" s="0"/>
+      <c r="RX64" s="0"/>
+      <c r="RY64" s="0"/>
+      <c r="RZ64" s="0"/>
+      <c r="SA64" s="0"/>
+      <c r="SB64" s="0"/>
+      <c r="SC64" s="0"/>
+      <c r="SD64" s="0"/>
+      <c r="SE64" s="0"/>
+      <c r="SF64" s="0"/>
+      <c r="SG64" s="0"/>
+      <c r="SH64" s="0"/>
+      <c r="SI64" s="0"/>
+      <c r="SJ64" s="0"/>
+      <c r="SK64" s="0"/>
+      <c r="SL64" s="0"/>
+      <c r="SM64" s="0"/>
+      <c r="SN64" s="0"/>
+      <c r="SO64" s="0"/>
+      <c r="SP64" s="0"/>
+      <c r="SQ64" s="0"/>
+      <c r="SR64" s="0"/>
+      <c r="SS64" s="0"/>
+      <c r="ST64" s="0"/>
+      <c r="SU64" s="0"/>
+      <c r="SV64" s="0"/>
+      <c r="SW64" s="0"/>
+      <c r="SX64" s="0"/>
+      <c r="SY64" s="0"/>
+      <c r="SZ64" s="0"/>
+      <c r="TA64" s="0"/>
+      <c r="TB64" s="0"/>
+      <c r="TC64" s="0"/>
+      <c r="TD64" s="0"/>
+      <c r="TE64" s="0"/>
+      <c r="TF64" s="0"/>
+      <c r="TG64" s="0"/>
+      <c r="TH64" s="0"/>
+      <c r="TI64" s="0"/>
+      <c r="TJ64" s="0"/>
+      <c r="TK64" s="0"/>
+      <c r="TL64" s="0"/>
+      <c r="TM64" s="0"/>
+      <c r="TN64" s="0"/>
+      <c r="TO64" s="0"/>
+      <c r="TP64" s="0"/>
+      <c r="TQ64" s="0"/>
+      <c r="TR64" s="0"/>
+      <c r="TS64" s="0"/>
+      <c r="TT64" s="0"/>
+      <c r="TU64" s="0"/>
+      <c r="TV64" s="0"/>
+      <c r="TW64" s="0"/>
+      <c r="TX64" s="0"/>
+      <c r="TY64" s="0"/>
+      <c r="TZ64" s="0"/>
+      <c r="UA64" s="0"/>
+      <c r="UB64" s="0"/>
+      <c r="UC64" s="0"/>
+      <c r="UD64" s="0"/>
+      <c r="UE64" s="0"/>
+      <c r="UF64" s="0"/>
+      <c r="UG64" s="0"/>
+      <c r="UH64" s="0"/>
+      <c r="UI64" s="0"/>
+      <c r="UJ64" s="0"/>
+      <c r="UK64" s="0"/>
+      <c r="UL64" s="0"/>
+      <c r="UM64" s="0"/>
+      <c r="UN64" s="0"/>
+      <c r="UO64" s="0"/>
+      <c r="UP64" s="0"/>
+      <c r="UQ64" s="0"/>
+      <c r="UR64" s="0"/>
+      <c r="US64" s="0"/>
+      <c r="UT64" s="0"/>
+      <c r="UU64" s="0"/>
+      <c r="UV64" s="0"/>
+      <c r="UW64" s="0"/>
+      <c r="UX64" s="0"/>
+      <c r="UY64" s="0"/>
+      <c r="UZ64" s="0"/>
+      <c r="VA64" s="0"/>
+      <c r="VB64" s="0"/>
+      <c r="VC64" s="0"/>
+      <c r="VD64" s="0"/>
+      <c r="VE64" s="0"/>
+      <c r="VF64" s="0"/>
+      <c r="VG64" s="0"/>
+      <c r="VH64" s="0"/>
+      <c r="VI64" s="0"/>
+      <c r="VJ64" s="0"/>
+      <c r="VK64" s="0"/>
+      <c r="VL64" s="0"/>
+      <c r="VM64" s="0"/>
+      <c r="VN64" s="0"/>
+      <c r="VO64" s="0"/>
+      <c r="VP64" s="0"/>
+      <c r="VQ64" s="0"/>
+      <c r="VR64" s="0"/>
+      <c r="VS64" s="0"/>
+      <c r="VT64" s="0"/>
+      <c r="VU64" s="0"/>
+      <c r="VV64" s="0"/>
+      <c r="VW64" s="0"/>
+      <c r="VX64" s="0"/>
+      <c r="VY64" s="0"/>
+      <c r="VZ64" s="0"/>
+      <c r="WA64" s="0"/>
+      <c r="WB64" s="0"/>
+      <c r="WC64" s="0"/>
+      <c r="WD64" s="0"/>
+      <c r="WE64" s="0"/>
+      <c r="WF64" s="0"/>
+      <c r="WG64" s="0"/>
+      <c r="WH64" s="0"/>
+      <c r="WI64" s="0"/>
+      <c r="WJ64" s="0"/>
+      <c r="WK64" s="0"/>
+      <c r="WL64" s="0"/>
+      <c r="WM64" s="0"/>
+      <c r="WN64" s="0"/>
+      <c r="WO64" s="0"/>
+      <c r="WP64" s="0"/>
+      <c r="WQ64" s="0"/>
+      <c r="WR64" s="0"/>
+      <c r="WS64" s="0"/>
+      <c r="WT64" s="0"/>
+      <c r="WU64" s="0"/>
+      <c r="WV64" s="0"/>
+      <c r="WW64" s="0"/>
+      <c r="WX64" s="0"/>
+      <c r="WY64" s="0"/>
+      <c r="WZ64" s="0"/>
+      <c r="XA64" s="0"/>
+      <c r="XB64" s="0"/>
+      <c r="XC64" s="0"/>
+      <c r="XD64" s="0"/>
+      <c r="XE64" s="0"/>
+      <c r="XF64" s="0"/>
+      <c r="XG64" s="0"/>
+      <c r="XH64" s="0"/>
+      <c r="XI64" s="0"/>
+      <c r="XJ64" s="0"/>
+      <c r="XK64" s="0"/>
+      <c r="XL64" s="0"/>
+      <c r="XM64" s="0"/>
+      <c r="XN64" s="0"/>
+      <c r="XO64" s="0"/>
+      <c r="XP64" s="0"/>
+      <c r="XQ64" s="0"/>
+      <c r="XR64" s="0"/>
+      <c r="XS64" s="0"/>
+      <c r="XT64" s="0"/>
+      <c r="XU64" s="0"/>
+      <c r="XV64" s="0"/>
+      <c r="XW64" s="0"/>
+      <c r="XX64" s="0"/>
+      <c r="XY64" s="0"/>
+      <c r="XZ64" s="0"/>
+      <c r="YA64" s="0"/>
+      <c r="YB64" s="0"/>
+      <c r="YC64" s="0"/>
+      <c r="YD64" s="0"/>
+      <c r="YE64" s="0"/>
+      <c r="YF64" s="0"/>
+      <c r="YG64" s="0"/>
+      <c r="YH64" s="0"/>
+      <c r="YI64" s="0"/>
+      <c r="YJ64" s="0"/>
+      <c r="YK64" s="0"/>
+      <c r="YL64" s="0"/>
+      <c r="YM64" s="0"/>
+      <c r="YN64" s="0"/>
+      <c r="YO64" s="0"/>
+      <c r="YP64" s="0"/>
+      <c r="YQ64" s="0"/>
+      <c r="YR64" s="0"/>
+      <c r="YS64" s="0"/>
+      <c r="YT64" s="0"/>
+      <c r="YU64" s="0"/>
+      <c r="YV64" s="0"/>
+      <c r="YW64" s="0"/>
+      <c r="YX64" s="0"/>
+      <c r="YY64" s="0"/>
+      <c r="YZ64" s="0"/>
+      <c r="ZA64" s="0"/>
+      <c r="ZB64" s="0"/>
+      <c r="ZC64" s="0"/>
+      <c r="ZD64" s="0"/>
+      <c r="ZE64" s="0"/>
+      <c r="ZF64" s="0"/>
+      <c r="ZG64" s="0"/>
+      <c r="ZH64" s="0"/>
+      <c r="ZI64" s="0"/>
+      <c r="ZJ64" s="0"/>
+      <c r="ZK64" s="0"/>
+      <c r="ZL64" s="0"/>
+      <c r="ZM64" s="0"/>
+      <c r="ZN64" s="0"/>
+      <c r="ZO64" s="0"/>
+      <c r="ZP64" s="0"/>
+      <c r="ZQ64" s="0"/>
+      <c r="ZR64" s="0"/>
+      <c r="ZS64" s="0"/>
+      <c r="ZT64" s="0"/>
+      <c r="ZU64" s="0"/>
+      <c r="ZV64" s="0"/>
+      <c r="ZW64" s="0"/>
+      <c r="ZX64" s="0"/>
+      <c r="ZY64" s="0"/>
+      <c r="ZZ64" s="0"/>
+      <c r="AAA64" s="0"/>
+      <c r="AAB64" s="0"/>
+      <c r="AAC64" s="0"/>
+      <c r="AAD64" s="0"/>
+      <c r="AAE64" s="0"/>
+      <c r="AAF64" s="0"/>
+      <c r="AAG64" s="0"/>
+      <c r="AAH64" s="0"/>
+      <c r="AAI64" s="0"/>
+      <c r="AAJ64" s="0"/>
+      <c r="AAK64" s="0"/>
+      <c r="AAL64" s="0"/>
+      <c r="AAM64" s="0"/>
+      <c r="AAN64" s="0"/>
+      <c r="AAO64" s="0"/>
+      <c r="AAP64" s="0"/>
+      <c r="AAQ64" s="0"/>
+      <c r="AAR64" s="0"/>
+      <c r="AAS64" s="0"/>
+      <c r="AAT64" s="0"/>
+      <c r="AAU64" s="0"/>
+      <c r="AAV64" s="0"/>
+      <c r="AAW64" s="0"/>
+      <c r="AAX64" s="0"/>
+      <c r="AAY64" s="0"/>
+      <c r="AAZ64" s="0"/>
+      <c r="ABA64" s="0"/>
+      <c r="ABB64" s="0"/>
+      <c r="ABC64" s="0"/>
+      <c r="ABD64" s="0"/>
+      <c r="ABE64" s="0"/>
+      <c r="ABF64" s="0"/>
+      <c r="ABG64" s="0"/>
+      <c r="ABH64" s="0"/>
+      <c r="ABI64" s="0"/>
+      <c r="ABJ64" s="0"/>
+      <c r="ABK64" s="0"/>
+      <c r="ABL64" s="0"/>
+      <c r="ABM64" s="0"/>
+      <c r="ABN64" s="0"/>
+      <c r="ABO64" s="0"/>
+      <c r="ABP64" s="0"/>
+      <c r="ABQ64" s="0"/>
+      <c r="ABR64" s="0"/>
+      <c r="ABS64" s="0"/>
+      <c r="ABT64" s="0"/>
+      <c r="ABU64" s="0"/>
+      <c r="ABV64" s="0"/>
+      <c r="ABW64" s="0"/>
+      <c r="ABX64" s="0"/>
+      <c r="ABY64" s="0"/>
+      <c r="ABZ64" s="0"/>
+      <c r="ACA64" s="0"/>
+      <c r="ACB64" s="0"/>
+      <c r="ACC64" s="0"/>
+      <c r="ACD64" s="0"/>
+      <c r="ACE64" s="0"/>
+      <c r="ACF64" s="0"/>
+      <c r="ACG64" s="0"/>
+      <c r="ACH64" s="0"/>
+      <c r="ACI64" s="0"/>
+      <c r="ACJ64" s="0"/>
+      <c r="ACK64" s="0"/>
+      <c r="ACL64" s="0"/>
+      <c r="ACM64" s="0"/>
+      <c r="ACN64" s="0"/>
+      <c r="ACO64" s="0"/>
+      <c r="ACP64" s="0"/>
+      <c r="ACQ64" s="0"/>
+      <c r="ACR64" s="0"/>
+      <c r="ACS64" s="0"/>
+      <c r="ACT64" s="0"/>
+      <c r="ACU64" s="0"/>
+      <c r="ACV64" s="0"/>
+      <c r="ACW64" s="0"/>
+      <c r="ACX64" s="0"/>
+      <c r="ACY64" s="0"/>
+      <c r="ACZ64" s="0"/>
+      <c r="ADA64" s="0"/>
+      <c r="ADB64" s="0"/>
+      <c r="ADC64" s="0"/>
+      <c r="ADD64" s="0"/>
+      <c r="ADE64" s="0"/>
+      <c r="ADF64" s="0"/>
+      <c r="ADG64" s="0"/>
+      <c r="ADH64" s="0"/>
+      <c r="ADI64" s="0"/>
+      <c r="ADJ64" s="0"/>
+      <c r="ADK64" s="0"/>
+      <c r="ADL64" s="0"/>
+      <c r="ADM64" s="0"/>
+      <c r="ADN64" s="0"/>
+      <c r="ADO64" s="0"/>
+      <c r="ADP64" s="0"/>
+      <c r="ADQ64" s="0"/>
+      <c r="ADR64" s="0"/>
+      <c r="ADS64" s="0"/>
+      <c r="ADT64" s="0"/>
+      <c r="ADU64" s="0"/>
+      <c r="ADV64" s="0"/>
+      <c r="ADW64" s="0"/>
+      <c r="ADX64" s="0"/>
+      <c r="ADY64" s="0"/>
+      <c r="ADZ64" s="0"/>
+      <c r="AEA64" s="0"/>
+      <c r="AEB64" s="0"/>
+      <c r="AEC64" s="0"/>
+      <c r="AED64" s="0"/>
+      <c r="AEE64" s="0"/>
+      <c r="AEF64" s="0"/>
+      <c r="AEG64" s="0"/>
+      <c r="AEH64" s="0"/>
+      <c r="AEI64" s="0"/>
+      <c r="AEJ64" s="0"/>
+      <c r="AEK64" s="0"/>
+      <c r="AEL64" s="0"/>
+      <c r="AEM64" s="0"/>
+      <c r="AEN64" s="0"/>
+      <c r="AEO64" s="0"/>
+      <c r="AEP64" s="0"/>
+      <c r="AEQ64" s="0"/>
+      <c r="AER64" s="0"/>
+      <c r="AES64" s="0"/>
+      <c r="AET64" s="0"/>
+      <c r="AEU64" s="0"/>
+      <c r="AEV64" s="0"/>
+      <c r="AEW64" s="0"/>
+      <c r="AEX64" s="0"/>
+      <c r="AEY64" s="0"/>
+      <c r="AEZ64" s="0"/>
+      <c r="AFA64" s="0"/>
+      <c r="AFB64" s="0"/>
+      <c r="AFC64" s="0"/>
+      <c r="AFD64" s="0"/>
+      <c r="AFE64" s="0"/>
+      <c r="AFF64" s="0"/>
+      <c r="AFG64" s="0"/>
+      <c r="AFH64" s="0"/>
+      <c r="AFI64" s="0"/>
+      <c r="AFJ64" s="0"/>
+      <c r="AFK64" s="0"/>
+      <c r="AFL64" s="0"/>
+      <c r="AFM64" s="0"/>
+      <c r="AFN64" s="0"/>
+      <c r="AFO64" s="0"/>
+      <c r="AFP64" s="0"/>
+      <c r="AFQ64" s="0"/>
+      <c r="AFR64" s="0"/>
+      <c r="AFS64" s="0"/>
+      <c r="AFT64" s="0"/>
+      <c r="AFU64" s="0"/>
+      <c r="AFV64" s="0"/>
+      <c r="AFW64" s="0"/>
+      <c r="AFX64" s="0"/>
+      <c r="AFY64" s="0"/>
+      <c r="AFZ64" s="0"/>
+      <c r="AGA64" s="0"/>
+      <c r="AGB64" s="0"/>
+      <c r="AGC64" s="0"/>
+      <c r="AGD64" s="0"/>
+      <c r="AGE64" s="0"/>
+      <c r="AGF64" s="0"/>
+      <c r="AGG64" s="0"/>
+      <c r="AGH64" s="0"/>
+      <c r="AGI64" s="0"/>
+      <c r="AGJ64" s="0"/>
+      <c r="AGK64" s="0"/>
+      <c r="AGL64" s="0"/>
+      <c r="AGM64" s="0"/>
+      <c r="AGN64" s="0"/>
+      <c r="AGO64" s="0"/>
+      <c r="AGP64" s="0"/>
+      <c r="AGQ64" s="0"/>
+      <c r="AGR64" s="0"/>
+      <c r="AGS64" s="0"/>
+      <c r="AGT64" s="0"/>
+      <c r="AGU64" s="0"/>
+      <c r="AGV64" s="0"/>
+      <c r="AGW64" s="0"/>
+      <c r="AGX64" s="0"/>
+      <c r="AGY64" s="0"/>
+      <c r="AGZ64" s="0"/>
+      <c r="AHA64" s="0"/>
+      <c r="AHB64" s="0"/>
+      <c r="AHC64" s="0"/>
+      <c r="AHD64" s="0"/>
+      <c r="AHE64" s="0"/>
+      <c r="AHF64" s="0"/>
+      <c r="AHG64" s="0"/>
+      <c r="AHH64" s="0"/>
+      <c r="AHI64" s="0"/>
+      <c r="AHJ64" s="0"/>
+      <c r="AHK64" s="0"/>
+      <c r="AHL64" s="0"/>
+      <c r="AHM64" s="0"/>
+      <c r="AHN64" s="0"/>
+      <c r="AHO64" s="0"/>
+      <c r="AHP64" s="0"/>
+      <c r="AHQ64" s="0"/>
+      <c r="AHR64" s="0"/>
+      <c r="AHS64" s="0"/>
+      <c r="AHT64" s="0"/>
+      <c r="AHU64" s="0"/>
+      <c r="AHV64" s="0"/>
+      <c r="AHW64" s="0"/>
+      <c r="AHX64" s="0"/>
+      <c r="AHY64" s="0"/>
+      <c r="AHZ64" s="0"/>
+      <c r="AIA64" s="0"/>
+      <c r="AIB64" s="0"/>
+      <c r="AIC64" s="0"/>
+      <c r="AID64" s="0"/>
+      <c r="AIE64" s="0"/>
+      <c r="AIF64" s="0"/>
+      <c r="AIG64" s="0"/>
+      <c r="AIH64" s="0"/>
+      <c r="AII64" s="0"/>
+      <c r="AIJ64" s="0"/>
+      <c r="AIK64" s="0"/>
+      <c r="AIL64" s="0"/>
+      <c r="AIM64" s="0"/>
+      <c r="AIN64" s="0"/>
+      <c r="AIO64" s="0"/>
+      <c r="AIP64" s="0"/>
+      <c r="AIQ64" s="0"/>
+      <c r="AIR64" s="0"/>
+      <c r="AIS64" s="0"/>
+      <c r="AIT64" s="0"/>
+      <c r="AIU64" s="0"/>
+      <c r="AIV64" s="0"/>
+      <c r="AIW64" s="0"/>
+      <c r="AIX64" s="0"/>
+      <c r="AIY64" s="0"/>
+      <c r="AIZ64" s="0"/>
+      <c r="AJA64" s="0"/>
+      <c r="AJB64" s="0"/>
+      <c r="AJC64" s="0"/>
+      <c r="AJD64" s="0"/>
+      <c r="AJE64" s="0"/>
+      <c r="AJF64" s="0"/>
+      <c r="AJG64" s="0"/>
+      <c r="AJH64" s="0"/>
+      <c r="AJI64" s="0"/>
+      <c r="AJJ64" s="0"/>
+      <c r="AJK64" s="0"/>
+      <c r="AJL64" s="0"/>
+      <c r="AJM64" s="0"/>
+      <c r="AJN64" s="0"/>
+      <c r="AJO64" s="0"/>
+      <c r="AJP64" s="0"/>
+      <c r="AJQ64" s="0"/>
+      <c r="AJR64" s="0"/>
+      <c r="AJS64" s="0"/>
+      <c r="AJT64" s="0"/>
+      <c r="AJU64" s="0"/>
+      <c r="AJV64" s="0"/>
+      <c r="AJW64" s="0"/>
+      <c r="AJX64" s="0"/>
+      <c r="AJY64" s="0"/>
+      <c r="AJZ64" s="0"/>
+      <c r="AKA64" s="0"/>
+      <c r="AKB64" s="0"/>
+      <c r="AKC64" s="0"/>
+      <c r="AKD64" s="0"/>
+      <c r="AKE64" s="0"/>
+      <c r="AKF64" s="0"/>
+      <c r="AKG64" s="0"/>
+      <c r="AKH64" s="0"/>
+      <c r="AKI64" s="0"/>
+      <c r="AKJ64" s="0"/>
+      <c r="AKK64" s="0"/>
+      <c r="AKL64" s="0"/>
+      <c r="AKM64" s="0"/>
+      <c r="AKN64" s="0"/>
+      <c r="AKO64" s="0"/>
+      <c r="AKP64" s="0"/>
+      <c r="AKQ64" s="0"/>
+      <c r="AKR64" s="0"/>
+      <c r="AKS64" s="0"/>
+      <c r="AKT64" s="0"/>
+      <c r="AKU64" s="0"/>
+      <c r="AKV64" s="0"/>
+      <c r="AKW64" s="0"/>
+      <c r="AKX64" s="0"/>
+      <c r="AKY64" s="0"/>
+      <c r="AKZ64" s="0"/>
+      <c r="ALA64" s="0"/>
+      <c r="ALB64" s="0"/>
+      <c r="ALC64" s="0"/>
+      <c r="ALD64" s="0"/>
+      <c r="ALE64" s="0"/>
+      <c r="ALF64" s="0"/>
+      <c r="ALG64" s="0"/>
+      <c r="ALH64" s="0"/>
+      <c r="ALI64" s="0"/>
+      <c r="ALJ64" s="0"/>
+      <c r="ALK64" s="0"/>
+      <c r="ALL64" s="0"/>
+      <c r="ALM64" s="0"/>
+      <c r="ALN64" s="0"/>
+      <c r="ALO64" s="0"/>
+      <c r="ALP64" s="0"/>
+      <c r="ALQ64" s="0"/>
+      <c r="ALR64" s="0"/>
+      <c r="ALS64" s="0"/>
+      <c r="ALT64" s="0"/>
+      <c r="ALU64" s="0"/>
+      <c r="ALV64" s="0"/>
+      <c r="ALW64" s="0"/>
+      <c r="ALX64" s="0"/>
+      <c r="ALY64" s="0"/>
+      <c r="ALZ64" s="0"/>
+      <c r="AMA64" s="0"/>
+      <c r="AMB64" s="0"/>
+      <c r="AMC64" s="0"/>
+      <c r="AMD64" s="0"/>
+      <c r="AME64" s="0"/>
+      <c r="AMF64" s="0"/>
+      <c r="AMG64" s="0"/>
+      <c r="AMH64" s="0"/>
+      <c r="AMI64" s="0"/>
     </row>
-    <row r="65" s="17" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="16"/>
+    <row r="65" s="12" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="11"/>
       <c r="B65" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D65" s="7" t="s">
         <v>31</v>
@@ -48195,33 +54252,33 @@
       <c r="I65" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="AMF65" s="18"/>
-      <c r="AMG65" s="18"/>
-      <c r="AMH65" s="18"/>
-      <c r="AMI65" s="18"/>
+      <c r="AMF65" s="13"/>
+      <c r="AMG65" s="13"/>
+      <c r="AMH65" s="13"/>
+      <c r="AMI65" s="13"/>
       <c r="AMJ65" s="8"/>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="5"/>
       <c r="B66" s="6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="D66" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="D66" s="10" t="s">
         <v>11</v>
       </c>
       <c r="E66" s="6" t="s">
         <v>52</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G66" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="H66" s="15" t="s">
+      <c r="H66" s="10" t="s">
         <v>12</v>
       </c>
       <c r="I66" s="6" t="s">
@@ -48231,51 +54288,51 @@
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="5"/>
       <c r="B67" s="6" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="D67" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="D67" s="10" t="s">
         <v>11</v>
       </c>
       <c r="E67" s="6" t="s">
         <v>52</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="H67" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="H67" s="10" t="s">
         <v>12</v>
       </c>
       <c r="I67" s="6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="5"/>
       <c r="B68" s="6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="D68" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="D68" s="10" t="s">
         <v>11</v>
       </c>
       <c r="E68" s="6" t="s">
         <v>52</v>
       </c>
       <c r="F68" s="6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G68" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H68" s="15" t="s">
+      <c r="H68" s="10" t="s">
         <v>12</v>
       </c>
       <c r="I68" s="6" t="s">
@@ -48285,24 +54342,24 @@
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="5"/>
       <c r="B69" s="6" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="D69" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="D69" s="10" t="s">
         <v>11</v>
       </c>
       <c r="E69" s="6" t="s">
         <v>52</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G69" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="H69" s="15" t="s">
+      <c r="H69" s="10" t="s">
         <v>12</v>
       </c>
       <c r="I69" s="6" t="s">
@@ -48333,13 +54390,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="24.6356275303644"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="19.9230769230769"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="18.2105263157895"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="14.4615384615385"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="70.4858299595142"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="24.8502024291498"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="20.0323886639676"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="18.3157894736842"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="14.5668016194332"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="71.0202429149798"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="1" width="5.1417004048583"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="47.9878542510121"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="48.417004048583"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="1" width="3.53441295546559"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="1" width="9.10526315789474"/>
   </cols>
@@ -48355,7 +54412,7 @@
         <v>11</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E1" s="0"/>
       <c r="F1" s="0"/>
@@ -48367,36 +54424,36 @@
         <v>50</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
+        <v>129</v>
+      </c>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
         <v>50</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
